--- a/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000405322573437</v>
+      </c>
+      <c r="D3">
+        <v>0.9988903776894267</v>
+      </c>
+      <c r="E3">
         <v>1.001067938472224</v>
-      </c>
-      <c r="D3">
-        <v>0.9982818170149876</v>
-      </c>
-      <c r="E3">
-        <v>1.000473147221508</v>
       </c>
       <c r="F3">
         <v>1.001067938472224</v>
@@ -719,19 +671,19 @@
         <v>1.000642349298172</v>
       </c>
       <c r="I3">
-        <v>1.001067938472224</v>
+        <v>1.000473147221508</v>
       </c>
       <c r="J3">
         <v>0.9982818170149876</v>
       </c>
       <c r="K3">
+        <v>1.001067938472224</v>
+      </c>
+      <c r="L3">
+        <v>0.9982818170149876</v>
+      </c>
+      <c r="M3">
         <v>0.9996842680169784</v>
-      </c>
-      <c r="L3">
-        <v>1.000405322573437</v>
-      </c>
-      <c r="M3">
-        <v>0.9988903776894267</v>
       </c>
       <c r="N3">
         <v>1.001067938472224</v>
@@ -764,7 +716,7 @@
         <v>0.999884830693377</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000784177596761</v>
+      </c>
+      <c r="D4">
+        <v>0.9978592579276465</v>
+      </c>
+      <c r="E4">
         <v>1.002067550152149</v>
-      </c>
-      <c r="D4">
-        <v>0.9966863920260514</v>
-      </c>
-      <c r="E4">
-        <v>1.000908004782062</v>
       </c>
       <c r="F4">
         <v>1.002067550152149</v>
@@ -790,19 +742,19 @@
         <v>1.001238336267949</v>
       </c>
       <c r="I4">
-        <v>1.002067550152149</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="J4">
         <v>0.9966863920260514</v>
       </c>
       <c r="K4">
+        <v>1.002067550152149</v>
+      </c>
+      <c r="L4">
+        <v>0.9966863920260514</v>
+      </c>
+      <c r="M4">
         <v>0.9993882239207125</v>
-      </c>
-      <c r="L4">
-        <v>1.000784177596761</v>
-      </c>
-      <c r="M4">
-        <v>0.9978592579276465</v>
       </c>
       <c r="N4">
         <v>1.002067550152149</v>
@@ -835,7 +787,7 @@
         <v>0.9997780891238509</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.001501966350855</v>
+      </c>
+      <c r="D5">
+        <v>0.9958968790682443</v>
+      </c>
+      <c r="E5">
         <v>1.003959392972102</v>
-      </c>
-      <c r="D5">
-        <v>0.9936483034077246</v>
-      </c>
-      <c r="E5">
-        <v>1.00174264618712</v>
       </c>
       <c r="F5">
         <v>1.003959392972102</v>
@@ -861,19 +813,19 @@
         <v>1.002373937912515</v>
       </c>
       <c r="I5">
-        <v>1.003959392972102</v>
+        <v>1.00174264618712</v>
       </c>
       <c r="J5">
         <v>0.9936483034077246</v>
       </c>
       <c r="K5">
+        <v>1.003959392972102</v>
+      </c>
+      <c r="L5">
+        <v>0.9936483034077246</v>
+      </c>
+      <c r="M5">
         <v>0.9988286820754164</v>
-      </c>
-      <c r="L5">
-        <v>1.001501966350855</v>
-      </c>
-      <c r="M5">
-        <v>0.9958968790682443</v>
       </c>
       <c r="N5">
         <v>1.003959392972102</v>
@@ -906,7 +858,7 @@
         <v>0.9995745351214013</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.002203123310995</v>
+      </c>
+      <c r="D6">
+        <v>0.9939822059846303</v>
+      </c>
+      <c r="E6">
         <v>1.005807914270457</v>
-      </c>
-      <c r="D6">
-        <v>0.990684498742874</v>
-      </c>
-      <c r="E6">
-        <v>1.002555216207502</v>
       </c>
       <c r="F6">
         <v>1.005807914270457</v>
@@ -932,19 +884,19 @@
         <v>1.0034815862596</v>
       </c>
       <c r="I6">
-        <v>1.005807914270457</v>
+        <v>1.002555216207502</v>
       </c>
       <c r="J6">
         <v>0.990684498742874</v>
       </c>
       <c r="K6">
+        <v>1.005807914270457</v>
+      </c>
+      <c r="L6">
+        <v>0.990684498742874</v>
+      </c>
+      <c r="M6">
         <v>0.9982817614393398</v>
-      </c>
-      <c r="L6">
-        <v>1.002203123310995</v>
-      </c>
-      <c r="M6">
-        <v>0.9939822059846303</v>
       </c>
       <c r="N6">
         <v>1.005807914270457</v>
@@ -977,7 +929,7 @@
         <v>0.9993760295486185</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,55 +937,55 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000041193853462</v>
+      </c>
+      <c r="D7">
+        <v>0.9998998397761305</v>
+      </c>
+      <c r="E7">
         <v>1.000111474333206</v>
-      </c>
-      <c r="D7">
-        <v>0.9998474158344901</v>
-      </c>
-      <c r="E7">
-        <v>1.000032659873278</v>
       </c>
       <c r="F7">
         <v>1.000111474333206</v>
       </c>
       <c r="G7">
-        <v>0.9999668843917878</v>
+        <v>0.9999668843917877</v>
       </c>
       <c r="H7">
         <v>1.000056060385583</v>
       </c>
       <c r="I7">
+        <v>1.000032659873277</v>
+      </c>
+      <c r="J7">
+        <v>0.9998474158344903</v>
+      </c>
+      <c r="K7">
         <v>1.000111474333206</v>
       </c>
-      <c r="J7">
-        <v>0.9998474158344901</v>
-      </c>
-      <c r="K7">
+      <c r="L7">
+        <v>0.9998474158344903</v>
+      </c>
+      <c r="M7">
         <v>0.9999659716818131</v>
-      </c>
-      <c r="L7">
-        <v>1.000041193853462</v>
-      </c>
-      <c r="M7">
-        <v>0.9998998397761303</v>
       </c>
       <c r="N7">
         <v>1.000111474333206</v>
       </c>
       <c r="O7">
-        <v>1.000032659873278</v>
+        <v>1.000032659873277</v>
       </c>
       <c r="P7">
         <v>0.9999400378538839</v>
       </c>
       <c r="Q7">
-        <v>0.9999997721325327</v>
+        <v>0.9999997721325325</v>
       </c>
       <c r="R7">
         <v>0.9999971833469914</v>
       </c>
       <c r="S7">
-        <v>0.9999489866998519</v>
+        <v>0.9999489866998518</v>
       </c>
       <c r="T7">
         <v>0.9999971833469914</v>
@@ -1045,10 +997,10 @@
         <v>1.000013981753194</v>
       </c>
       <c r="W7">
-        <v>0.9999901875162188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999901875162189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1008,70 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000123225072074</v>
+      </c>
+      <c r="D8">
+        <v>0.999700803727519</v>
+      </c>
+      <c r="E8">
         <v>1.00033355817284</v>
-      </c>
-      <c r="D8">
-        <v>0.9995443003033793</v>
-      </c>
-      <c r="E8">
-        <v>1.000097184991916</v>
       </c>
       <c r="F8">
         <v>1.00033355817284</v>
       </c>
       <c r="G8">
-        <v>0.9999010757218387</v>
+        <v>0.9999010757218383</v>
       </c>
       <c r="H8">
         <v>1.000167392945019</v>
       </c>
       <c r="I8">
+        <v>1.000097184991915</v>
+      </c>
+      <c r="J8">
+        <v>0.999544300303379</v>
+      </c>
+      <c r="K8">
         <v>1.00033355817284</v>
       </c>
-      <c r="J8">
-        <v>0.9995443003033793</v>
-      </c>
-      <c r="K8">
-        <v>0.9998981460110322</v>
-      </c>
       <c r="L8">
-        <v>1.000123225072074</v>
+        <v>0.999544300303379</v>
       </c>
       <c r="M8">
-        <v>0.9997008037275188</v>
+        <v>0.9998981460110319</v>
       </c>
       <c r="N8">
         <v>1.00033355817284</v>
       </c>
       <c r="O8">
-        <v>1.000097184991916</v>
+        <v>1.000097184991915</v>
       </c>
       <c r="P8">
-        <v>0.9998207426476474</v>
+        <v>0.9998207426476472</v>
       </c>
       <c r="Q8">
-        <v>0.9999991303568772</v>
+        <v>0.9999991303568768</v>
       </c>
       <c r="R8">
         <v>0.999991681156045</v>
       </c>
       <c r="S8">
-        <v>0.9998475203390446</v>
+        <v>0.9998475203390442</v>
       </c>
       <c r="T8">
         <v>0.999991681156045</v>
       </c>
       <c r="U8">
-        <v>0.9999690297974935</v>
+        <v>0.9999690297974932</v>
       </c>
       <c r="V8">
-        <v>1.000041935472563</v>
+        <v>1.000041935472562</v>
       </c>
       <c r="W8">
         <v>0.9999707108682022</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000196910518558</v>
+      </c>
+      <c r="D9">
+        <v>0.9995245573596104</v>
+      </c>
+      <c r="E9">
         <v>1.000533642260314</v>
-      </c>
-      <c r="D9">
-        <v>0.9992764624376577</v>
-      </c>
-      <c r="E9">
-        <v>1.000152036019605</v>
       </c>
       <c r="F9">
         <v>1.000533642260314</v>
@@ -1145,19 +1097,19 @@
         <v>1.000265541063957</v>
       </c>
       <c r="I9">
-        <v>1.000533642260314</v>
+        <v>1.000152036019605</v>
       </c>
       <c r="J9">
         <v>0.9992764624376577</v>
       </c>
       <c r="K9">
+        <v>1.000533642260314</v>
+      </c>
+      <c r="L9">
+        <v>0.9992764624376577</v>
+      </c>
+      <c r="M9">
         <v>0.9998368292674066</v>
-      </c>
-      <c r="L9">
-        <v>1.000196910518558</v>
-      </c>
-      <c r="M9">
-        <v>0.9995245573596104</v>
       </c>
       <c r="N9">
         <v>1.000533642260314</v>
@@ -1190,7 +1142,7 @@
         <v>0.99995359679422</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000401254364678</v>
+      </c>
+      <c r="D10">
+        <v>0.9990265068402832</v>
+      </c>
+      <c r="E10">
         <v>1.001086341281146</v>
-      </c>
-      <c r="D10">
-        <v>0.9985174697506188</v>
-      </c>
-      <c r="E10">
-        <v>1.000315514069934</v>
       </c>
       <c r="F10">
         <v>1.001086341281146</v>
@@ -1216,19 +1168,19 @@
         <v>1.000544516324674</v>
       </c>
       <c r="I10">
-        <v>1.001086341281146</v>
+        <v>1.000315514069934</v>
       </c>
       <c r="J10">
         <v>0.9985174697506188</v>
       </c>
       <c r="K10">
+        <v>1.001086341281146</v>
+      </c>
+      <c r="L10">
+        <v>0.9985174697506188</v>
+      </c>
+      <c r="M10">
         <v>0.9996682171748346</v>
-      </c>
-      <c r="L10">
-        <v>1.000401254364678</v>
-      </c>
-      <c r="M10">
-        <v>0.9990265068402832</v>
       </c>
       <c r="N10">
         <v>1.001086341281146</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999047433146229</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000727278167011</v>
+      </c>
+      <c r="D11">
+        <v>0.998249373591813</v>
+      </c>
+      <c r="E11">
         <v>1.001972233241002</v>
-      </c>
-      <c r="D11">
-        <v>0.9973370836746688</v>
-      </c>
-      <c r="E11">
-        <v>1.000554940930614</v>
       </c>
       <c r="F11">
         <v>1.001972233241002</v>
@@ -1287,19 +1239,19 @@
         <v>1.000976821582158</v>
       </c>
       <c r="I11">
-        <v>1.001972233241002</v>
+        <v>1.000554940930614</v>
       </c>
       <c r="J11">
         <v>0.9973370836746688</v>
       </c>
       <c r="K11">
+        <v>1.001972233241002</v>
+      </c>
+      <c r="L11">
+        <v>0.9973370836746688</v>
+      </c>
+      <c r="M11">
         <v>0.999396514522401</v>
-      </c>
-      <c r="L11">
-        <v>1.000727278167011</v>
-      </c>
-      <c r="M11">
-        <v>0.998249373591813</v>
       </c>
       <c r="N11">
         <v>1.001972233241002</v>
@@ -1332,7 +1284,7 @@
         <v>0.9998294237708147</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,40 +1292,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9821404041799529</v>
+        <v>0.9933227632922365</v>
       </c>
       <c r="D12">
-        <v>1.026306587205432</v>
+        <v>1.017136046100289</v>
       </c>
       <c r="E12">
-        <v>0.9936044087255695</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="F12">
-        <v>0.9821404041799529</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="G12">
         <v>1.005663537866151</v>
       </c>
       <c r="H12">
-        <v>0.9902542288156034</v>
+        <v>0.9902542288156035</v>
       </c>
       <c r="I12">
-        <v>0.9821404041799529</v>
+        <v>0.9936044087255695</v>
       </c>
       <c r="J12">
         <v>1.026306587205432</v>
       </c>
       <c r="K12">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="L12">
+        <v>1.026306587205432</v>
+      </c>
+      <c r="M12">
         <v>1.005377194681916</v>
       </c>
-      <c r="L12">
-        <v>0.9933227632922365</v>
-      </c>
-      <c r="M12">
-        <v>1.017136046100288</v>
-      </c>
       <c r="N12">
-        <v>0.9821404041799529</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="O12">
         <v>0.9936044087255695</v>
@@ -1403,7 +1355,7 @@
         <v>1.001725646358394</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,16 +1363,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9955373281899969</v>
+        <v>0.9983172392220799</v>
       </c>
       <c r="D13">
-        <v>1.006916149344086</v>
+        <v>1.004482494922416</v>
       </c>
       <c r="E13">
-        <v>0.9981876606761695</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="F13">
-        <v>0.9955373281899969</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="G13">
         <v>1.001481102856113</v>
@@ -1429,22 +1381,22 @@
         <v>0.997424044878341</v>
       </c>
       <c r="I13">
-        <v>0.9955373281899969</v>
+        <v>0.9981876606761695</v>
       </c>
       <c r="J13">
         <v>1.006916149344086</v>
       </c>
       <c r="K13">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="L13">
+        <v>1.006916149344086</v>
+      </c>
+      <c r="M13">
         <v>1.001329914800154</v>
       </c>
-      <c r="L13">
-        <v>0.9983172392220799</v>
-      </c>
-      <c r="M13">
-        <v>1.004482494922416</v>
-      </c>
       <c r="N13">
-        <v>0.9955373281899969</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="O13">
         <v>0.9981876606761695</v>
@@ -1474,7 +1426,7 @@
         <v>1.000459491861169</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.018061149425779</v>
+      </c>
+      <c r="D14">
+        <v>0.9454244520259752</v>
+      </c>
+      <c r="E14">
         <v>1.046392014274267</v>
-      </c>
-      <c r="D14">
-        <v>0.9144724854047238</v>
-      </c>
-      <c r="E14">
-        <v>1.027359190789132</v>
       </c>
       <c r="F14">
         <v>1.046392014274267</v>
       </c>
       <c r="G14">
-        <v>0.9819814542321903</v>
+        <v>0.9819814542321902</v>
       </c>
       <c r="H14">
         <v>1.032374499199281</v>
       </c>
       <c r="I14">
+        <v>1.027359190789132</v>
+      </c>
+      <c r="J14">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="K14">
         <v>1.046392014274267</v>
       </c>
-      <c r="J14">
-        <v>0.9144724854047238</v>
-      </c>
-      <c r="K14">
+      <c r="L14">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="M14">
         <v>0.986719975199305</v>
-      </c>
-      <c r="L14">
-        <v>1.018061149425779</v>
-      </c>
-      <c r="M14">
-        <v>0.9454244520259752</v>
       </c>
       <c r="N14">
         <v>1.046392014274267</v>
@@ -1521,7 +1473,7 @@
         <v>1.027359190789132</v>
       </c>
       <c r="P14">
-        <v>0.9709158380969281</v>
+        <v>0.9709158380969279</v>
       </c>
       <c r="Q14">
         <v>1.004670322510661</v>
@@ -1530,7 +1482,7 @@
         <v>0.9960745634893744</v>
       </c>
       <c r="S14">
-        <v>0.9746043768086822</v>
+        <v>0.9746043768086819</v>
       </c>
       <c r="T14">
         <v>0.9960745634893744</v>
@@ -1545,7 +1497,7 @@
         <v>0.9940981525688316</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.006360180666128</v>
+      </c>
+      <c r="D15">
+        <v>0.9866026450346961</v>
+      </c>
+      <c r="E15">
         <v>1.017693063773262</v>
-      </c>
-      <c r="D15">
-        <v>0.9800535967273403</v>
-      </c>
-      <c r="E15">
-        <v>1.002514156054048</v>
       </c>
       <c r="F15">
         <v>1.017693063773262</v>
       </c>
       <c r="G15">
-        <v>0.9955653923526082</v>
+        <v>0.9955653923526081</v>
       </c>
       <c r="H15">
         <v>1.007144389806458</v>
       </c>
       <c r="I15">
-        <v>1.017693063773262</v>
+        <v>1.002514156054048</v>
       </c>
       <c r="J15">
         <v>0.9800535967273403</v>
       </c>
       <c r="K15">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="L15">
+        <v>0.9800535967273403</v>
+      </c>
+      <c r="M15">
         <v>0.994428356899527</v>
-      </c>
-      <c r="L15">
-        <v>1.006360180666128</v>
-      </c>
-      <c r="M15">
-        <v>0.9866026450346961</v>
       </c>
       <c r="N15">
         <v>1.017693063773262</v>
@@ -1595,7 +1547,7 @@
         <v>0.991283876390694</v>
       </c>
       <c r="Q15">
-        <v>0.999039774203328</v>
+        <v>0.9990397742033279</v>
       </c>
       <c r="R15">
         <v>1.00008693885155</v>
@@ -1616,7 +1568,7 @@
         <v>0.9987952226642585</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999798515260632</v>
+        <v>1.007942609078405</v>
       </c>
       <c r="D16">
-        <v>0.9999790891325381</v>
+        <v>0.9783680022420659</v>
       </c>
       <c r="E16">
-        <v>1.000024401686643</v>
+        <v>1.020953205344407</v>
       </c>
       <c r="F16">
-        <v>0.9999798515260632</v>
+        <v>1.020953205344407</v>
       </c>
       <c r="G16">
-        <v>0.9999966600857897</v>
+        <v>0.9928534016722937</v>
       </c>
       <c r="H16">
-        <v>1.000009772982316</v>
+        <v>1.012505531524608</v>
       </c>
       <c r="I16">
-        <v>0.9999798515260632</v>
+        <v>1.009134781025981</v>
       </c>
       <c r="J16">
-        <v>0.9999790891325381</v>
+        <v>0.966526455763652</v>
       </c>
       <c r="K16">
-        <v>1.000008088948337</v>
+        <v>1.020953205344407</v>
       </c>
       <c r="L16">
-        <v>0.9999945753867523</v>
+        <v>0.966526455763652</v>
       </c>
       <c r="M16">
-        <v>0.9999897243622258</v>
+        <v>0.9937957820421717</v>
       </c>
       <c r="N16">
-        <v>0.9999798515260632</v>
+        <v>1.020953205344407</v>
       </c>
       <c r="O16">
-        <v>1.000024401686643</v>
+        <v>1.009134781025981</v>
       </c>
       <c r="P16">
-        <v>1.00000174540959</v>
+        <v>0.9878306183948162</v>
       </c>
       <c r="Q16">
-        <v>1.000010530886216</v>
+        <v>1.000994091349137</v>
       </c>
       <c r="R16">
-        <v>0.9999944474484147</v>
+        <v>0.9988714807113462</v>
       </c>
       <c r="S16">
-        <v>1.000000050301657</v>
+        <v>0.9895048794873088</v>
       </c>
       <c r="T16">
-        <v>0.9999944474484147</v>
+        <v>0.9988714807113462</v>
       </c>
       <c r="U16">
-        <v>0.9999950006077585</v>
+        <v>0.9973669609515832</v>
       </c>
       <c r="V16">
-        <v>0.9999919707914195</v>
+        <v>1.002084209830148</v>
       </c>
       <c r="W16">
-        <v>0.9999977705138332</v>
+        <v>0.9977599710866979</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000144877184505</v>
+        <v>1.006607047516832</v>
       </c>
       <c r="D17">
-        <v>0.999878699515234</v>
+        <v>0.9823243702503921</v>
       </c>
       <c r="E17">
-        <v>0.9999943177185844</v>
+        <v>1.017504194752366</v>
       </c>
       <c r="F17">
-        <v>1.000144877184505</v>
+        <v>1.017504194752366</v>
       </c>
       <c r="G17">
-        <v>0.9999717720399854</v>
+        <v>0.9941597824208361</v>
       </c>
       <c r="H17">
-        <v>1.000041243808312</v>
+        <v>1.010169534943609</v>
       </c>
       <c r="I17">
-        <v>1.000144877184505</v>
+        <v>1.007208672941468</v>
       </c>
       <c r="J17">
-        <v>0.999878699515234</v>
+        <v>0.9727123415661439</v>
       </c>
       <c r="K17">
-        <v>0.9999526949152433</v>
+        <v>1.017504194752366</v>
       </c>
       <c r="L17">
-        <v>1.000050328743957</v>
+        <v>0.9727123415661439</v>
       </c>
       <c r="M17">
-        <v>0.9999148960249042</v>
+        <v>0.9947899923516822</v>
       </c>
       <c r="N17">
-        <v>1.000144877184505</v>
+        <v>1.017504194752366</v>
       </c>
       <c r="O17">
-        <v>0.9999943177185844</v>
+        <v>1.007208672941468</v>
       </c>
       <c r="P17">
-        <v>0.9999365086169092</v>
+        <v>0.9899605072538058</v>
       </c>
       <c r="Q17">
-        <v>0.9999830448792849</v>
+        <v>1.000684227681152</v>
       </c>
       <c r="R17">
-        <v>1.000005964806108</v>
+        <v>0.9991417364199927</v>
       </c>
       <c r="S17">
-        <v>0.9999482630912681</v>
+        <v>0.9913602656428159</v>
       </c>
       <c r="T17">
-        <v>1.000005964806108</v>
+        <v>0.9991417364199927</v>
       </c>
       <c r="U17">
-        <v>0.9999974166145773</v>
+        <v>0.9978962479202036</v>
       </c>
       <c r="V17">
-        <v>1.000026908728563</v>
+        <v>1.001817837286636</v>
       </c>
       <c r="W17">
-        <v>0.9999936037438408</v>
+        <v>0.9981844920929162</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000245459556248</v>
+        <v>1.003953966193323</v>
       </c>
       <c r="D18">
-        <v>0.9994241013259291</v>
+        <v>0.9901901115745281</v>
       </c>
       <c r="E18">
-        <v>1.000221863335574</v>
+        <v>1.010654265814894</v>
       </c>
       <c r="F18">
-        <v>1.000245459556248</v>
+        <v>1.010654265814894</v>
       </c>
       <c r="G18">
-        <v>0.9998809369089197</v>
+        <v>0.9967570121623018</v>
       </c>
       <c r="H18">
-        <v>1.000221943351477</v>
+        <v>1.005524381578677</v>
       </c>
       <c r="I18">
-        <v>1.000245459556248</v>
+        <v>1.003374585802061</v>
       </c>
       <c r="J18">
-        <v>0.9994241013259291</v>
+        <v>0.9850118224225988</v>
       </c>
       <c r="K18">
-        <v>0.9999346694570462</v>
+        <v>1.010654265814894</v>
       </c>
       <c r="L18">
-        <v>1.000100702128573</v>
+        <v>0.9850118224225988</v>
       </c>
       <c r="M18">
-        <v>0.9996390316239088</v>
+        <v>0.9967639923600559</v>
       </c>
       <c r="N18">
-        <v>1.000245459556248</v>
+        <v>1.010654265814894</v>
       </c>
       <c r="O18">
-        <v>1.000221863335574</v>
+        <v>1.003374585802061</v>
       </c>
       <c r="P18">
-        <v>0.9998229823307513</v>
+        <v>0.9941932041123299</v>
       </c>
       <c r="Q18">
-        <v>1.000051400122246</v>
+        <v>1.000065798982182</v>
       </c>
       <c r="R18">
-        <v>0.9999638080725836</v>
+        <v>0.9996802246798513</v>
       </c>
       <c r="S18">
-        <v>0.9998423005234741</v>
+        <v>0.9950478067956539</v>
       </c>
       <c r="T18">
-        <v>0.9999638080725836</v>
+        <v>0.9996802246798513</v>
       </c>
       <c r="U18">
-        <v>0.9999430902816675</v>
+        <v>0.998949421550464</v>
       </c>
       <c r="V18">
-        <v>1.000003564136584</v>
+        <v>1.00129039040335</v>
       </c>
       <c r="W18">
-        <v>0.9999585884609594</v>
+        <v>0.999028767238555</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.004281829806758</v>
+      </c>
+      <c r="D19">
+        <v>0.9894739694989274</v>
+      </c>
+      <c r="E19">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="F19">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="G19">
+        <v>0.9965200382817773</v>
+      </c>
+      <c r="H19">
+        <v>1.005911328226395</v>
+      </c>
+      <c r="I19">
+        <v>1.003535396266183</v>
+      </c>
+      <c r="J19">
+        <v>0.9839390105316808</v>
+      </c>
+      <c r="K19">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="L19">
+        <v>0.9839390105316808</v>
+      </c>
+      <c r="M19">
+        <v>0.9964806980399419</v>
+      </c>
+      <c r="N19">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="O19">
+        <v>1.003535396266183</v>
+      </c>
+      <c r="P19">
+        <v>0.9937372033989317</v>
+      </c>
+      <c r="Q19">
+        <v>1.00002771727398</v>
+      </c>
+      <c r="R19">
+        <v>0.9996782658631599</v>
+      </c>
+      <c r="S19">
+        <v>0.9946648150265469</v>
+      </c>
+      <c r="T19">
+        <v>0.9996782658631599</v>
+      </c>
+      <c r="U19">
+        <v>0.9988887089678142</v>
+      </c>
+      <c r="V19">
+        <v>1.001423045332575</v>
+      </c>
+      <c r="W19">
+        <v>0.9989628326804099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999945753867523</v>
+      </c>
+      <c r="D20">
+        <v>0.9999897243622256</v>
+      </c>
+      <c r="E20">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="F20">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="G20">
+        <v>0.9999966600857897</v>
+      </c>
+      <c r="H20">
+        <v>1.000009772982316</v>
+      </c>
+      <c r="I20">
+        <v>1.000024401686643</v>
+      </c>
+      <c r="J20">
+        <v>0.9999790891325381</v>
+      </c>
+      <c r="K20">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="L20">
+        <v>0.9999790891325381</v>
+      </c>
+      <c r="M20">
+        <v>1.000008088948337</v>
+      </c>
+      <c r="N20">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="O20">
+        <v>1.000024401686643</v>
+      </c>
+      <c r="P20">
+        <v>1.00000174540959</v>
+      </c>
+      <c r="Q20">
+        <v>1.000010530886216</v>
+      </c>
+      <c r="R20">
+        <v>0.9999944474484147</v>
+      </c>
+      <c r="S20">
+        <v>1.000000050301657</v>
+      </c>
+      <c r="T20">
+        <v>0.9999944474484147</v>
+      </c>
+      <c r="U20">
+        <v>0.9999950006077585</v>
+      </c>
+      <c r="V20">
+        <v>0.9999919707914195</v>
+      </c>
+      <c r="W20">
+        <v>0.9999977705138332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000050328743957</v>
+      </c>
+      <c r="D21">
+        <v>0.9999148960249042</v>
+      </c>
+      <c r="E21">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="F21">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="G21">
+        <v>0.9999717720399854</v>
+      </c>
+      <c r="H21">
+        <v>1.000041243808312</v>
+      </c>
+      <c r="I21">
+        <v>0.9999943177185844</v>
+      </c>
+      <c r="J21">
+        <v>0.999878699515234</v>
+      </c>
+      <c r="K21">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="L21">
+        <v>0.999878699515234</v>
+      </c>
+      <c r="M21">
+        <v>0.9999526949152433</v>
+      </c>
+      <c r="N21">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="O21">
+        <v>0.9999943177185844</v>
+      </c>
+      <c r="P21">
+        <v>0.9999365086169092</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999830448792849</v>
+      </c>
+      <c r="R21">
+        <v>1.000005964806108</v>
+      </c>
+      <c r="S21">
+        <v>0.9999482630912681</v>
+      </c>
+      <c r="T21">
+        <v>1.000005964806108</v>
+      </c>
+      <c r="U21">
+        <v>0.9999974166145773</v>
+      </c>
+      <c r="V21">
+        <v>1.000026908728563</v>
+      </c>
+      <c r="W21">
+        <v>0.9999936037438408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000100702128573</v>
+      </c>
+      <c r="D22">
+        <v>0.9996390316239089</v>
+      </c>
+      <c r="E22">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="F22">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="G22">
+        <v>0.9998809369089197</v>
+      </c>
+      <c r="H22">
+        <v>1.000221943351477</v>
+      </c>
+      <c r="I22">
+        <v>1.000221863335574</v>
+      </c>
+      <c r="J22">
+        <v>0.9994241013259288</v>
+      </c>
+      <c r="K22">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="L22">
+        <v>0.9994241013259288</v>
+      </c>
+      <c r="M22">
+        <v>0.9999346694570462</v>
+      </c>
+      <c r="N22">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="O22">
+        <v>1.000221863335574</v>
+      </c>
+      <c r="P22">
+        <v>0.9998229823307512</v>
+      </c>
+      <c r="Q22">
+        <v>1.000051400122246</v>
+      </c>
+      <c r="R22">
+        <v>0.9999638080725836</v>
+      </c>
+      <c r="S22">
+        <v>0.9998423005234741</v>
+      </c>
+      <c r="T22">
+        <v>0.9999638080725836</v>
+      </c>
+      <c r="U22">
+        <v>0.9999430902816675</v>
+      </c>
+      <c r="V22">
+        <v>1.000003564136584</v>
+      </c>
+      <c r="W22">
+        <v>0.9999585884609594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000188145789222</v>
+      </c>
+      <c r="D23">
+        <v>0.9991160558415756</v>
+      </c>
+      <c r="E23">
         <v>1.00040978017699</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.00040978017699</v>
+      </c>
+      <c r="G23">
+        <v>0.999708773196615</v>
+      </c>
+      <c r="H23">
+        <v>1.000567875110294</v>
+      </c>
+      <c r="I23">
+        <v>1.000670817174929</v>
+      </c>
+      <c r="J23">
         <v>0.9985578882633189</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>1.00040978017699</v>
+      </c>
+      <c r="L23">
+        <v>0.9985578882633189</v>
+      </c>
+      <c r="M23">
+        <v>0.9999101596027834</v>
+      </c>
+      <c r="N23">
+        <v>1.00040978017699</v>
+      </c>
+      <c r="O23">
         <v>1.000670817174929</v>
       </c>
-      <c r="F19">
-        <v>1.00040978017699</v>
-      </c>
-      <c r="G19">
-        <v>0.999708773196615</v>
-      </c>
-      <c r="H19">
-        <v>1.000567875110294</v>
-      </c>
-      <c r="I19">
-        <v>1.00040978017699</v>
-      </c>
-      <c r="J19">
-        <v>0.9985578882633189</v>
-      </c>
-      <c r="K19">
-        <v>0.9999101596027834</v>
-      </c>
-      <c r="L19">
-        <v>1.000188145789222</v>
-      </c>
-      <c r="M19">
-        <v>0.9991160558415756</v>
-      </c>
-      <c r="N19">
-        <v>1.00040978017699</v>
-      </c>
-      <c r="O19">
-        <v>1.000670817174929</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9996143527191239</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000189795185772</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9998794952050795</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.999645826211621</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9998794952050792</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9998368147029633</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9999514077977686</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.999891186894466</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000405322573437</v>
+        <v>1.004681248025937</v>
       </c>
       <c r="D3">
-        <v>0.9988903776894267</v>
+        <v>0.9884016634293925</v>
       </c>
       <c r="E3">
-        <v>1.001067938472224</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="F3">
-        <v>1.001067938472224</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="G3">
-        <v>0.9996334252602823</v>
+        <v>0.9961657443371772</v>
       </c>
       <c r="H3">
-        <v>1.000642349298172</v>
+        <v>1.006528855446687</v>
       </c>
       <c r="I3">
-        <v>1.000473147221508</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="J3">
-        <v>0.9982818170149876</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="K3">
-        <v>1.001067938472224</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="L3">
-        <v>0.9982818170149876</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="M3">
-        <v>0.9996842680169784</v>
+        <v>0.9961663133213293</v>
       </c>
       <c r="N3">
-        <v>1.001067938472224</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="O3">
-        <v>1.000473147221508</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="P3">
-        <v>0.9993774821182476</v>
+        <v>0.9931292993695959</v>
       </c>
       <c r="Q3">
-        <v>1.000053286240895</v>
+        <v>1.000070762301874</v>
       </c>
       <c r="R3">
-        <v>0.9999409675695731</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="S3">
-        <v>0.9994627964989258</v>
+        <v>0.994141447692123</v>
       </c>
       <c r="T3">
-        <v>0.9999409675695731</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="U3">
-        <v>0.9998640819922504</v>
+        <v>0.998760511806556</v>
       </c>
       <c r="V3">
-        <v>1.000104853288245</v>
+        <v>1.001531950275216</v>
       </c>
       <c r="W3">
-        <v>0.999884830693377</v>
+        <v>0.9988525159311963</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000784177596761</v>
+        <v>1.00423426967202</v>
       </c>
       <c r="D4">
-        <v>0.9978592579276465</v>
+        <v>0.9895021281093908</v>
       </c>
       <c r="E4">
-        <v>1.002067550152149</v>
+        <v>1.011411305518074</v>
       </c>
       <c r="F4">
-        <v>1.002067550152149</v>
+        <v>1.011411305518074</v>
       </c>
       <c r="G4">
-        <v>0.9992927703174763</v>
+        <v>0.9965295599180005</v>
       </c>
       <c r="H4">
-        <v>1.001238336267949</v>
+        <v>1.005910562985452</v>
       </c>
       <c r="I4">
-        <v>1.000908004782062</v>
+        <v>1.003604695204998</v>
       </c>
       <c r="J4">
-        <v>0.9966863920260514</v>
+        <v>0.9839623131457277</v>
       </c>
       <c r="K4">
-        <v>1.002067550152149</v>
+        <v>1.011411305518074</v>
       </c>
       <c r="L4">
-        <v>0.9966863920260514</v>
+        <v>0.9839623131457277</v>
       </c>
       <c r="M4">
-        <v>0.9993882239207125</v>
+        <v>0.9965334372707838</v>
       </c>
       <c r="N4">
-        <v>1.002067550152149</v>
+        <v>1.011411305518074</v>
       </c>
       <c r="O4">
-        <v>1.000908004782062</v>
+        <v>1.003604695204998</v>
       </c>
       <c r="P4">
-        <v>0.9987971984040569</v>
+        <v>0.9937835041753627</v>
       </c>
       <c r="Q4">
-        <v>1.000100387549769</v>
+        <v>1.000067127561499</v>
       </c>
       <c r="R4">
-        <v>0.9998873156534209</v>
+        <v>0.9996594379562665</v>
       </c>
       <c r="S4">
-        <v>0.9989623890418633</v>
+        <v>0.9946988560895753</v>
       </c>
       <c r="T4">
-        <v>0.9998873156534209</v>
+        <v>0.9996594379562665</v>
       </c>
       <c r="U4">
-        <v>0.9997386793194347</v>
+        <v>0.9988769684467</v>
       </c>
       <c r="V4">
-        <v>1.000204453485978</v>
+        <v>1.001383835860975</v>
       </c>
       <c r="W4">
-        <v>0.9997780891238509</v>
+        <v>0.9989610339780558</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001501966350855</v>
+        <v>1.005558673423182</v>
       </c>
       <c r="D5">
-        <v>0.9958968790682443</v>
+        <v>0.9862458144743941</v>
       </c>
       <c r="E5">
-        <v>1.003959392972102</v>
+        <v>1.01498690142857</v>
       </c>
       <c r="F5">
-        <v>1.003959392972102</v>
+        <v>1.01498690142857</v>
       </c>
       <c r="G5">
-        <v>0.9986444729972326</v>
+        <v>0.995453002614556</v>
       </c>
       <c r="H5">
-        <v>1.002373937912515</v>
+        <v>1.007739373180592</v>
       </c>
       <c r="I5">
-        <v>1.00174264618712</v>
+        <v>1.004698871725066</v>
       </c>
       <c r="J5">
-        <v>0.9936483034077246</v>
+        <v>0.9789935966846355</v>
       </c>
       <c r="K5">
-        <v>1.003959392972102</v>
+        <v>1.01498690142857</v>
       </c>
       <c r="L5">
-        <v>0.9936483034077246</v>
+        <v>0.9789935966846355</v>
       </c>
       <c r="M5">
-        <v>0.9988286820754164</v>
+        <v>0.9954449711051205</v>
       </c>
       <c r="N5">
-        <v>1.003959392972102</v>
+        <v>1.01498690142857</v>
       </c>
       <c r="O5">
-        <v>1.00174264618712</v>
+        <v>1.004698871725066</v>
       </c>
       <c r="P5">
-        <v>0.9976954747974225</v>
+        <v>0.991846234204851</v>
       </c>
       <c r="Q5">
-        <v>1.000193559592176</v>
+        <v>1.000075937169811</v>
       </c>
       <c r="R5">
-        <v>0.9997834475223156</v>
+        <v>0.9995597899460907</v>
       </c>
       <c r="S5">
-        <v>0.9980118075306925</v>
+        <v>0.9930484903414193</v>
       </c>
       <c r="T5">
-        <v>0.9997834475223156</v>
+        <v>0.9995597899460907</v>
       </c>
       <c r="U5">
-        <v>0.9994987038910449</v>
+        <v>0.998533093113207</v>
       </c>
       <c r="V5">
-        <v>1.000390841707256</v>
+        <v>1.00182385477628</v>
       </c>
       <c r="W5">
-        <v>0.9995745351214013</v>
+        <v>0.9986401505795146</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002203123310995</v>
+        <v>1.006411890113637</v>
       </c>
       <c r="D6">
-        <v>0.9939822059846303</v>
+        <v>0.9841544768181819</v>
       </c>
       <c r="E6">
-        <v>1.005807914270457</v>
+        <v>1.017291908977273</v>
       </c>
       <c r="F6">
-        <v>1.005807914270457</v>
+        <v>1.017291908977273</v>
       </c>
       <c r="G6">
-        <v>0.9980119301735498</v>
+        <v>0.9947615848863635</v>
       </c>
       <c r="H6">
-        <v>1.0034815862596</v>
+        <v>1.008912807045455</v>
       </c>
       <c r="I6">
-        <v>1.002555216207502</v>
+        <v>1.00539584625</v>
       </c>
       <c r="J6">
-        <v>0.990684498742874</v>
+        <v>0.9758039239772728</v>
       </c>
       <c r="K6">
-        <v>1.005807914270457</v>
+        <v>1.017291908977273</v>
       </c>
       <c r="L6">
-        <v>0.990684498742874</v>
+        <v>0.9758039239772728</v>
       </c>
       <c r="M6">
-        <v>0.9982817614393398</v>
+        <v>0.9947427509659084</v>
       </c>
       <c r="N6">
-        <v>1.005807914270457</v>
+        <v>1.017291908977273</v>
       </c>
       <c r="O6">
-        <v>1.002555216207502</v>
+        <v>1.00539584625</v>
       </c>
       <c r="P6">
-        <v>0.9966198574751882</v>
+        <v>0.9905998851136366</v>
       </c>
       <c r="Q6">
-        <v>1.000283573190526</v>
+        <v>1.000078715568182</v>
       </c>
       <c r="R6">
-        <v>0.9996825430736113</v>
+        <v>0.9994972264015155</v>
       </c>
       <c r="S6">
-        <v>0.9970838817079755</v>
+        <v>0.9919871183712122</v>
       </c>
       <c r="T6">
-        <v>0.9996825430736113</v>
+        <v>0.9994972264015153</v>
       </c>
       <c r="U6">
-        <v>0.9992648898485958</v>
+        <v>0.9983133160227273</v>
       </c>
       <c r="V6">
-        <v>1.000573494732968</v>
+        <v>1.002109034613637</v>
       </c>
       <c r="W6">
-        <v>0.9993760295486185</v>
+        <v>0.9984343986292614</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000041193853462</v>
+        <v>1.0104014086514</v>
       </c>
       <c r="D7">
-        <v>0.9998998397761305</v>
+        <v>0.977545271428014</v>
       </c>
       <c r="E7">
-        <v>1.000111474333206</v>
+        <v>1.0288082116115</v>
       </c>
       <c r="F7">
-        <v>1.000111474333206</v>
+        <v>1.0288082116115</v>
       </c>
       <c r="G7">
-        <v>0.9999668843917877</v>
+        <v>0.9925688694007238</v>
       </c>
       <c r="H7">
-        <v>1.000056060385583</v>
+        <v>1.012082209820017</v>
       </c>
       <c r="I7">
-        <v>1.000032659873277</v>
+        <v>1.00477798157277</v>
       </c>
       <c r="J7">
-        <v>0.9998474158344903</v>
+        <v>0.9664278367324142</v>
       </c>
       <c r="K7">
-        <v>1.000111474333206</v>
+        <v>1.0288082116115</v>
       </c>
       <c r="L7">
-        <v>0.9998474158344903</v>
+        <v>0.9664278367324142</v>
       </c>
       <c r="M7">
-        <v>0.9999659716818131</v>
+        <v>0.9909719195035319</v>
       </c>
       <c r="N7">
-        <v>1.000111474333206</v>
+        <v>1.0288082116115</v>
       </c>
       <c r="O7">
-        <v>1.000032659873277</v>
+        <v>1.00477798157277</v>
       </c>
       <c r="P7">
-        <v>0.9999400378538839</v>
+        <v>0.9856029091525923</v>
       </c>
       <c r="Q7">
-        <v>0.9999997721325325</v>
+        <v>0.9986734254867471</v>
       </c>
       <c r="R7">
-        <v>0.9999971833469914</v>
+        <v>1.000004676638895</v>
       </c>
       <c r="S7">
-        <v>0.9999489866998518</v>
+        <v>0.9879248959019694</v>
       </c>
       <c r="T7">
-        <v>0.9999971833469914</v>
+        <v>1.000004676638895</v>
       </c>
       <c r="U7">
-        <v>0.9999896086081905</v>
+        <v>0.998145724829352</v>
       </c>
       <c r="V7">
-        <v>1.000013981753194</v>
+        <v>1.004278222185782</v>
       </c>
       <c r="W7">
-        <v>0.9999901875162189</v>
+        <v>0.9979479635900463</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000123225072074</v>
+        <v>1.010593309143887</v>
       </c>
       <c r="D8">
-        <v>0.999700803727519</v>
+        <v>0.9770657826682845</v>
       </c>
       <c r="E8">
-        <v>1.00033355817284</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="F8">
-        <v>1.00033355817284</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="G8">
-        <v>0.9999010757218383</v>
+        <v>0.9924103663733949</v>
       </c>
       <c r="H8">
-        <v>1.000167392945019</v>
+        <v>1.012352798726128</v>
       </c>
       <c r="I8">
-        <v>1.000097184991915</v>
+        <v>1.004945895251489</v>
       </c>
       <c r="J8">
-        <v>0.999544300303379</v>
+        <v>0.9656945014898176</v>
       </c>
       <c r="K8">
-        <v>1.00033355817284</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="L8">
-        <v>0.999544300303379</v>
+        <v>0.9656945014898176</v>
       </c>
       <c r="M8">
-        <v>0.9998981460110319</v>
+        <v>0.990815383663935</v>
       </c>
       <c r="N8">
-        <v>1.00033355817284</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="O8">
-        <v>1.000097184991915</v>
+        <v>1.004945895251489</v>
       </c>
       <c r="P8">
-        <v>0.9998207426476472</v>
+        <v>0.9853201983706534</v>
       </c>
       <c r="Q8">
-        <v>0.9999991303568768</v>
+        <v>0.9986781308124419</v>
       </c>
       <c r="R8">
-        <v>0.999991681156045</v>
+        <v>0.9999883039579404</v>
       </c>
       <c r="S8">
-        <v>0.9998475203390442</v>
+        <v>0.9876835877049005</v>
       </c>
       <c r="T8">
-        <v>0.999991681156045</v>
+        <v>0.9999883039579402</v>
       </c>
       <c r="U8">
-        <v>0.9999690297974932</v>
+        <v>0.9980938195618039</v>
       </c>
       <c r="V8">
-        <v>1.000041935472562</v>
+        <v>1.004339958675946</v>
       </c>
       <c r="W8">
-        <v>0.9999707108682022</v>
+        <v>0.9979003190561813</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000196910518558</v>
+        <v>1.010702623311803</v>
       </c>
       <c r="D9">
-        <v>0.9995245573596104</v>
+        <v>0.9767784710555367</v>
       </c>
       <c r="E9">
-        <v>1.000533642260314</v>
+        <v>1.029615319726426</v>
       </c>
       <c r="F9">
-        <v>1.000533642260314</v>
+        <v>1.029615319726426</v>
       </c>
       <c r="G9">
-        <v>0.9998427954266521</v>
+        <v>0.9923154241996587</v>
       </c>
       <c r="H9">
-        <v>1.000265541063957</v>
+        <v>1.012517301518441</v>
       </c>
       <c r="I9">
-        <v>1.000152036019605</v>
+        <v>1.005058884590566</v>
       </c>
       <c r="J9">
-        <v>0.9992764624376577</v>
+        <v>0.9652519944654052</v>
       </c>
       <c r="K9">
-        <v>1.000533642260314</v>
+        <v>1.029615319726426</v>
       </c>
       <c r="L9">
-        <v>0.9992764624376577</v>
+        <v>0.9652519944654052</v>
       </c>
       <c r="M9">
-        <v>0.9998368292674066</v>
+        <v>0.9907283942956163</v>
       </c>
       <c r="N9">
-        <v>1.000533642260314</v>
+        <v>1.029615319726426</v>
       </c>
       <c r="O9">
-        <v>1.000152036019605</v>
+        <v>1.005058884590566</v>
       </c>
       <c r="P9">
-        <v>0.9997142492286313</v>
+        <v>0.9851554395279856</v>
       </c>
       <c r="Q9">
-        <v>0.9999974157231284</v>
+        <v>0.9986871543951124</v>
       </c>
       <c r="R9">
-        <v>0.9999873802391921</v>
+        <v>0.9999753995941324</v>
       </c>
       <c r="S9">
-        <v>0.999757097961305</v>
+        <v>0.9875421010852099</v>
       </c>
       <c r="T9">
-        <v>0.9999873802391921</v>
+        <v>0.9999753995941324</v>
       </c>
       <c r="U9">
-        <v>0.9999512340360571</v>
+        <v>0.9980604057455139</v>
       </c>
       <c r="V9">
-        <v>1.000067715680908</v>
+        <v>1.004371388541696</v>
       </c>
       <c r="W9">
-        <v>0.99995359679422</v>
+        <v>0.9978710516454317</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000401254364678</v>
+        <v>1.011435151552243</v>
       </c>
       <c r="D10">
-        <v>0.9990265068402832</v>
+        <v>0.9749641385128734</v>
       </c>
       <c r="E10">
-        <v>1.001086341281146</v>
+        <v>1.031589894097726</v>
       </c>
       <c r="F10">
-        <v>1.001086341281146</v>
+        <v>1.031589894097726</v>
       </c>
       <c r="G10">
-        <v>0.9996781267108138</v>
+        <v>0.9917156285345651</v>
       </c>
       <c r="H10">
-        <v>1.000544516324674</v>
+        <v>1.013538513344257</v>
       </c>
       <c r="I10">
-        <v>1.000315514069934</v>
+        <v>1.005680295907204</v>
       </c>
       <c r="J10">
-        <v>0.9985174697506188</v>
+        <v>0.962480619061764</v>
       </c>
       <c r="K10">
-        <v>1.001086341281146</v>
+        <v>1.031589894097726</v>
       </c>
       <c r="L10">
-        <v>0.9985174697506188</v>
+        <v>0.962480619061764</v>
       </c>
       <c r="M10">
-        <v>0.9996682171748346</v>
+        <v>0.9901284026029635</v>
       </c>
       <c r="N10">
-        <v>1.001086341281146</v>
+        <v>1.031589894097726</v>
       </c>
       <c r="O10">
-        <v>1.000315514069934</v>
+        <v>1.005680295907204</v>
       </c>
       <c r="P10">
-        <v>0.9994164919102764</v>
+        <v>0.9840804574844841</v>
       </c>
       <c r="Q10">
-        <v>0.999996820390374</v>
+        <v>0.9986979622208847</v>
       </c>
       <c r="R10">
-        <v>0.9999731083672329</v>
+        <v>0.9999169363555648</v>
       </c>
       <c r="S10">
-        <v>0.9995037035104555</v>
+        <v>0.9866255145011777</v>
       </c>
       <c r="T10">
-        <v>0.9999731083672329</v>
+        <v>0.9999169363555648</v>
       </c>
       <c r="U10">
-        <v>0.9998993629531281</v>
+        <v>0.9978666094003148</v>
       </c>
       <c r="V10">
-        <v>1.000136758618732</v>
+        <v>1.004611266339797</v>
       </c>
       <c r="W10">
-        <v>0.9999047433146229</v>
+        <v>0.9976915804516995</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000727278167011</v>
+        <v>1.000478406986654</v>
       </c>
       <c r="D11">
-        <v>0.998249373591813</v>
+        <v>0.9987387724227361</v>
       </c>
       <c r="E11">
-        <v>1.001972233241002</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="F11">
-        <v>1.001972233241002</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="G11">
-        <v>0.9994211444568489</v>
+        <v>0.9995832360465199</v>
       </c>
       <c r="H11">
-        <v>1.000976821582158</v>
+        <v>1.000722732717602</v>
       </c>
       <c r="I11">
-        <v>1.000554940930614</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="J11">
-        <v>0.9973370836746688</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="K11">
-        <v>1.001972233241002</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="L11">
-        <v>0.9973370836746688</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="M11">
-        <v>0.999396514522401</v>
+        <v>0.9996198846209775</v>
       </c>
       <c r="N11">
-        <v>1.001972233241002</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="O11">
-        <v>1.000554940930614</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="P11">
-        <v>0.9989460123026417</v>
+        <v>0.9992779398082114</v>
       </c>
       <c r="Q11">
-        <v>0.9999880426937318</v>
+        <v>1.000041204241554</v>
       </c>
       <c r="R11">
-        <v>0.9999547526154284</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="S11">
-        <v>0.9991043896873775</v>
+        <v>0.999379705220981</v>
       </c>
       <c r="T11">
-        <v>0.9999547526154284</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="U11">
-        <v>0.9998213505757836</v>
+        <v>0.9998527273698842</v>
       </c>
       <c r="V11">
-        <v>1.000251527108827</v>
+        <v>1.000136540659226</v>
       </c>
       <c r="W11">
-        <v>0.9998294237708147</v>
+        <v>0.9998713382784382</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9933227632922365</v>
+        <v>1.000271312804261</v>
       </c>
       <c r="D12">
-        <v>1.017136046100289</v>
+        <v>0.9992821859651659</v>
       </c>
       <c r="E12">
-        <v>0.982140404179953</v>
+        <v>1.000720661593695</v>
       </c>
       <c r="F12">
-        <v>0.982140404179953</v>
+        <v>1.000720661593695</v>
       </c>
       <c r="G12">
-        <v>1.005663537866151</v>
+        <v>0.9997628094614504</v>
       </c>
       <c r="H12">
-        <v>0.9902542288156035</v>
+        <v>1.000411737944304</v>
       </c>
       <c r="I12">
-        <v>0.9936044087255695</v>
+        <v>1.000286208486332</v>
       </c>
       <c r="J12">
-        <v>1.026306587205432</v>
+        <v>0.9988934690942001</v>
       </c>
       <c r="K12">
-        <v>0.982140404179953</v>
+        <v>1.000720661593695</v>
       </c>
       <c r="L12">
-        <v>1.026306587205432</v>
+        <v>0.9988934690942001</v>
       </c>
       <c r="M12">
-        <v>1.005377194681916</v>
+        <v>0.9997848218818775</v>
       </c>
       <c r="N12">
-        <v>0.982140404179953</v>
+        <v>1.000720661593695</v>
       </c>
       <c r="O12">
-        <v>0.9936044087255695</v>
+        <v>1.000286208486332</v>
       </c>
       <c r="P12">
-        <v>1.009955497965501</v>
+        <v>0.9995898387902662</v>
       </c>
       <c r="Q12">
-        <v>0.9996339732958601</v>
+        <v>1.000024508973891</v>
       </c>
       <c r="R12">
-        <v>1.000683800036985</v>
+        <v>0.9999667797247422</v>
       </c>
       <c r="S12">
-        <v>1.008524844599051</v>
+        <v>0.9996474956806609</v>
       </c>
       <c r="T12">
-        <v>1.000683800036985</v>
+        <v>0.9999667797247422</v>
       </c>
       <c r="U12">
-        <v>1.001928734494276</v>
+        <v>0.9999157871589193</v>
       </c>
       <c r="V12">
-        <v>0.9979710684314117</v>
+        <v>1.000076762045874</v>
       </c>
       <c r="W12">
-        <v>1.001725646358394</v>
+        <v>0.9999266509039106</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9983172392220799</v>
+        <v>1.001070395570898</v>
       </c>
       <c r="D13">
-        <v>1.004482494922416</v>
+        <v>0.997144812479566</v>
       </c>
       <c r="E13">
-        <v>0.9955373281899967</v>
+        <v>1.002837778986</v>
       </c>
       <c r="F13">
-        <v>0.9955373281899967</v>
+        <v>1.002837778986</v>
       </c>
       <c r="G13">
-        <v>1.001481102856113</v>
+        <v>0.9990565939760729</v>
       </c>
       <c r="H13">
-        <v>0.997424044878341</v>
+        <v>1.0016414014137</v>
       </c>
       <c r="I13">
-        <v>0.9981876606761695</v>
+        <v>1.001157581867674</v>
       </c>
       <c r="J13">
-        <v>1.006916149344086</v>
+        <v>0.995593868502359</v>
       </c>
       <c r="K13">
-        <v>0.9955373281899967</v>
+        <v>1.002837778986</v>
       </c>
       <c r="L13">
-        <v>1.006916149344086</v>
+        <v>0.995593868502359</v>
       </c>
       <c r="M13">
-        <v>1.001329914800154</v>
+        <v>0.9991546417720379</v>
       </c>
       <c r="N13">
-        <v>0.9955373281899967</v>
+        <v>1.002837778986</v>
       </c>
       <c r="O13">
-        <v>0.9981876606761695</v>
+        <v>1.001157581867674</v>
       </c>
       <c r="P13">
-        <v>1.002551905010128</v>
+        <v>0.9983757251850165</v>
       </c>
       <c r="Q13">
-        <v>0.999834381766141</v>
+        <v>1.000107087921873</v>
       </c>
       <c r="R13">
-        <v>1.000213712736751</v>
+        <v>0.999863076452011</v>
       </c>
       <c r="S13">
-        <v>1.002194970958789</v>
+        <v>0.9986026814487019</v>
       </c>
       <c r="T13">
-        <v>1.000213712736751</v>
+        <v>0.999863076452011</v>
       </c>
       <c r="U13">
-        <v>1.000530560266591</v>
+        <v>0.9996614558330266</v>
       </c>
       <c r="V13">
-        <v>0.9995319138512724</v>
+        <v>1.000296720463621</v>
       </c>
       <c r="W13">
-        <v>1.000459491861169</v>
+        <v>0.9997071343210384</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.018061149425779</v>
+        <v>1.0011381786119</v>
       </c>
       <c r="D14">
-        <v>0.9454244520259752</v>
+        <v>0.9968928264637372</v>
       </c>
       <c r="E14">
-        <v>1.046392014274267</v>
+        <v>1.003000891963338</v>
       </c>
       <c r="F14">
-        <v>1.046392014274267</v>
+        <v>1.003000891963338</v>
       </c>
       <c r="G14">
-        <v>0.9819814542321902</v>
+        <v>0.9989734974284034</v>
       </c>
       <c r="H14">
-        <v>1.032374499199281</v>
+        <v>1.001797384004209</v>
       </c>
       <c r="I14">
-        <v>1.027359190789132</v>
+        <v>1.00131794584529</v>
       </c>
       <c r="J14">
-        <v>0.9144724854047235</v>
+        <v>0.9951904742852932</v>
       </c>
       <c r="K14">
-        <v>1.046392014274267</v>
+        <v>1.003000891963338</v>
       </c>
       <c r="L14">
-        <v>0.9144724854047235</v>
+        <v>0.9951904742852932</v>
       </c>
       <c r="M14">
-        <v>0.986719975199305</v>
+        <v>0.9991120574535923</v>
       </c>
       <c r="N14">
-        <v>1.046392014274267</v>
+        <v>1.003000891963338</v>
       </c>
       <c r="O14">
-        <v>1.027359190789132</v>
+        <v>1.00131794584529</v>
       </c>
       <c r="P14">
-        <v>0.9709158380969279</v>
+        <v>0.9982542100652914</v>
       </c>
       <c r="Q14">
-        <v>1.004670322510661</v>
+        <v>1.000145721636847</v>
       </c>
       <c r="R14">
-        <v>0.9960745634893744</v>
+        <v>0.9998364373646401</v>
       </c>
       <c r="S14">
-        <v>0.9746043768086819</v>
+        <v>0.998493972519662</v>
       </c>
       <c r="T14">
-        <v>0.9960745634893744</v>
+        <v>0.9998364373646401</v>
       </c>
       <c r="U14">
-        <v>0.9925512861750784</v>
+        <v>0.9996207023805809</v>
       </c>
       <c r="V14">
-        <v>1.003319431794916</v>
+        <v>1.000296740297132</v>
       </c>
       <c r="W14">
-        <v>0.9940981525688316</v>
+        <v>0.9996779070069703</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.006360180666128</v>
+        <v>1.000405322573437</v>
       </c>
       <c r="D15">
-        <v>0.9866026450346961</v>
+        <v>0.9988903776894267</v>
       </c>
       <c r="E15">
-        <v>1.017693063773262</v>
+        <v>1.001067938472224</v>
       </c>
       <c r="F15">
-        <v>1.017693063773262</v>
+        <v>1.001067938472224</v>
       </c>
       <c r="G15">
-        <v>0.9955653923526081</v>
+        <v>0.9996334252602823</v>
       </c>
       <c r="H15">
-        <v>1.007144389806458</v>
+        <v>1.000642349298172</v>
       </c>
       <c r="I15">
-        <v>1.002514156054048</v>
+        <v>1.000473147221508</v>
       </c>
       <c r="J15">
-        <v>0.9800535967273403</v>
+        <v>0.9982818170149876</v>
       </c>
       <c r="K15">
-        <v>1.017693063773262</v>
+        <v>1.001067938472224</v>
       </c>
       <c r="L15">
-        <v>0.9800535967273403</v>
+        <v>0.9982818170149876</v>
       </c>
       <c r="M15">
-        <v>0.994428356899527</v>
+        <v>0.9996842680169784</v>
       </c>
       <c r="N15">
-        <v>1.017693063773262</v>
+        <v>1.001067938472224</v>
       </c>
       <c r="O15">
-        <v>1.002514156054048</v>
+        <v>1.000473147221508</v>
       </c>
       <c r="P15">
-        <v>0.991283876390694</v>
+        <v>0.9993774821182476</v>
       </c>
       <c r="Q15">
-        <v>0.9990397742033279</v>
+        <v>1.000053286240895</v>
       </c>
       <c r="R15">
-        <v>1.00008693885155</v>
+        <v>0.9999409675695731</v>
       </c>
       <c r="S15">
-        <v>0.9927110483779987</v>
+        <v>0.9994627964989258</v>
       </c>
       <c r="T15">
-        <v>1.00008693885155</v>
+        <v>0.9999409675695731</v>
       </c>
       <c r="U15">
-        <v>0.9989565522268147</v>
+        <v>0.9998640819922504</v>
       </c>
       <c r="V15">
-        <v>1.002703854536104</v>
+        <v>1.000104853288245</v>
       </c>
       <c r="W15">
-        <v>0.9987952226642585</v>
+        <v>0.999884830693377</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007942609078405</v>
+        <v>1.000784177596761</v>
       </c>
       <c r="D16">
-        <v>0.9783680022420659</v>
+        <v>0.9978592579276465</v>
       </c>
       <c r="E16">
-        <v>1.020953205344407</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="F16">
-        <v>1.020953205344407</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="G16">
-        <v>0.9928534016722937</v>
+        <v>0.9992927703174763</v>
       </c>
       <c r="H16">
-        <v>1.012505531524608</v>
+        <v>1.001238336267949</v>
       </c>
       <c r="I16">
-        <v>1.009134781025981</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="J16">
-        <v>0.966526455763652</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="K16">
-        <v>1.020953205344407</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="L16">
-        <v>0.966526455763652</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="M16">
-        <v>0.9937957820421717</v>
+        <v>0.9993882239207125</v>
       </c>
       <c r="N16">
-        <v>1.020953205344407</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="O16">
-        <v>1.009134781025981</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="P16">
-        <v>0.9878306183948162</v>
+        <v>0.9987971984040569</v>
       </c>
       <c r="Q16">
-        <v>1.000994091349137</v>
+        <v>1.000100387549769</v>
       </c>
       <c r="R16">
-        <v>0.9988714807113462</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="S16">
-        <v>0.9895048794873088</v>
+        <v>0.9989623890418633</v>
       </c>
       <c r="T16">
-        <v>0.9988714807113462</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="U16">
-        <v>0.9973669609515832</v>
+        <v>0.9997386793194347</v>
       </c>
       <c r="V16">
-        <v>1.002084209830148</v>
+        <v>1.000204453485978</v>
       </c>
       <c r="W16">
-        <v>0.9977599710866979</v>
+        <v>0.9997780891238509</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006607047516832</v>
+        <v>1.001501966350855</v>
       </c>
       <c r="D17">
-        <v>0.9823243702503921</v>
+        <v>0.9958968790682443</v>
       </c>
       <c r="E17">
-        <v>1.017504194752366</v>
+        <v>1.003959392972102</v>
       </c>
       <c r="F17">
-        <v>1.017504194752366</v>
+        <v>1.003959392972102</v>
       </c>
       <c r="G17">
-        <v>0.9941597824208361</v>
+        <v>0.9986444729972326</v>
       </c>
       <c r="H17">
-        <v>1.010169534943609</v>
+        <v>1.002373937912515</v>
       </c>
       <c r="I17">
-        <v>1.007208672941468</v>
+        <v>1.00174264618712</v>
       </c>
       <c r="J17">
-        <v>0.9727123415661439</v>
+        <v>0.9936483034077246</v>
       </c>
       <c r="K17">
-        <v>1.017504194752366</v>
+        <v>1.003959392972102</v>
       </c>
       <c r="L17">
-        <v>0.9727123415661439</v>
+        <v>0.9936483034077246</v>
       </c>
       <c r="M17">
-        <v>0.9947899923516822</v>
+        <v>0.9988286820754164</v>
       </c>
       <c r="N17">
-        <v>1.017504194752366</v>
+        <v>1.003959392972102</v>
       </c>
       <c r="O17">
-        <v>1.007208672941468</v>
+        <v>1.00174264618712</v>
       </c>
       <c r="P17">
-        <v>0.9899605072538058</v>
+        <v>0.9976954747974225</v>
       </c>
       <c r="Q17">
-        <v>1.000684227681152</v>
+        <v>1.000193559592176</v>
       </c>
       <c r="R17">
-        <v>0.9991417364199927</v>
+        <v>0.9997834475223156</v>
       </c>
       <c r="S17">
-        <v>0.9913602656428159</v>
+        <v>0.9980118075306925</v>
       </c>
       <c r="T17">
-        <v>0.9991417364199927</v>
+        <v>0.9997834475223156</v>
       </c>
       <c r="U17">
-        <v>0.9978962479202036</v>
+        <v>0.9994987038910449</v>
       </c>
       <c r="V17">
-        <v>1.001817837286636</v>
+        <v>1.000390841707256</v>
       </c>
       <c r="W17">
-        <v>0.9981844920929162</v>
+        <v>0.9995745351214013</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003953966193323</v>
+        <v>1.002203123310995</v>
       </c>
       <c r="D18">
-        <v>0.9901901115745281</v>
+        <v>0.9939822059846303</v>
       </c>
       <c r="E18">
-        <v>1.010654265814894</v>
+        <v>1.005807914270457</v>
       </c>
       <c r="F18">
-        <v>1.010654265814894</v>
+        <v>1.005807914270457</v>
       </c>
       <c r="G18">
-        <v>0.9967570121623018</v>
+        <v>0.9980119301735498</v>
       </c>
       <c r="H18">
-        <v>1.005524381578677</v>
+        <v>1.0034815862596</v>
       </c>
       <c r="I18">
-        <v>1.003374585802061</v>
+        <v>1.002555216207502</v>
       </c>
       <c r="J18">
-        <v>0.9850118224225988</v>
+        <v>0.990684498742874</v>
       </c>
       <c r="K18">
-        <v>1.010654265814894</v>
+        <v>1.005807914270457</v>
       </c>
       <c r="L18">
-        <v>0.9850118224225988</v>
+        <v>0.990684498742874</v>
       </c>
       <c r="M18">
-        <v>0.9967639923600559</v>
+        <v>0.9982817614393398</v>
       </c>
       <c r="N18">
-        <v>1.010654265814894</v>
+        <v>1.005807914270457</v>
       </c>
       <c r="O18">
-        <v>1.003374585802061</v>
+        <v>1.002555216207502</v>
       </c>
       <c r="P18">
-        <v>0.9941932041123299</v>
+        <v>0.9966198574751882</v>
       </c>
       <c r="Q18">
-        <v>1.000065798982182</v>
+        <v>1.000283573190526</v>
       </c>
       <c r="R18">
-        <v>0.9996802246798513</v>
+        <v>0.9996825430736113</v>
       </c>
       <c r="S18">
-        <v>0.9950478067956539</v>
+        <v>0.9970838817079755</v>
       </c>
       <c r="T18">
-        <v>0.9996802246798513</v>
+        <v>0.9996825430736113</v>
       </c>
       <c r="U18">
-        <v>0.998949421550464</v>
+        <v>0.9992648898485958</v>
       </c>
       <c r="V18">
-        <v>1.00129039040335</v>
+        <v>1.000573494732968</v>
       </c>
       <c r="W18">
-        <v>0.999028767238555</v>
+        <v>0.9993760295486185</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004281829806758</v>
+        <v>1.000041193853462</v>
       </c>
       <c r="D19">
-        <v>0.9894739694989274</v>
+        <v>0.9998998397761305</v>
       </c>
       <c r="E19">
-        <v>1.011560390791616</v>
+        <v>1.000111474333206</v>
       </c>
       <c r="F19">
-        <v>1.011560390791616</v>
+        <v>1.000111474333206</v>
       </c>
       <c r="G19">
-        <v>0.9965200382817773</v>
+        <v>0.9999668843917877</v>
       </c>
       <c r="H19">
-        <v>1.005911328226395</v>
+        <v>1.000056060385583</v>
       </c>
       <c r="I19">
-        <v>1.003535396266183</v>
+        <v>1.000032659873277</v>
       </c>
       <c r="J19">
-        <v>0.9839390105316808</v>
+        <v>0.9998474158344903</v>
       </c>
       <c r="K19">
-        <v>1.011560390791616</v>
+        <v>1.000111474333206</v>
       </c>
       <c r="L19">
-        <v>0.9839390105316808</v>
+        <v>0.9998474158344903</v>
       </c>
       <c r="M19">
-        <v>0.9964806980399419</v>
+        <v>0.9999659716818131</v>
       </c>
       <c r="N19">
-        <v>1.011560390791616</v>
+        <v>1.000111474333206</v>
       </c>
       <c r="O19">
-        <v>1.003535396266183</v>
+        <v>1.000032659873277</v>
       </c>
       <c r="P19">
-        <v>0.9937372033989317</v>
+        <v>0.9999400378538839</v>
       </c>
       <c r="Q19">
-        <v>1.00002771727398</v>
+        <v>0.9999997721325325</v>
       </c>
       <c r="R19">
-        <v>0.9996782658631599</v>
+        <v>0.9999971833469914</v>
       </c>
       <c r="S19">
-        <v>0.9946648150265469</v>
+        <v>0.9999489866998518</v>
       </c>
       <c r="T19">
-        <v>0.9996782658631599</v>
+        <v>0.9999971833469914</v>
       </c>
       <c r="U19">
-        <v>0.9988887089678142</v>
+        <v>0.9999896086081905</v>
       </c>
       <c r="V19">
-        <v>1.001423045332575</v>
+        <v>1.000013981753194</v>
       </c>
       <c r="W19">
-        <v>0.9989628326804099</v>
+        <v>0.9999901875162189</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999945753867523</v>
+        <v>1.000123225072074</v>
       </c>
       <c r="D20">
-        <v>0.9999897243622256</v>
+        <v>0.999700803727519</v>
       </c>
       <c r="E20">
-        <v>0.9999798515260632</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="F20">
-        <v>0.9999798515260632</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="G20">
-        <v>0.9999966600857897</v>
+        <v>0.9999010757218383</v>
       </c>
       <c r="H20">
-        <v>1.000009772982316</v>
+        <v>1.000167392945019</v>
       </c>
       <c r="I20">
-        <v>1.000024401686643</v>
+        <v>1.000097184991915</v>
       </c>
       <c r="J20">
-        <v>0.9999790891325381</v>
+        <v>0.999544300303379</v>
       </c>
       <c r="K20">
-        <v>0.9999798515260632</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="L20">
-        <v>0.9999790891325381</v>
+        <v>0.999544300303379</v>
       </c>
       <c r="M20">
-        <v>1.000008088948337</v>
+        <v>0.9998981460110319</v>
       </c>
       <c r="N20">
-        <v>0.9999798515260632</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="O20">
-        <v>1.000024401686643</v>
+        <v>1.000097184991915</v>
       </c>
       <c r="P20">
-        <v>1.00000174540959</v>
+        <v>0.9998207426476472</v>
       </c>
       <c r="Q20">
-        <v>1.000010530886216</v>
+        <v>0.9999991303568768</v>
       </c>
       <c r="R20">
-        <v>0.9999944474484147</v>
+        <v>0.999991681156045</v>
       </c>
       <c r="S20">
-        <v>1.000000050301657</v>
+        <v>0.9998475203390442</v>
       </c>
       <c r="T20">
-        <v>0.9999944474484147</v>
+        <v>0.999991681156045</v>
       </c>
       <c r="U20">
-        <v>0.9999950006077585</v>
+        <v>0.9999690297974932</v>
       </c>
       <c r="V20">
-        <v>0.9999919707914195</v>
+        <v>1.000041935472562</v>
       </c>
       <c r="W20">
-        <v>0.9999977705138332</v>
+        <v>0.9999707108682022</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000050328743957</v>
+        <v>1.000196910518558</v>
       </c>
       <c r="D21">
-        <v>0.9999148960249042</v>
+        <v>0.9995245573596104</v>
       </c>
       <c r="E21">
-        <v>1.000144877184505</v>
+        <v>1.000533642260314</v>
       </c>
       <c r="F21">
-        <v>1.000144877184505</v>
+        <v>1.000533642260314</v>
       </c>
       <c r="G21">
-        <v>0.9999717720399854</v>
+        <v>0.9998427954266521</v>
       </c>
       <c r="H21">
-        <v>1.000041243808312</v>
+        <v>1.000265541063957</v>
       </c>
       <c r="I21">
-        <v>0.9999943177185844</v>
+        <v>1.000152036019605</v>
       </c>
       <c r="J21">
-        <v>0.999878699515234</v>
+        <v>0.9992764624376577</v>
       </c>
       <c r="K21">
-        <v>1.000144877184505</v>
+        <v>1.000533642260314</v>
       </c>
       <c r="L21">
-        <v>0.999878699515234</v>
+        <v>0.9992764624376577</v>
       </c>
       <c r="M21">
-        <v>0.9999526949152433</v>
+        <v>0.9998368292674066</v>
       </c>
       <c r="N21">
-        <v>1.000144877184505</v>
+        <v>1.000533642260314</v>
       </c>
       <c r="O21">
-        <v>0.9999943177185844</v>
+        <v>1.000152036019605</v>
       </c>
       <c r="P21">
-        <v>0.9999365086169092</v>
+        <v>0.9997142492286313</v>
       </c>
       <c r="Q21">
-        <v>0.9999830448792849</v>
+        <v>0.9999974157231284</v>
       </c>
       <c r="R21">
-        <v>1.000005964806108</v>
+        <v>0.9999873802391921</v>
       </c>
       <c r="S21">
-        <v>0.9999482630912681</v>
+        <v>0.999757097961305</v>
       </c>
       <c r="T21">
-        <v>1.000005964806108</v>
+        <v>0.9999873802391921</v>
       </c>
       <c r="U21">
-        <v>0.9999974166145773</v>
+        <v>0.9999512340360571</v>
       </c>
       <c r="V21">
-        <v>1.000026908728563</v>
+        <v>1.000067715680908</v>
       </c>
       <c r="W21">
-        <v>0.9999936037438408</v>
+        <v>0.99995359679422</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000100702128573</v>
+        <v>1.000401254364678</v>
       </c>
       <c r="D22">
-        <v>0.9996390316239089</v>
+        <v>0.9990265068402832</v>
       </c>
       <c r="E22">
-        <v>1.000245459556248</v>
+        <v>1.001086341281146</v>
       </c>
       <c r="F22">
-        <v>1.000245459556248</v>
+        <v>1.001086341281146</v>
       </c>
       <c r="G22">
-        <v>0.9998809369089197</v>
+        <v>0.9996781267108138</v>
       </c>
       <c r="H22">
-        <v>1.000221943351477</v>
+        <v>1.000544516324674</v>
       </c>
       <c r="I22">
-        <v>1.000221863335574</v>
+        <v>1.000315514069934</v>
       </c>
       <c r="J22">
-        <v>0.9994241013259288</v>
+        <v>0.9985174697506188</v>
       </c>
       <c r="K22">
-        <v>1.000245459556248</v>
+        <v>1.001086341281146</v>
       </c>
       <c r="L22">
-        <v>0.9994241013259288</v>
+        <v>0.9985174697506188</v>
       </c>
       <c r="M22">
-        <v>0.9999346694570462</v>
+        <v>0.9996682171748346</v>
       </c>
       <c r="N22">
-        <v>1.000245459556248</v>
+        <v>1.001086341281146</v>
       </c>
       <c r="O22">
-        <v>1.000221863335574</v>
+        <v>1.000315514069934</v>
       </c>
       <c r="P22">
-        <v>0.9998229823307512</v>
+        <v>0.9994164919102764</v>
       </c>
       <c r="Q22">
-        <v>1.000051400122246</v>
+        <v>0.999996820390374</v>
       </c>
       <c r="R22">
-        <v>0.9999638080725836</v>
+        <v>0.9999731083672329</v>
       </c>
       <c r="S22">
-        <v>0.9998423005234741</v>
+        <v>0.9995037035104555</v>
       </c>
       <c r="T22">
-        <v>0.9999638080725836</v>
+        <v>0.9999731083672329</v>
       </c>
       <c r="U22">
-        <v>0.9999430902816675</v>
+        <v>0.9998993629531281</v>
       </c>
       <c r="V22">
-        <v>1.000003564136584</v>
+        <v>1.000136758618732</v>
       </c>
       <c r="W22">
-        <v>0.9999585884609594</v>
+        <v>0.9999047433146229</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000727278167011</v>
+      </c>
+      <c r="D23">
+        <v>0.998249373591813</v>
+      </c>
+      <c r="E23">
+        <v>1.001972233241002</v>
+      </c>
+      <c r="F23">
+        <v>1.001972233241002</v>
+      </c>
+      <c r="G23">
+        <v>0.9994211444568489</v>
+      </c>
+      <c r="H23">
+        <v>1.000976821582158</v>
+      </c>
+      <c r="I23">
+        <v>1.000554940930614</v>
+      </c>
+      <c r="J23">
+        <v>0.9973370836746688</v>
+      </c>
+      <c r="K23">
+        <v>1.001972233241002</v>
+      </c>
+      <c r="L23">
+        <v>0.9973370836746688</v>
+      </c>
+      <c r="M23">
+        <v>0.999396514522401</v>
+      </c>
+      <c r="N23">
+        <v>1.001972233241002</v>
+      </c>
+      <c r="O23">
+        <v>1.000554940930614</v>
+      </c>
+      <c r="P23">
+        <v>0.9989460123026417</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999880426937318</v>
+      </c>
+      <c r="R23">
+        <v>0.9999547526154284</v>
+      </c>
+      <c r="S23">
+        <v>0.9991043896873775</v>
+      </c>
+      <c r="T23">
+        <v>0.9999547526154284</v>
+      </c>
+      <c r="U23">
+        <v>0.9998213505757836</v>
+      </c>
+      <c r="V23">
+        <v>1.000251527108827</v>
+      </c>
+      <c r="W23">
+        <v>0.9998294237708147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9933227632922365</v>
+      </c>
+      <c r="D24">
+        <v>1.017136046100289</v>
+      </c>
+      <c r="E24">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="F24">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="G24">
+        <v>1.005663537866151</v>
+      </c>
+      <c r="H24">
+        <v>0.9902542288156035</v>
+      </c>
+      <c r="I24">
+        <v>0.9936044087255695</v>
+      </c>
+      <c r="J24">
+        <v>1.026306587205432</v>
+      </c>
+      <c r="K24">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="L24">
+        <v>1.026306587205432</v>
+      </c>
+      <c r="M24">
+        <v>1.005377194681916</v>
+      </c>
+      <c r="N24">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="O24">
+        <v>0.9936044087255695</v>
+      </c>
+      <c r="P24">
+        <v>1.009955497965501</v>
+      </c>
+      <c r="Q24">
+        <v>0.9996339732958601</v>
+      </c>
+      <c r="R24">
+        <v>1.000683800036985</v>
+      </c>
+      <c r="S24">
+        <v>1.008524844599051</v>
+      </c>
+      <c r="T24">
+        <v>1.000683800036985</v>
+      </c>
+      <c r="U24">
+        <v>1.001928734494276</v>
+      </c>
+      <c r="V24">
+        <v>0.9979710684314117</v>
+      </c>
+      <c r="W24">
+        <v>1.001725646358394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9983172392220799</v>
+      </c>
+      <c r="D25">
+        <v>1.004482494922416</v>
+      </c>
+      <c r="E25">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="F25">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="G25">
+        <v>1.001481102856113</v>
+      </c>
+      <c r="H25">
+        <v>0.997424044878341</v>
+      </c>
+      <c r="I25">
+        <v>0.9981876606761695</v>
+      </c>
+      <c r="J25">
+        <v>1.006916149344086</v>
+      </c>
+      <c r="K25">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="L25">
+        <v>1.006916149344086</v>
+      </c>
+      <c r="M25">
+        <v>1.001329914800154</v>
+      </c>
+      <c r="N25">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="O25">
+        <v>0.9981876606761695</v>
+      </c>
+      <c r="P25">
+        <v>1.002551905010128</v>
+      </c>
+      <c r="Q25">
+        <v>0.999834381766141</v>
+      </c>
+      <c r="R25">
+        <v>1.000213712736751</v>
+      </c>
+      <c r="S25">
+        <v>1.002194970958789</v>
+      </c>
+      <c r="T25">
+        <v>1.000213712736751</v>
+      </c>
+      <c r="U25">
+        <v>1.000530560266591</v>
+      </c>
+      <c r="V25">
+        <v>0.9995319138512724</v>
+      </c>
+      <c r="W25">
+        <v>1.000459491861169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.018061149425779</v>
+      </c>
+      <c r="D26">
+        <v>0.9454244520259752</v>
+      </c>
+      <c r="E26">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="F26">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="G26">
+        <v>0.9819814542321902</v>
+      </c>
+      <c r="H26">
+        <v>1.032374499199281</v>
+      </c>
+      <c r="I26">
+        <v>1.027359190789132</v>
+      </c>
+      <c r="J26">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="K26">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="L26">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="M26">
+        <v>0.986719975199305</v>
+      </c>
+      <c r="N26">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="O26">
+        <v>1.027359190789132</v>
+      </c>
+      <c r="P26">
+        <v>0.9709158380969279</v>
+      </c>
+      <c r="Q26">
+        <v>1.004670322510661</v>
+      </c>
+      <c r="R26">
+        <v>0.9960745634893744</v>
+      </c>
+      <c r="S26">
+        <v>0.9746043768086819</v>
+      </c>
+      <c r="T26">
+        <v>0.9960745634893744</v>
+      </c>
+      <c r="U26">
+        <v>0.9925512861750784</v>
+      </c>
+      <c r="V26">
+        <v>1.003319431794916</v>
+      </c>
+      <c r="W26">
+        <v>0.9940981525688316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.006360180666128</v>
+      </c>
+      <c r="D27">
+        <v>0.9866026450346961</v>
+      </c>
+      <c r="E27">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="F27">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="G27">
+        <v>0.9955653923526081</v>
+      </c>
+      <c r="H27">
+        <v>1.007144389806458</v>
+      </c>
+      <c r="I27">
+        <v>1.002514156054048</v>
+      </c>
+      <c r="J27">
+        <v>0.9800535967273403</v>
+      </c>
+      <c r="K27">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="L27">
+        <v>0.9800535967273403</v>
+      </c>
+      <c r="M27">
+        <v>0.994428356899527</v>
+      </c>
+      <c r="N27">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="O27">
+        <v>1.002514156054048</v>
+      </c>
+      <c r="P27">
+        <v>0.991283876390694</v>
+      </c>
+      <c r="Q27">
+        <v>0.9990397742033279</v>
+      </c>
+      <c r="R27">
+        <v>1.00008693885155</v>
+      </c>
+      <c r="S27">
+        <v>0.9927110483779987</v>
+      </c>
+      <c r="T27">
+        <v>1.00008693885155</v>
+      </c>
+      <c r="U27">
+        <v>0.9989565522268147</v>
+      </c>
+      <c r="V27">
+        <v>1.002703854536104</v>
+      </c>
+      <c r="W27">
+        <v>0.9987952226642585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007942609078405</v>
+      </c>
+      <c r="D28">
+        <v>0.9783680022420659</v>
+      </c>
+      <c r="E28">
+        <v>1.020953205344407</v>
+      </c>
+      <c r="F28">
+        <v>1.020953205344407</v>
+      </c>
+      <c r="G28">
+        <v>0.9928534016722937</v>
+      </c>
+      <c r="H28">
+        <v>1.012505531524608</v>
+      </c>
+      <c r="I28">
+        <v>1.009134781025981</v>
+      </c>
+      <c r="J28">
+        <v>0.966526455763652</v>
+      </c>
+      <c r="K28">
+        <v>1.020953205344407</v>
+      </c>
+      <c r="L28">
+        <v>0.966526455763652</v>
+      </c>
+      <c r="M28">
+        <v>0.9937957820421717</v>
+      </c>
+      <c r="N28">
+        <v>1.020953205344407</v>
+      </c>
+      <c r="O28">
+        <v>1.009134781025981</v>
+      </c>
+      <c r="P28">
+        <v>0.9878306183948162</v>
+      </c>
+      <c r="Q28">
+        <v>1.000994091349137</v>
+      </c>
+      <c r="R28">
+        <v>0.9988714807113462</v>
+      </c>
+      <c r="S28">
+        <v>0.9895048794873088</v>
+      </c>
+      <c r="T28">
+        <v>0.9988714807113462</v>
+      </c>
+      <c r="U28">
+        <v>0.9973669609515832</v>
+      </c>
+      <c r="V28">
+        <v>1.002084209830148</v>
+      </c>
+      <c r="W28">
+        <v>0.9977599710866979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.006607047516832</v>
+      </c>
+      <c r="D29">
+        <v>0.9823243702503921</v>
+      </c>
+      <c r="E29">
+        <v>1.017504194752366</v>
+      </c>
+      <c r="F29">
+        <v>1.017504194752366</v>
+      </c>
+      <c r="G29">
+        <v>0.9941597824208361</v>
+      </c>
+      <c r="H29">
+        <v>1.010169534943609</v>
+      </c>
+      <c r="I29">
+        <v>1.007208672941468</v>
+      </c>
+      <c r="J29">
+        <v>0.9727123415661439</v>
+      </c>
+      <c r="K29">
+        <v>1.017504194752366</v>
+      </c>
+      <c r="L29">
+        <v>0.9727123415661439</v>
+      </c>
+      <c r="M29">
+        <v>0.9947899923516822</v>
+      </c>
+      <c r="N29">
+        <v>1.017504194752366</v>
+      </c>
+      <c r="O29">
+        <v>1.007208672941468</v>
+      </c>
+      <c r="P29">
+        <v>0.9899605072538058</v>
+      </c>
+      <c r="Q29">
+        <v>1.000684227681152</v>
+      </c>
+      <c r="R29">
+        <v>0.9991417364199927</v>
+      </c>
+      <c r="S29">
+        <v>0.9913602656428159</v>
+      </c>
+      <c r="T29">
+        <v>0.9991417364199927</v>
+      </c>
+      <c r="U29">
+        <v>0.9978962479202036</v>
+      </c>
+      <c r="V29">
+        <v>1.001817837286636</v>
+      </c>
+      <c r="W29">
+        <v>0.9981844920929162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003953966193323</v>
+      </c>
+      <c r="D30">
+        <v>0.9901901115745281</v>
+      </c>
+      <c r="E30">
+        <v>1.010654265814894</v>
+      </c>
+      <c r="F30">
+        <v>1.010654265814894</v>
+      </c>
+      <c r="G30">
+        <v>0.9967570121623018</v>
+      </c>
+      <c r="H30">
+        <v>1.005524381578677</v>
+      </c>
+      <c r="I30">
+        <v>1.003374585802061</v>
+      </c>
+      <c r="J30">
+        <v>0.9850118224225988</v>
+      </c>
+      <c r="K30">
+        <v>1.010654265814894</v>
+      </c>
+      <c r="L30">
+        <v>0.9850118224225988</v>
+      </c>
+      <c r="M30">
+        <v>0.9967639923600559</v>
+      </c>
+      <c r="N30">
+        <v>1.010654265814894</v>
+      </c>
+      <c r="O30">
+        <v>1.003374585802061</v>
+      </c>
+      <c r="P30">
+        <v>0.9941932041123299</v>
+      </c>
+      <c r="Q30">
+        <v>1.000065798982182</v>
+      </c>
+      <c r="R30">
+        <v>0.9996802246798513</v>
+      </c>
+      <c r="S30">
+        <v>0.9950478067956539</v>
+      </c>
+      <c r="T30">
+        <v>0.9996802246798513</v>
+      </c>
+      <c r="U30">
+        <v>0.998949421550464</v>
+      </c>
+      <c r="V30">
+        <v>1.00129039040335</v>
+      </c>
+      <c r="W30">
+        <v>0.999028767238555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.004281829806758</v>
+      </c>
+      <c r="D31">
+        <v>0.9894739694989274</v>
+      </c>
+      <c r="E31">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="F31">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="G31">
+        <v>0.9965200382817773</v>
+      </c>
+      <c r="H31">
+        <v>1.005911328226395</v>
+      </c>
+      <c r="I31">
+        <v>1.003535396266183</v>
+      </c>
+      <c r="J31">
+        <v>0.9839390105316808</v>
+      </c>
+      <c r="K31">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="L31">
+        <v>0.9839390105316808</v>
+      </c>
+      <c r="M31">
+        <v>0.9964806980399419</v>
+      </c>
+      <c r="N31">
+        <v>1.011560390791616</v>
+      </c>
+      <c r="O31">
+        <v>1.003535396266183</v>
+      </c>
+      <c r="P31">
+        <v>0.9937372033989317</v>
+      </c>
+      <c r="Q31">
+        <v>1.00002771727398</v>
+      </c>
+      <c r="R31">
+        <v>0.9996782658631599</v>
+      </c>
+      <c r="S31">
+        <v>0.9946648150265469</v>
+      </c>
+      <c r="T31">
+        <v>0.9996782658631599</v>
+      </c>
+      <c r="U31">
+        <v>0.9988887089678142</v>
+      </c>
+      <c r="V31">
+        <v>1.001423045332575</v>
+      </c>
+      <c r="W31">
+        <v>0.9989628326804099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.010189374520548</v>
+      </c>
+      <c r="D32">
+        <v>0.9722875923287669</v>
+      </c>
+      <c r="E32">
+        <v>1.026889369041095</v>
+      </c>
+      <c r="F32">
+        <v>1.026889369041095</v>
+      </c>
+      <c r="G32">
+        <v>0.9908445227397257</v>
+      </c>
+      <c r="H32">
+        <v>1.016014707671233</v>
+      </c>
+      <c r="I32">
+        <v>1.011671394520548</v>
+      </c>
+      <c r="J32">
+        <v>0.9571253228767121</v>
+      </c>
+      <c r="K32">
+        <v>1.026889369041095</v>
+      </c>
+      <c r="L32">
+        <v>0.9571253228767121</v>
+      </c>
+      <c r="M32">
+        <v>0.9920348065753423</v>
+      </c>
+      <c r="N32">
+        <v>1.026889369041095</v>
+      </c>
+      <c r="O32">
+        <v>1.011671394520548</v>
+      </c>
+      <c r="P32">
+        <v>0.98439835869863</v>
+      </c>
+      <c r="Q32">
+        <v>1.001257958630137</v>
+      </c>
+      <c r="R32">
+        <v>0.9985620288127851</v>
+      </c>
+      <c r="S32">
+        <v>0.9865470800456619</v>
+      </c>
+      <c r="T32">
+        <v>0.9985620288127852</v>
+      </c>
+      <c r="U32">
+        <v>0.9966326522945204</v>
+      </c>
+      <c r="V32">
+        <v>1.002683995643835</v>
+      </c>
+      <c r="W32">
+        <v>0.9971321362842465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.024474426315789</v>
+      </c>
+      <c r="D33">
+        <v>0.9313239894736841</v>
+      </c>
+      <c r="E33">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="F33">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="G33">
+        <v>0.9773157663157894</v>
+      </c>
+      <c r="H33">
+        <v>1.040010831578947</v>
+      </c>
+      <c r="I33">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="J33">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="K33">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="L33">
+        <v>0.8933264142105264</v>
+      </c>
+      <c r="M33">
+        <v>0.9811927278947368</v>
+      </c>
+      <c r="N33">
+        <v>1.064095052631579</v>
+      </c>
+      <c r="O33">
+        <v>1.030617521052632</v>
+      </c>
+      <c r="P33">
+        <v>0.961971967631579</v>
+      </c>
+      <c r="Q33">
+        <v>1.003966643684211</v>
+      </c>
+      <c r="R33">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="S33">
+        <v>0.9670865671929825</v>
+      </c>
+      <c r="T33">
+        <v>0.9960129959649123</v>
+      </c>
+      <c r="U33">
+        <v>0.9913386885526316</v>
+      </c>
+      <c r="V33">
+        <v>1.005889961368421</v>
+      </c>
+      <c r="W33">
+        <v>0.9927945911842104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.01316148</v>
+      </c>
+      <c r="D34">
+        <v>0.970663619473684</v>
+      </c>
+      <c r="E34">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="F34">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="G34">
+        <v>0.9902939894736842</v>
+      </c>
+      <c r="H34">
+        <v>1.015963257894737</v>
+      </c>
+      <c r="I34">
+        <v>1.007175011052632</v>
+      </c>
+      <c r="J34">
+        <v>0.9559061805263156</v>
+      </c>
+      <c r="K34">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="L34">
+        <v>0.9559061805263156</v>
+      </c>
+      <c r="M34">
+        <v>0.9887182231578948</v>
+      </c>
+      <c r="N34">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="O34">
+        <v>1.007175011052632</v>
+      </c>
+      <c r="P34">
+        <v>0.9815405957894736</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987345002631579</v>
+      </c>
+      <c r="R34">
+        <v>0.9997729150877194</v>
+      </c>
+      <c r="S34">
+        <v>0.9844583936842105</v>
+      </c>
+      <c r="T34">
+        <v>0.9997729150877194</v>
+      </c>
+      <c r="U34">
+        <v>0.9974031836842105</v>
+      </c>
+      <c r="V34">
+        <v>1.00517005768421</v>
+      </c>
+      <c r="W34">
+        <v>0.9972649144078947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.015548604729466</v>
+      </c>
+      <c r="D35">
+        <v>0.9621104143684436</v>
+      </c>
+      <c r="E35">
+        <v>1.042056978171732</v>
+      </c>
+      <c r="F35">
+        <v>1.042056978171732</v>
+      </c>
+      <c r="G35">
+        <v>0.9874726977810643</v>
+      </c>
+      <c r="H35">
+        <v>1.021221908755052</v>
+      </c>
+      <c r="I35">
+        <v>1.012430061017773</v>
+      </c>
+      <c r="J35">
+        <v>0.9422606374684644</v>
+      </c>
+      <c r="K35">
+        <v>1.042056978171732</v>
+      </c>
+      <c r="L35">
+        <v>0.9422606374684644</v>
+      </c>
+      <c r="M35">
+        <v>0.9871690600516752</v>
+      </c>
+      <c r="N35">
+        <v>1.042056978171732</v>
+      </c>
+      <c r="O35">
+        <v>1.012430061017773</v>
+      </c>
+      <c r="P35">
+        <v>0.9773453492431188</v>
+      </c>
+      <c r="Q35">
+        <v>0.9999513793994186</v>
+      </c>
+      <c r="R35">
+        <v>0.9989158922193232</v>
+      </c>
+      <c r="S35">
+        <v>0.9807211320891006</v>
+      </c>
+      <c r="T35">
+        <v>0.9989158922193232</v>
+      </c>
+      <c r="U35">
+        <v>0.9960550936097585</v>
+      </c>
+      <c r="V35">
+        <v>1.005255470522153</v>
+      </c>
+      <c r="W35">
+        <v>0.9962837952929589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999945753867523</v>
+      </c>
+      <c r="D36">
+        <v>0.9999897243622256</v>
+      </c>
+      <c r="E36">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="F36">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="G36">
+        <v>0.9999966600857897</v>
+      </c>
+      <c r="H36">
+        <v>1.000009772982316</v>
+      </c>
+      <c r="I36">
+        <v>1.000024401686643</v>
+      </c>
+      <c r="J36">
+        <v>0.9999790891325381</v>
+      </c>
+      <c r="K36">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="L36">
+        <v>0.9999790891325381</v>
+      </c>
+      <c r="M36">
+        <v>1.000008088948337</v>
+      </c>
+      <c r="N36">
+        <v>0.9999798515260632</v>
+      </c>
+      <c r="O36">
+        <v>1.000024401686643</v>
+      </c>
+      <c r="P36">
+        <v>1.00000174540959</v>
+      </c>
+      <c r="Q36">
+        <v>1.000010530886216</v>
+      </c>
+      <c r="R36">
+        <v>0.9999944474484147</v>
+      </c>
+      <c r="S36">
+        <v>1.000000050301657</v>
+      </c>
+      <c r="T36">
+        <v>0.9999944474484147</v>
+      </c>
+      <c r="U36">
+        <v>0.9999950006077585</v>
+      </c>
+      <c r="V36">
+        <v>0.9999919707914195</v>
+      </c>
+      <c r="W36">
+        <v>0.9999977705138332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000050328743957</v>
+      </c>
+      <c r="D37">
+        <v>0.9999148960249042</v>
+      </c>
+      <c r="E37">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="F37">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="G37">
+        <v>0.9999717720399854</v>
+      </c>
+      <c r="H37">
+        <v>1.000041243808312</v>
+      </c>
+      <c r="I37">
+        <v>0.9999943177185844</v>
+      </c>
+      <c r="J37">
+        <v>0.999878699515234</v>
+      </c>
+      <c r="K37">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="L37">
+        <v>0.999878699515234</v>
+      </c>
+      <c r="M37">
+        <v>0.9999526949152433</v>
+      </c>
+      <c r="N37">
+        <v>1.000144877184505</v>
+      </c>
+      <c r="O37">
+        <v>0.9999943177185844</v>
+      </c>
+      <c r="P37">
+        <v>0.9999365086169092</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999830448792849</v>
+      </c>
+      <c r="R37">
+        <v>1.000005964806108</v>
+      </c>
+      <c r="S37">
+        <v>0.9999482630912681</v>
+      </c>
+      <c r="T37">
+        <v>1.000005964806108</v>
+      </c>
+      <c r="U37">
+        <v>0.9999974166145773</v>
+      </c>
+      <c r="V37">
+        <v>1.000026908728563</v>
+      </c>
+      <c r="W37">
+        <v>0.9999936037438408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000100702128573</v>
+      </c>
+      <c r="D38">
+        <v>0.9996390316239089</v>
+      </c>
+      <c r="E38">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="F38">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="G38">
+        <v>0.9998809369089197</v>
+      </c>
+      <c r="H38">
+        <v>1.000221943351477</v>
+      </c>
+      <c r="I38">
+        <v>1.000221863335574</v>
+      </c>
+      <c r="J38">
+        <v>0.9994241013259288</v>
+      </c>
+      <c r="K38">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="L38">
+        <v>0.9994241013259288</v>
+      </c>
+      <c r="M38">
+        <v>0.9999346694570462</v>
+      </c>
+      <c r="N38">
+        <v>1.000245459556248</v>
+      </c>
+      <c r="O38">
+        <v>1.000221863335574</v>
+      </c>
+      <c r="P38">
+        <v>0.9998229823307512</v>
+      </c>
+      <c r="Q38">
+        <v>1.000051400122246</v>
+      </c>
+      <c r="R38">
+        <v>0.9999638080725836</v>
+      </c>
+      <c r="S38">
+        <v>0.9998423005234741</v>
+      </c>
+      <c r="T38">
+        <v>0.9999638080725836</v>
+      </c>
+      <c r="U38">
+        <v>0.9999430902816675</v>
+      </c>
+      <c r="V38">
+        <v>1.000003564136584</v>
+      </c>
+      <c r="W38">
+        <v>0.9999585884609594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000188145789222</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9991160558415756</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00040978017699</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.00040978017699</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.999708773196615</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000567875110294</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000670817174929</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9985578882633189</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00040978017699</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9985578882633189</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999101596027834</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.00040978017699</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000670817174929</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9996143527191239</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000189795185772</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9998794952050795</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.999645826211621</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9998794952050792</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9998368147029633</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9999514077977686</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.999891186894466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.003700799652179</v>
+      </c>
+      <c r="D40">
+        <v>0.9889639428541864</v>
+      </c>
+      <c r="E40">
+        <v>1.009540070628207</v>
+      </c>
+      <c r="F40">
+        <v>1.009540070628207</v>
+      </c>
+      <c r="G40">
+        <v>0.9963560730167285</v>
+      </c>
+      <c r="H40">
+        <v>1.006526411030567</v>
+      </c>
+      <c r="I40">
+        <v>1.005426590182938</v>
+      </c>
+      <c r="J40">
+        <v>0.982731387638487</v>
+      </c>
+      <c r="K40">
+        <v>1.009540070628207</v>
+      </c>
+      <c r="L40">
+        <v>0.982731387638487</v>
+      </c>
+      <c r="M40">
+        <v>0.9972563174939294</v>
+      </c>
+      <c r="N40">
+        <v>1.009540070628207</v>
+      </c>
+      <c r="O40">
+        <v>1.005426590182938</v>
+      </c>
+      <c r="P40">
+        <v>0.9940789889107124</v>
+      </c>
+      <c r="Q40">
+        <v>1.000891331599833</v>
+      </c>
+      <c r="R40">
+        <v>0.999232682816544</v>
+      </c>
+      <c r="S40">
+        <v>0.994838016946051</v>
+      </c>
+      <c r="T40">
+        <v>0.9992326828165439</v>
+      </c>
+      <c r="U40">
+        <v>0.99851353036659</v>
+      </c>
+      <c r="V40">
+        <v>1.000718838418913</v>
+      </c>
+      <c r="W40">
+        <v>0.9988126990621529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9937739906495423</v>
+      </c>
+      <c r="D41">
+        <v>1.016631194343735</v>
+      </c>
+      <c r="E41">
+        <v>0.9834994525825165</v>
+      </c>
+      <c r="F41">
+        <v>0.9834994525825165</v>
+      </c>
+      <c r="G41">
+        <v>1.005495181476186</v>
+      </c>
+      <c r="H41">
+        <v>0.9904352727327144</v>
+      </c>
+      <c r="I41">
+        <v>0.993237707501806</v>
+      </c>
+      <c r="J41">
+        <v>1.025670158794536</v>
+      </c>
+      <c r="K41">
+        <v>0.9834994525825165</v>
+      </c>
+      <c r="L41">
+        <v>1.025670158794536</v>
+      </c>
+      <c r="M41">
+        <v>1.004913388971592</v>
+      </c>
+      <c r="N41">
+        <v>0.9834994525825165</v>
+      </c>
+      <c r="O41">
+        <v>0.993237707501806</v>
+      </c>
+      <c r="P41">
+        <v>1.009453933148171</v>
+      </c>
+      <c r="Q41">
+        <v>0.9993664444889959</v>
+      </c>
+      <c r="R41">
+        <v>1.000802439626286</v>
+      </c>
+      <c r="S41">
+        <v>1.008134349257509</v>
+      </c>
+      <c r="T41">
+        <v>1.000802439626286</v>
+      </c>
+      <c r="U41">
+        <v>1.001975625088761</v>
+      </c>
+      <c r="V41">
+        <v>0.9982803905875122</v>
+      </c>
+      <c r="W41">
+        <v>1.001707043381578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.001219069841681</v>
+      </c>
+      <c r="D42">
+        <v>0.9945064935443972</v>
+      </c>
+      <c r="E42">
+        <v>1.002709641667416</v>
+      </c>
+      <c r="F42">
+        <v>1.002709641667416</v>
+      </c>
+      <c r="G42">
+        <v>0.9981898110091258</v>
+      </c>
+      <c r="H42">
+        <v>1.003508425359396</v>
+      </c>
+      <c r="I42">
+        <v>1.004060368573398</v>
+      </c>
+      <c r="J42">
+        <v>0.9910647282494075</v>
+      </c>
+      <c r="K42">
+        <v>1.002709641667416</v>
+      </c>
+      <c r="L42">
+        <v>0.9910647282494075</v>
+      </c>
+      <c r="M42">
+        <v>0.9993819341140389</v>
+      </c>
+      <c r="N42">
+        <v>1.002709641667416</v>
+      </c>
+      <c r="O42">
+        <v>1.004060368573398</v>
+      </c>
+      <c r="P42">
+        <v>0.9975625484114026</v>
+      </c>
+      <c r="Q42">
+        <v>1.001125089791262</v>
+      </c>
+      <c r="R42">
+        <v>0.999278246163407</v>
+      </c>
+      <c r="S42">
+        <v>0.9977716359439771</v>
+      </c>
+      <c r="T42">
+        <v>0.999278246163407</v>
+      </c>
+      <c r="U42">
+        <v>0.9990061373748367</v>
+      </c>
+      <c r="V42">
+        <v>0.9997468382333526</v>
+      </c>
+      <c r="W42">
+        <v>0.9993300590448575</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001067938472224</v>
+        <v>1.000123225072074</v>
       </c>
       <c r="D3">
-        <v>0.9982818170149876</v>
+        <v>0.999700803727519</v>
       </c>
       <c r="E3">
-        <v>1.000473147221508</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="F3">
-        <v>1.001067938472224</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="G3">
-        <v>0.9996334252602823</v>
+        <v>0.9999010757218383</v>
       </c>
       <c r="H3">
-        <v>1.000642349298172</v>
+        <v>1.000167392945019</v>
       </c>
       <c r="I3">
-        <v>1.001067938472224</v>
+        <v>1.000097184991915</v>
       </c>
       <c r="J3">
-        <v>0.9982818170149876</v>
+        <v>0.999544300303379</v>
       </c>
       <c r="K3">
-        <v>0.9996842680169784</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="L3">
-        <v>1.000405322573437</v>
+        <v>0.999544300303379</v>
       </c>
       <c r="M3">
-        <v>0.9988903776894267</v>
+        <v>0.9998981460110319</v>
       </c>
       <c r="N3">
-        <v>1.001067938472224</v>
+        <v>1.00033355817284</v>
       </c>
       <c r="O3">
-        <v>1.000473147221508</v>
+        <v>1.000097184991915</v>
       </c>
       <c r="P3">
-        <v>0.9993774821182476</v>
+        <v>0.9998207426476472</v>
       </c>
       <c r="Q3">
-        <v>1.000053286240895</v>
+        <v>0.9999991303568768</v>
       </c>
       <c r="R3">
-        <v>0.9999409675695731</v>
+        <v>0.999991681156045</v>
       </c>
       <c r="S3">
-        <v>0.9994627964989258</v>
+        <v>0.9998475203390442</v>
       </c>
       <c r="T3">
-        <v>0.9999409675695731</v>
+        <v>0.999991681156045</v>
       </c>
       <c r="U3">
-        <v>0.9998640819922504</v>
+        <v>0.9999690297974932</v>
       </c>
       <c r="V3">
-        <v>1.000104853288245</v>
+        <v>1.000041935472562</v>
       </c>
       <c r="W3">
-        <v>0.999884830693377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999707108682022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002067550152149</v>
+        <v>1.003700799652179</v>
       </c>
       <c r="D4">
-        <v>0.9966863920260514</v>
+        <v>0.9889639428541864</v>
       </c>
       <c r="E4">
-        <v>1.000908004782062</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="F4">
-        <v>1.002067550152149</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="G4">
-        <v>0.9992927703174763</v>
+        <v>0.9963560730167285</v>
       </c>
       <c r="H4">
-        <v>1.001238336267949</v>
+        <v>1.006526411030567</v>
       </c>
       <c r="I4">
-        <v>1.002067550152149</v>
+        <v>1.005426590182938</v>
       </c>
       <c r="J4">
-        <v>0.9966863920260514</v>
+        <v>0.982731387638487</v>
       </c>
       <c r="K4">
-        <v>0.9993882239207125</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="L4">
-        <v>1.000784177596761</v>
+        <v>0.982731387638487</v>
       </c>
       <c r="M4">
-        <v>0.9978592579276465</v>
+        <v>0.9972563174939294</v>
       </c>
       <c r="N4">
-        <v>1.002067550152149</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="O4">
-        <v>1.000908004782062</v>
+        <v>1.005426590182938</v>
       </c>
       <c r="P4">
-        <v>0.9987971984040569</v>
+        <v>0.9940789889107124</v>
       </c>
       <c r="Q4">
-        <v>1.000100387549769</v>
+        <v>1.000891331599833</v>
       </c>
       <c r="R4">
-        <v>0.9998873156534209</v>
+        <v>0.999232682816544</v>
       </c>
       <c r="S4">
-        <v>0.9989623890418633</v>
+        <v>0.994838016946051</v>
       </c>
       <c r="T4">
-        <v>0.9998873156534209</v>
+        <v>0.9992326828165439</v>
       </c>
       <c r="U4">
-        <v>0.9997386793194347</v>
+        <v>0.99851353036659</v>
       </c>
       <c r="V4">
-        <v>1.000204453485978</v>
+        <v>1.000718838418913</v>
       </c>
       <c r="W4">
-        <v>0.9997780891238509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9988126990621529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003959392972102</v>
+        <v>1.004681248025937</v>
       </c>
       <c r="D5">
-        <v>0.9936483034077246</v>
+        <v>0.9884016634293925</v>
       </c>
       <c r="E5">
-        <v>1.00174264618712</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="F5">
-        <v>1.003959392972102</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="G5">
-        <v>0.9986444729972326</v>
+        <v>0.9961657443371772</v>
       </c>
       <c r="H5">
-        <v>1.002373937912515</v>
+        <v>1.006528855446687</v>
       </c>
       <c r="I5">
-        <v>1.003959392972102</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="J5">
-        <v>0.9936483034077246</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="K5">
-        <v>0.9988286820754164</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="L5">
-        <v>1.001501966350855</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="M5">
-        <v>0.9958968790682443</v>
+        <v>0.9961663133213293</v>
       </c>
       <c r="N5">
-        <v>1.003959392972102</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="O5">
-        <v>1.00174264618712</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="P5">
-        <v>0.9976954747974225</v>
+        <v>0.9931292993695959</v>
       </c>
       <c r="Q5">
-        <v>1.000193559592176</v>
+        <v>1.000070762301874</v>
       </c>
       <c r="R5">
-        <v>0.9997834475223156</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="S5">
-        <v>0.9980118075306925</v>
+        <v>0.994141447692123</v>
       </c>
       <c r="T5">
-        <v>0.9997834475223156</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="U5">
-        <v>0.9994987038910449</v>
+        <v>0.998760511806556</v>
       </c>
       <c r="V5">
-        <v>1.000390841707256</v>
+        <v>1.001531950275216</v>
       </c>
       <c r="W5">
-        <v>0.9995745351214013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9988525159311963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.005807914270457</v>
+        <v>1.015548604729466</v>
       </c>
       <c r="D6">
-        <v>0.990684498742874</v>
+        <v>0.9621104143684436</v>
       </c>
       <c r="E6">
-        <v>1.002555216207502</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="F6">
-        <v>1.005807914270457</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="G6">
-        <v>0.9980119301735498</v>
+        <v>0.9874726977810643</v>
       </c>
       <c r="H6">
-        <v>1.0034815862596</v>
+        <v>1.021221908755052</v>
       </c>
       <c r="I6">
-        <v>1.005807914270457</v>
+        <v>1.012430061017773</v>
       </c>
       <c r="J6">
-        <v>0.990684498742874</v>
+        <v>0.9422606374684644</v>
       </c>
       <c r="K6">
-        <v>0.9982817614393398</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="L6">
-        <v>1.002203123310995</v>
+        <v>0.9422606374684644</v>
       </c>
       <c r="M6">
-        <v>0.9939822059846303</v>
+        <v>0.9871690600516752</v>
       </c>
       <c r="N6">
-        <v>1.005807914270457</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="O6">
-        <v>1.002555216207502</v>
+        <v>1.012430061017773</v>
       </c>
       <c r="P6">
-        <v>0.9966198574751882</v>
+        <v>0.9773453492431188</v>
       </c>
       <c r="Q6">
-        <v>1.000283573190526</v>
+        <v>0.9999513793994186</v>
       </c>
       <c r="R6">
-        <v>0.9996825430736113</v>
+        <v>0.9989158922193232</v>
       </c>
       <c r="S6">
-        <v>0.9970838817079755</v>
+        <v>0.9807211320891006</v>
       </c>
       <c r="T6">
-        <v>0.9996825430736113</v>
+        <v>0.9989158922193232</v>
       </c>
       <c r="U6">
-        <v>0.9992648898485958</v>
+        <v>0.9960550936097585</v>
       </c>
       <c r="V6">
-        <v>1.000573494732968</v>
+        <v>1.005255470522153</v>
       </c>
       <c r="W6">
-        <v>0.9993760295486185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9962837952929589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000111474333206</v>
+        <v>1.000478406986654</v>
       </c>
       <c r="D7">
-        <v>0.9998474158344901</v>
+        <v>0.9987387724227361</v>
       </c>
       <c r="E7">
-        <v>1.000032659873278</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="F7">
-        <v>1.000111474333206</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="G7">
-        <v>0.9999668843917878</v>
+        <v>0.9995832360465199</v>
       </c>
       <c r="H7">
-        <v>1.000056060385583</v>
+        <v>1.000722732717602</v>
       </c>
       <c r="I7">
-        <v>1.000111474333206</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="J7">
-        <v>0.9998474158344901</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="K7">
-        <v>0.9999659716818131</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="L7">
-        <v>1.000041193853462</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="M7">
-        <v>0.9998998397761303</v>
+        <v>0.9996198846209775</v>
       </c>
       <c r="N7">
-        <v>1.000111474333206</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="O7">
-        <v>1.000032659873278</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="P7">
-        <v>0.9999400378538839</v>
+        <v>0.9992779398082114</v>
       </c>
       <c r="Q7">
-        <v>0.9999997721325327</v>
+        <v>1.000041204241554</v>
       </c>
       <c r="R7">
-        <v>0.9999971833469914</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="S7">
-        <v>0.9999489866998519</v>
+        <v>0.999379705220981</v>
       </c>
       <c r="T7">
-        <v>0.9999971833469914</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="U7">
-        <v>0.9999896086081905</v>
+        <v>0.9998527273698842</v>
       </c>
       <c r="V7">
-        <v>1.000013981753194</v>
+        <v>1.000136540659226</v>
       </c>
       <c r="W7">
-        <v>0.9999901875162188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998713382784382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00033355817284</v>
+        <v>1.000050328743957</v>
       </c>
       <c r="D8">
-        <v>0.9995443003033793</v>
+        <v>0.9999148960249042</v>
       </c>
       <c r="E8">
-        <v>1.000097184991916</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="F8">
-        <v>1.00033355817284</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="G8">
-        <v>0.9999010757218387</v>
+        <v>0.9999717720399854</v>
       </c>
       <c r="H8">
-        <v>1.000167392945019</v>
+        <v>1.000041243808312</v>
       </c>
       <c r="I8">
-        <v>1.00033355817284</v>
+        <v>0.9999943177185844</v>
       </c>
       <c r="J8">
-        <v>0.9995443003033793</v>
+        <v>0.999878699515234</v>
       </c>
       <c r="K8">
-        <v>0.9998981460110322</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="L8">
-        <v>1.000123225072074</v>
+        <v>0.999878699515234</v>
       </c>
       <c r="M8">
-        <v>0.9997008037275188</v>
+        <v>0.9999526949152433</v>
       </c>
       <c r="N8">
-        <v>1.00033355817284</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="O8">
-        <v>1.000097184991916</v>
+        <v>0.9999943177185844</v>
       </c>
       <c r="P8">
-        <v>0.9998207426476474</v>
+        <v>0.9999365086169092</v>
       </c>
       <c r="Q8">
-        <v>0.9999991303568772</v>
+        <v>0.9999830448792849</v>
       </c>
       <c r="R8">
-        <v>0.999991681156045</v>
+        <v>1.000005964806108</v>
       </c>
       <c r="S8">
-        <v>0.9998475203390446</v>
+        <v>0.9999482630912681</v>
       </c>
       <c r="T8">
-        <v>0.999991681156045</v>
+        <v>1.000005964806108</v>
       </c>
       <c r="U8">
-        <v>0.9999690297974935</v>
+        <v>0.9999974166145773</v>
       </c>
       <c r="V8">
-        <v>1.000041935472563</v>
+        <v>1.000026908728563</v>
       </c>
       <c r="W8">
-        <v>0.9999707108682022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999936037438408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000533642260314</v>
+        <v>1.000784177596761</v>
       </c>
       <c r="D9">
-        <v>0.9992764624376577</v>
+        <v>0.9978592579276465</v>
       </c>
       <c r="E9">
-        <v>1.000152036019605</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="F9">
-        <v>1.000533642260314</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="G9">
-        <v>0.9998427954266521</v>
+        <v>0.9992927703174763</v>
       </c>
       <c r="H9">
-        <v>1.000265541063957</v>
+        <v>1.001238336267949</v>
       </c>
       <c r="I9">
-        <v>1.000533642260314</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="J9">
-        <v>0.9992764624376577</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="K9">
-        <v>0.9998368292674066</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="L9">
-        <v>1.000196910518558</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="M9">
-        <v>0.9995245573596104</v>
+        <v>0.9993882239207125</v>
       </c>
       <c r="N9">
-        <v>1.000533642260314</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="O9">
-        <v>1.000152036019605</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="P9">
-        <v>0.9997142492286313</v>
+        <v>0.9987971984040569</v>
       </c>
       <c r="Q9">
-        <v>0.9999974157231284</v>
+        <v>1.000100387549769</v>
       </c>
       <c r="R9">
-        <v>0.9999873802391921</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="S9">
-        <v>0.999757097961305</v>
+        <v>0.9989623890418633</v>
       </c>
       <c r="T9">
-        <v>0.9999873802391921</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="U9">
-        <v>0.9999512340360571</v>
+        <v>0.9997386793194347</v>
       </c>
       <c r="V9">
-        <v>1.000067715680908</v>
+        <v>1.000204453485978</v>
       </c>
       <c r="W9">
-        <v>0.99995359679422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997780891238509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001086341281146</v>
+        <v>1.015791663384053</v>
       </c>
       <c r="D10">
-        <v>0.9985174697506188</v>
+        <v>0.9615576535536218</v>
       </c>
       <c r="E10">
-        <v>1.000315514069934</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="F10">
-        <v>1.001086341281146</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="G10">
-        <v>0.9996781267108138</v>
+        <v>0.9872898444927015</v>
       </c>
       <c r="H10">
-        <v>1.000544516324674</v>
+        <v>1.021524747230693</v>
       </c>
       <c r="I10">
-        <v>1.001086341281146</v>
+        <v>1.012576010163799</v>
       </c>
       <c r="J10">
-        <v>0.9985174697506188</v>
+        <v>0.9414271294986308</v>
       </c>
       <c r="K10">
-        <v>0.9996682171748346</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="L10">
-        <v>1.000401254364678</v>
+        <v>0.9414271294986308</v>
       </c>
       <c r="M10">
-        <v>0.9990265068402832</v>
+        <v>0.9869624053002912</v>
       </c>
       <c r="N10">
-        <v>1.001086341281146</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="O10">
-        <v>1.000315514069934</v>
+        <v>1.012576010163799</v>
       </c>
       <c r="P10">
-        <v>0.9994164919102764</v>
+        <v>0.9770015698312147</v>
       </c>
       <c r="Q10">
-        <v>0.999996820390374</v>
+        <v>0.99993292732825</v>
       </c>
       <c r="R10">
-        <v>0.9999731083672329</v>
+        <v>0.9989089245926118</v>
       </c>
       <c r="S10">
-        <v>0.9995037035104555</v>
+        <v>0.980430994718377</v>
       </c>
       <c r="T10">
-        <v>0.9999731083672329</v>
+        <v>0.9989089245926118</v>
       </c>
       <c r="U10">
-        <v>0.9998993629531281</v>
+        <v>0.9960041545676342</v>
       </c>
       <c r="V10">
-        <v>1.000136758618732</v>
+        <v>1.005348050477189</v>
       </c>
       <c r="W10">
-        <v>0.9999047433146229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9962316359673995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001972233241002</v>
+        <v>0.997319489699486</v>
       </c>
       <c r="D11">
-        <v>0.9973370836746688</v>
+        <v>1.005961781715608</v>
       </c>
       <c r="E11">
-        <v>1.000554940930614</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="F11">
-        <v>1.001972233241002</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="G11">
-        <v>0.9994211444568489</v>
+        <v>1.001972504800996</v>
       </c>
       <c r="H11">
-        <v>1.000976821582158</v>
+        <v>0.9967583464677426</v>
       </c>
       <c r="I11">
-        <v>1.001972233241002</v>
+        <v>0.9985545766814193</v>
       </c>
       <c r="J11">
-        <v>0.9973370836746688</v>
+        <v>1.00895763556307</v>
       </c>
       <c r="K11">
-        <v>0.999396514522401</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="L11">
-        <v>1.000727278167011</v>
+        <v>1.00895763556307</v>
       </c>
       <c r="M11">
-        <v>0.998249373591813</v>
+        <v>1.002299677343585</v>
       </c>
       <c r="N11">
-        <v>1.001972233241002</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="O11">
-        <v>1.000554940930614</v>
+        <v>0.9985545766814193</v>
       </c>
       <c r="P11">
-        <v>0.9989460123026417</v>
+        <v>1.003756106122244</v>
       </c>
       <c r="Q11">
-        <v>0.9999880426937318</v>
+        <v>1.000263540741207</v>
       </c>
       <c r="R11">
-        <v>0.9999547526154284</v>
+        <v>1.000042973793257</v>
       </c>
       <c r="S11">
-        <v>0.9991043896873775</v>
+        <v>1.003161572348495</v>
       </c>
       <c r="T11">
-        <v>0.9999547526154284</v>
+        <v>1.000042973793257</v>
       </c>
       <c r="U11">
-        <v>0.9998213505757836</v>
+        <v>1.000525356545192</v>
       </c>
       <c r="V11">
-        <v>1.000251527108827</v>
+        <v>0.9989436270632102</v>
       </c>
       <c r="W11">
-        <v>0.9998294237708147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000555090175899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9821404041799529</v>
+        <v>1.004620626947368</v>
       </c>
       <c r="D12">
-        <v>1.026306587205432</v>
+        <v>0.9888264379473665</v>
       </c>
       <c r="E12">
-        <v>0.9936044087255695</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="F12">
-        <v>0.9821404041799529</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="G12">
-        <v>1.005663537866151</v>
+        <v>0.9963055149789503</v>
       </c>
       <c r="H12">
-        <v>0.9902542288156034</v>
+        <v>1.006243551957896</v>
       </c>
       <c r="I12">
-        <v>0.9821404041799529</v>
+        <v>1.003588440410526</v>
       </c>
       <c r="J12">
-        <v>1.026306587205432</v>
+        <v>0.9829920425473661</v>
       </c>
       <c r="K12">
-        <v>1.005377194681916</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="L12">
-        <v>0.9933227632922365</v>
+        <v>0.9829920425473661</v>
       </c>
       <c r="M12">
-        <v>1.017136046100288</v>
+        <v>0.9961737370526323</v>
       </c>
       <c r="N12">
-        <v>0.9821404041799529</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="O12">
-        <v>0.9936044087255695</v>
+        <v>1.003588440410526</v>
       </c>
       <c r="P12">
-        <v>1.009955497965501</v>
+        <v>0.9932902414789457</v>
       </c>
       <c r="Q12">
-        <v>0.9996339732958601</v>
+        <v>0.9999469776947378</v>
       </c>
       <c r="R12">
-        <v>1.000683800036985</v>
+        <v>0.9996995893508768</v>
       </c>
       <c r="S12">
-        <v>1.008524844599051</v>
+        <v>0.9942953326456139</v>
       </c>
       <c r="T12">
-        <v>1.000683800036985</v>
+        <v>0.9996995893508768</v>
       </c>
       <c r="U12">
-        <v>1.001928734494276</v>
+        <v>0.9988510707578951</v>
       </c>
       <c r="V12">
-        <v>0.9979710684314117</v>
+        <v>1.001584513625264</v>
       </c>
       <c r="W12">
-        <v>1.001725646358394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9989085796171053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9955373281899969</v>
+        <v>0.9970039168786379</v>
       </c>
       <c r="D13">
-        <v>1.006916149344086</v>
+        <v>1.007648664198811</v>
       </c>
       <c r="E13">
-        <v>0.9981876606761695</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="F13">
-        <v>0.9955373281899969</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="G13">
-        <v>1.001481102856113</v>
+        <v>1.002528011131022</v>
       </c>
       <c r="H13">
-        <v>0.997424044878341</v>
+        <v>0.9956565260815274</v>
       </c>
       <c r="I13">
-        <v>0.9955373281899969</v>
+        <v>0.9971795787318821</v>
       </c>
       <c r="J13">
-        <v>1.006916149344086</v>
+        <v>1.011733381303023</v>
       </c>
       <c r="K13">
-        <v>1.001329914800154</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="L13">
-        <v>0.9983172392220799</v>
+        <v>1.011733381303023</v>
       </c>
       <c r="M13">
-        <v>1.004482494922416</v>
+        <v>1.002418950107197</v>
       </c>
       <c r="N13">
-        <v>0.9955373281899969</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="O13">
-        <v>0.9981876606761695</v>
+        <v>0.9971795787318821</v>
       </c>
       <c r="P13">
-        <v>1.002551905010128</v>
+        <v>1.004456480017452</v>
       </c>
       <c r="Q13">
-        <v>0.999834381766141</v>
+        <v>0.9998537949314519</v>
       </c>
       <c r="R13">
-        <v>1.000213712736751</v>
+        <v>1.000296650612089</v>
       </c>
       <c r="S13">
-        <v>1.002194970958789</v>
+        <v>1.003813657055309</v>
       </c>
       <c r="T13">
-        <v>1.000213712736751</v>
+        <v>1.000296650612089</v>
       </c>
       <c r="U13">
-        <v>1.000530560266591</v>
+        <v>1.000854490741822</v>
       </c>
       <c r="V13">
-        <v>0.9995319138512724</v>
+        <v>0.9990789909537303</v>
       </c>
       <c r="W13">
-        <v>1.000459491861169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000768252529183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.046392014274267</v>
+        <v>1.0273139</v>
       </c>
       <c r="D14">
-        <v>0.9144724854047238</v>
+        <v>0.9336067300000004</v>
       </c>
       <c r="E14">
-        <v>1.027359190789132</v>
+        <v>1.0739194</v>
       </c>
       <c r="F14">
-        <v>1.046392014274267</v>
+        <v>1.0739194</v>
       </c>
       <c r="G14">
-        <v>0.9819814542321903</v>
+        <v>0.9780482199999997</v>
       </c>
       <c r="H14">
-        <v>1.032374499199281</v>
+        <v>1.037158300000001</v>
       </c>
       <c r="I14">
-        <v>1.046392014274267</v>
+        <v>1.021631900000001</v>
       </c>
       <c r="J14">
-        <v>0.9144724854047238</v>
+        <v>0.8988615299999991</v>
       </c>
       <c r="K14">
-        <v>0.986719975199305</v>
+        <v>1.0739194</v>
       </c>
       <c r="L14">
-        <v>1.018061149425779</v>
+        <v>0.8988615299999991</v>
       </c>
       <c r="M14">
-        <v>0.9454244520259752</v>
+        <v>0.9774345499999995</v>
       </c>
       <c r="N14">
-        <v>1.046392014274267</v>
+        <v>1.0739194</v>
       </c>
       <c r="O14">
-        <v>1.027359190789132</v>
+        <v>1.021631900000001</v>
       </c>
       <c r="P14">
-        <v>0.9709158380969281</v>
+        <v>0.9602467150000001</v>
       </c>
       <c r="Q14">
-        <v>1.004670322510661</v>
+        <v>0.9998400600000004</v>
       </c>
       <c r="R14">
-        <v>0.9960745634893744</v>
+        <v>0.99813761</v>
       </c>
       <c r="S14">
-        <v>0.9746043768086822</v>
+        <v>0.9661805499999999</v>
       </c>
       <c r="T14">
-        <v>0.9960745634893744</v>
+        <v>0.99813761</v>
       </c>
       <c r="U14">
-        <v>0.9925512861750784</v>
+        <v>0.9931152624999999</v>
       </c>
       <c r="V14">
-        <v>1.003319431794916</v>
+        <v>1.00927609</v>
       </c>
       <c r="W14">
-        <v>0.9940981525688316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9934968162500002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.017693063773262</v>
+        <v>1.0739241</v>
       </c>
       <c r="D15">
-        <v>0.9800535967273403</v>
+        <v>0.8238079400000001</v>
       </c>
       <c r="E15">
-        <v>1.002514156054048</v>
+        <v>1.2008753</v>
       </c>
       <c r="F15">
-        <v>1.017693063773262</v>
+        <v>1.2008753</v>
       </c>
       <c r="G15">
-        <v>0.9955653923526082</v>
+        <v>0.94173666</v>
       </c>
       <c r="H15">
-        <v>1.007144389806458</v>
+        <v>1.0980093</v>
       </c>
       <c r="I15">
-        <v>1.017693063773262</v>
+        <v>1.0542662</v>
       </c>
       <c r="J15">
-        <v>0.9800535967273403</v>
+        <v>0.73238625</v>
       </c>
       <c r="K15">
-        <v>0.994428356899527</v>
+        <v>1.2008753</v>
       </c>
       <c r="L15">
-        <v>1.006360180666128</v>
+        <v>0.73238625</v>
       </c>
       <c r="M15">
-        <v>0.9866026450346961</v>
+        <v>0.93838944</v>
       </c>
       <c r="N15">
-        <v>1.017693063773262</v>
+        <v>1.2008753</v>
       </c>
       <c r="O15">
-        <v>1.002514156054048</v>
+        <v>1.0542662</v>
       </c>
       <c r="P15">
-        <v>0.991283876390694</v>
+        <v>0.893326225</v>
       </c>
       <c r="Q15">
-        <v>0.999039774203328</v>
+        <v>0.99800143</v>
       </c>
       <c r="R15">
-        <v>1.00008693885155</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="S15">
-        <v>0.9927110483779987</v>
+        <v>0.9094630366666667</v>
       </c>
       <c r="T15">
-        <v>1.00008693885155</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="U15">
-        <v>0.9989565522268147</v>
+        <v>0.9823161025</v>
       </c>
       <c r="V15">
-        <v>1.002703854536104</v>
+        <v>1.026027942</v>
       </c>
       <c r="W15">
-        <v>0.9987952226642585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.98292439875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999798515260632</v>
+        <v>1.0216333</v>
       </c>
       <c r="D16">
-        <v>0.9999790891325381</v>
+        <v>0.9290452899999999</v>
       </c>
       <c r="E16">
-        <v>1.000024401686643</v>
+        <v>1.0542662</v>
       </c>
       <c r="F16">
-        <v>0.9999798515260632</v>
+        <v>1.0542662</v>
       </c>
       <c r="G16">
-        <v>0.9999966600857897</v>
+        <v>0.9765846500000001</v>
       </c>
       <c r="H16">
-        <v>1.000009772982316</v>
+        <v>1.0428611</v>
       </c>
       <c r="I16">
-        <v>0.9999798515260632</v>
+        <v>1.0396018</v>
       </c>
       <c r="J16">
-        <v>0.9999790891325381</v>
+        <v>0.88779747</v>
       </c>
       <c r="K16">
-        <v>1.000008088948337</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>0.9999945753867523</v>
+        <v>0.88779747</v>
       </c>
       <c r="M16">
-        <v>0.9999897243622258</v>
+        <v>0.98495226</v>
       </c>
       <c r="N16">
-        <v>0.9999798515260632</v>
+        <v>1.0542662</v>
       </c>
       <c r="O16">
-        <v>1.000024401686643</v>
+        <v>1.0396018</v>
       </c>
       <c r="P16">
-        <v>1.00000174540959</v>
+        <v>0.963699635</v>
       </c>
       <c r="Q16">
-        <v>1.000010530886216</v>
+        <v>1.008093225</v>
       </c>
       <c r="R16">
-        <v>0.9999944474484147</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="S16">
-        <v>1.000000050301657</v>
+        <v>0.96799464</v>
       </c>
       <c r="T16">
-        <v>0.9999944474484147</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="U16">
-        <v>0.9999950006077585</v>
+        <v>0.9895625300000001</v>
       </c>
       <c r="V16">
-        <v>0.9999919707914195</v>
+        <v>1.002503264</v>
       </c>
       <c r="W16">
-        <v>0.9999977705138332</v>
+        <v>0.99209275875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000144877184505</v>
+        <v>1.0273165</v>
       </c>
       <c r="D17">
-        <v>0.999878699515234</v>
+        <v>0.93360033</v>
       </c>
       <c r="E17">
-        <v>0.9999943177185844</v>
+        <v>1.0739265</v>
       </c>
       <c r="F17">
-        <v>1.000144877184505</v>
+        <v>1.0739265</v>
       </c>
       <c r="G17">
-        <v>0.9999717720399854</v>
+        <v>0.9780460999999999</v>
       </c>
       <c r="H17">
-        <v>1.000041243808312</v>
+        <v>1.0371619</v>
       </c>
       <c r="I17">
-        <v>1.000144877184505</v>
+        <v>1.021634</v>
       </c>
       <c r="J17">
-        <v>0.999878699515234</v>
+        <v>0.89885176</v>
       </c>
       <c r="K17">
-        <v>0.9999526949152433</v>
+        <v>1.0739265</v>
       </c>
       <c r="L17">
-        <v>1.000050328743957</v>
+        <v>0.89885176</v>
       </c>
       <c r="M17">
-        <v>0.9999148960249042</v>
+        <v>0.97743241</v>
       </c>
       <c r="N17">
-        <v>1.000144877184505</v>
+        <v>1.0739265</v>
       </c>
       <c r="O17">
-        <v>0.9999943177185844</v>
+        <v>1.021634</v>
       </c>
       <c r="P17">
-        <v>0.9999365086169092</v>
+        <v>0.96024288</v>
       </c>
       <c r="Q17">
-        <v>0.9999830448792849</v>
+        <v>0.99984005</v>
       </c>
       <c r="R17">
-        <v>1.000005964806108</v>
+        <v>0.9981374199999999</v>
       </c>
       <c r="S17">
-        <v>0.9999482630912681</v>
+        <v>0.9661772866666666</v>
       </c>
       <c r="T17">
-        <v>1.000005964806108</v>
+        <v>0.9981374199999999</v>
       </c>
       <c r="U17">
-        <v>0.9999974166145773</v>
+        <v>0.9931145899999999</v>
       </c>
       <c r="V17">
-        <v>1.000026908728563</v>
+        <v>1.009276972</v>
       </c>
       <c r="W17">
-        <v>0.9999936037438408</v>
+        <v>0.9934961875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000245459556248</v>
+        <v>1.010189374520548</v>
       </c>
       <c r="D18">
-        <v>0.9994241013259291</v>
+        <v>0.9722875923287669</v>
       </c>
       <c r="E18">
-        <v>1.000221863335574</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="F18">
-        <v>1.000245459556248</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="G18">
-        <v>0.9998809369089197</v>
+        <v>0.9908445227397257</v>
       </c>
       <c r="H18">
-        <v>1.000221943351477</v>
+        <v>1.016014707671233</v>
       </c>
       <c r="I18">
-        <v>1.000245459556248</v>
+        <v>1.011671394520548</v>
       </c>
       <c r="J18">
-        <v>0.9994241013259291</v>
+        <v>0.9571253228767121</v>
       </c>
       <c r="K18">
-        <v>0.9999346694570462</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="L18">
-        <v>1.000100702128573</v>
+        <v>0.9571253228767121</v>
       </c>
       <c r="M18">
-        <v>0.9996390316239088</v>
+        <v>0.9920348065753423</v>
       </c>
       <c r="N18">
-        <v>1.000245459556248</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="O18">
-        <v>1.000221863335574</v>
+        <v>1.011671394520548</v>
       </c>
       <c r="P18">
-        <v>0.9998229823307513</v>
+        <v>0.98439835869863</v>
       </c>
       <c r="Q18">
-        <v>1.000051400122246</v>
+        <v>1.001257958630137</v>
       </c>
       <c r="R18">
-        <v>0.9999638080725836</v>
+        <v>0.9985620288127851</v>
       </c>
       <c r="S18">
-        <v>0.9998423005234741</v>
+        <v>0.9865470800456619</v>
       </c>
       <c r="T18">
-        <v>0.9999638080725836</v>
+        <v>0.9985620288127852</v>
       </c>
       <c r="U18">
-        <v>0.9999430902816675</v>
+        <v>0.9966326522945204</v>
       </c>
       <c r="V18">
-        <v>1.000003564136584</v>
+        <v>1.002683995643835</v>
       </c>
       <c r="W18">
-        <v>0.9999585884609594</v>
+        <v>0.9971321362842465</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00040978017699</v>
+        <v>1.024474426315789</v>
       </c>
       <c r="D19">
-        <v>0.9985578882633189</v>
+        <v>0.9313239894736841</v>
       </c>
       <c r="E19">
-        <v>1.000670817174929</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="F19">
-        <v>1.00040978017699</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="G19">
-        <v>0.999708773196615</v>
+        <v>0.9773157663157894</v>
       </c>
       <c r="H19">
-        <v>1.000567875110294</v>
+        <v>1.040010831578947</v>
       </c>
       <c r="I19">
-        <v>1.00040978017699</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="J19">
-        <v>0.9985578882633189</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="K19">
-        <v>0.9999101596027834</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="L19">
-        <v>1.000188145789222</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="M19">
-        <v>0.9991160558415756</v>
+        <v>0.9811927278947368</v>
       </c>
       <c r="N19">
-        <v>1.00040978017699</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="O19">
-        <v>1.000670817174929</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="P19">
-        <v>0.9996143527191239</v>
+        <v>0.961971967631579</v>
       </c>
       <c r="Q19">
-        <v>1.000189795185772</v>
+        <v>1.003966643684211</v>
       </c>
       <c r="R19">
-        <v>0.9998794952050795</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="S19">
-        <v>0.999645826211621</v>
+        <v>0.9670865671929825</v>
       </c>
       <c r="T19">
-        <v>0.9998794952050792</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="U19">
-        <v>0.9998368147029633</v>
+        <v>0.9913386885526316</v>
       </c>
       <c r="V19">
-        <v>0.9999514077977686</v>
+        <v>1.005889961368421</v>
       </c>
       <c r="W19">
-        <v>0.999891186894466</v>
+        <v>0.9927945911842104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.01316148</v>
+      </c>
+      <c r="D20">
+        <v>0.970663619473684</v>
+      </c>
+      <c r="E20">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="F20">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="G20">
+        <v>0.9902939894736842</v>
+      </c>
+      <c r="H20">
+        <v>1.015963257894737</v>
+      </c>
+      <c r="I20">
+        <v>1.007175011052632</v>
+      </c>
+      <c r="J20">
+        <v>0.9559061805263156</v>
+      </c>
+      <c r="K20">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="L20">
+        <v>0.9559061805263156</v>
+      </c>
+      <c r="M20">
+        <v>0.9887182231578948</v>
+      </c>
+      <c r="N20">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="O20">
+        <v>1.007175011052632</v>
+      </c>
+      <c r="P20">
+        <v>0.9815405957894736</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987345002631579</v>
+      </c>
+      <c r="R20">
+        <v>0.9997729150877194</v>
+      </c>
+      <c r="S20">
+        <v>0.9844583936842105</v>
+      </c>
+      <c r="T20">
+        <v>0.9997729150877194</v>
+      </c>
+      <c r="U20">
+        <v>0.9974031836842105</v>
+      </c>
+      <c r="V20">
+        <v>1.00517005768421</v>
+      </c>
+      <c r="W20">
+        <v>0.9972649144078947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.018061149425779</v>
+      </c>
+      <c r="D21">
+        <v>0.9454244520259752</v>
+      </c>
+      <c r="E21">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="F21">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="G21">
+        <v>0.9819814542321902</v>
+      </c>
+      <c r="H21">
+        <v>1.032374499199281</v>
+      </c>
+      <c r="I21">
+        <v>1.027359190789132</v>
+      </c>
+      <c r="J21">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="K21">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="L21">
+        <v>0.9144724854047235</v>
+      </c>
+      <c r="M21">
+        <v>0.986719975199305</v>
+      </c>
+      <c r="N21">
+        <v>1.046392014274267</v>
+      </c>
+      <c r="O21">
+        <v>1.027359190789132</v>
+      </c>
+      <c r="P21">
+        <v>0.9709158380969279</v>
+      </c>
+      <c r="Q21">
+        <v>1.004670322510661</v>
+      </c>
+      <c r="R21">
+        <v>0.9960745634893744</v>
+      </c>
+      <c r="S21">
+        <v>0.9746043768086819</v>
+      </c>
+      <c r="T21">
+        <v>0.9960745634893744</v>
+      </c>
+      <c r="U21">
+        <v>0.9925512861750784</v>
+      </c>
+      <c r="V21">
+        <v>1.003319431794916</v>
+      </c>
+      <c r="W21">
+        <v>0.9940981525688316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.006360180666128</v>
+      </c>
+      <c r="D22">
+        <v>0.9866026450346961</v>
+      </c>
+      <c r="E22">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="F22">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="G22">
+        <v>0.9955653923526081</v>
+      </c>
+      <c r="H22">
+        <v>1.007144389806458</v>
+      </c>
+      <c r="I22">
+        <v>1.002514156054048</v>
+      </c>
+      <c r="J22">
+        <v>0.9800535967273403</v>
+      </c>
+      <c r="K22">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="L22">
+        <v>0.9800535967273403</v>
+      </c>
+      <c r="M22">
+        <v>0.994428356899527</v>
+      </c>
+      <c r="N22">
+        <v>1.017693063773262</v>
+      </c>
+      <c r="O22">
+        <v>1.002514156054048</v>
+      </c>
+      <c r="P22">
+        <v>0.991283876390694</v>
+      </c>
+      <c r="Q22">
+        <v>0.9990397742033279</v>
+      </c>
+      <c r="R22">
+        <v>1.00008693885155</v>
+      </c>
+      <c r="S22">
+        <v>0.9927110483779987</v>
+      </c>
+      <c r="T22">
+        <v>1.00008693885155</v>
+      </c>
+      <c r="U22">
+        <v>0.9989565522268147</v>
+      </c>
+      <c r="V22">
+        <v>1.002703854536104</v>
+      </c>
+      <c r="W22">
+        <v>0.9987952226642585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9933227632922365</v>
+      </c>
+      <c r="D23">
+        <v>1.017136046100289</v>
+      </c>
+      <c r="E23">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="F23">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="G23">
+        <v>1.005663537866151</v>
+      </c>
+      <c r="H23">
+        <v>0.9902542288156035</v>
+      </c>
+      <c r="I23">
+        <v>0.9936044087255695</v>
+      </c>
+      <c r="J23">
+        <v>1.026306587205432</v>
+      </c>
+      <c r="K23">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="L23">
+        <v>1.026306587205432</v>
+      </c>
+      <c r="M23">
+        <v>1.005377194681916</v>
+      </c>
+      <c r="N23">
+        <v>0.982140404179953</v>
+      </c>
+      <c r="O23">
+        <v>0.9936044087255695</v>
+      </c>
+      <c r="P23">
+        <v>1.009955497965501</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996339732958601</v>
+      </c>
+      <c r="R23">
+        <v>1.000683800036985</v>
+      </c>
+      <c r="S23">
+        <v>1.008524844599051</v>
+      </c>
+      <c r="T23">
+        <v>1.000683800036985</v>
+      </c>
+      <c r="U23">
+        <v>1.001928734494276</v>
+      </c>
+      <c r="V23">
+        <v>0.9979710684314117</v>
+      </c>
+      <c r="W23">
+        <v>1.001725646358394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9983172392220799</v>
+      </c>
+      <c r="D24">
+        <v>1.004482494922416</v>
+      </c>
+      <c r="E24">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="F24">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="G24">
+        <v>1.001481102856113</v>
+      </c>
+      <c r="H24">
+        <v>0.997424044878341</v>
+      </c>
+      <c r="I24">
+        <v>0.9981876606761695</v>
+      </c>
+      <c r="J24">
+        <v>1.006916149344086</v>
+      </c>
+      <c r="K24">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="L24">
+        <v>1.006916149344086</v>
+      </c>
+      <c r="M24">
+        <v>1.001329914800154</v>
+      </c>
+      <c r="N24">
+        <v>0.9955373281899967</v>
+      </c>
+      <c r="O24">
+        <v>0.9981876606761695</v>
+      </c>
+      <c r="P24">
+        <v>1.002551905010128</v>
+      </c>
+      <c r="Q24">
+        <v>0.999834381766141</v>
+      </c>
+      <c r="R24">
+        <v>1.000213712736751</v>
+      </c>
+      <c r="S24">
+        <v>1.002194970958789</v>
+      </c>
+      <c r="T24">
+        <v>1.000213712736751</v>
+      </c>
+      <c r="U24">
+        <v>1.000530560266591</v>
+      </c>
+      <c r="V24">
+        <v>0.9995319138512724</v>
+      </c>
+      <c r="W24">
+        <v>1.000459491861169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9804316076135058</v>
+      </c>
+      <c r="D25">
+        <v>1.054669892349617</v>
+      </c>
+      <c r="E25">
+        <v>0.9486973550584926</v>
+      </c>
+      <c r="F25">
+        <v>0.9486973550584926</v>
+      </c>
+      <c r="G25">
+        <v>1.018058393554247</v>
+      </c>
+      <c r="H25">
+        <v>0.9681847662444154</v>
+      </c>
+      <c r="I25">
+        <v>0.9758130255833966</v>
+      </c>
+      <c r="J25">
+        <v>1.084871525776344</v>
+      </c>
+      <c r="K25">
+        <v>0.9486973550584926</v>
+      </c>
+      <c r="L25">
+        <v>1.084871525776344</v>
+      </c>
+      <c r="M25">
+        <v>1.015074101187873</v>
+      </c>
+      <c r="N25">
+        <v>0.9486973550584926</v>
+      </c>
+      <c r="O25">
+        <v>0.9758130255833966</v>
+      </c>
+      <c r="P25">
+        <v>1.03034227567987</v>
+      </c>
+      <c r="Q25">
+        <v>0.9969357095688217</v>
+      </c>
+      <c r="R25">
+        <v>1.003127302139411</v>
+      </c>
+      <c r="S25">
+        <v>1.026247648304662</v>
+      </c>
+      <c r="T25">
+        <v>1.003127302139411</v>
+      </c>
+      <c r="U25">
+        <v>1.00686007499312</v>
+      </c>
+      <c r="V25">
+        <v>0.9952275310061947</v>
+      </c>
+      <c r="W25">
+        <v>1.005725083420987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9940313069715273</v>
+      </c>
+      <c r="D26">
+        <v>1.013997518950607</v>
+      </c>
+      <c r="E26">
+        <v>0.9837279689633418</v>
+      </c>
+      <c r="F26">
+        <v>0.9837279689633418</v>
+      </c>
+      <c r="G26">
+        <v>1.004629281459032</v>
+      </c>
+      <c r="H26">
+        <v>0.9922536071489271</v>
+      </c>
+      <c r="I26">
+        <v>0.9958978220887749</v>
+      </c>
+      <c r="J26">
+        <v>1.021208330048577</v>
+      </c>
+      <c r="K26">
+        <v>0.9837279689633418</v>
+      </c>
+      <c r="L26">
+        <v>1.021208330048577</v>
+      </c>
+      <c r="M26">
+        <v>1.005009602999427</v>
+      </c>
+      <c r="N26">
+        <v>0.9837279689633418</v>
+      </c>
+      <c r="O26">
+        <v>0.9958978220887749</v>
+      </c>
+      <c r="P26">
+        <v>1.008553076068676</v>
+      </c>
+      <c r="Q26">
+        <v>1.000263551773903</v>
+      </c>
+      <c r="R26">
+        <v>1.000278040366898</v>
+      </c>
+      <c r="S26">
+        <v>1.007245144532128</v>
+      </c>
+      <c r="T26">
+        <v>1.000278040366898</v>
+      </c>
+      <c r="U26">
+        <v>1.001365850639931</v>
+      </c>
+      <c r="V26">
+        <v>0.9978382743046132</v>
+      </c>
+      <c r="W26">
+        <v>1.001344429828777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001515440166417</v>
+      </c>
+      <c r="D27">
+        <v>0.9959527470851911</v>
+      </c>
+      <c r="E27">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="F27">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="G27">
+        <v>0.9986627353084033</v>
+      </c>
+      <c r="H27">
+        <v>1.002327466848992</v>
+      </c>
+      <c r="I27">
+        <v>1.001644935364867</v>
+      </c>
+      <c r="J27">
+        <v>0.9937532639029754</v>
+      </c>
+      <c r="K27">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="L27">
+        <v>0.9937532639029754</v>
+      </c>
+      <c r="M27">
+        <v>0.9988039196015001</v>
+      </c>
+      <c r="N27">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="O27">
+        <v>1.001644935364867</v>
+      </c>
+      <c r="P27">
+        <v>0.9976990996339213</v>
+      </c>
+      <c r="Q27">
+        <v>1.000153835336635</v>
+      </c>
+      <c r="R27">
+        <v>0.9998048993013663</v>
+      </c>
+      <c r="S27">
+        <v>0.9980203115254153</v>
+      </c>
+      <c r="T27">
+        <v>0.9998048993013663</v>
+      </c>
+      <c r="U27">
+        <v>0.9995193583031255</v>
+      </c>
+      <c r="V27">
+        <v>1.000418786369752</v>
+      </c>
+      <c r="W27">
+        <v>0.9995846258643253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.00132501712683</v>
+      </c>
+      <c r="D28">
+        <v>0.9959045839931319</v>
+      </c>
+      <c r="E28">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="F28">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="G28">
+        <v>0.9986480427732345</v>
+      </c>
+      <c r="H28">
+        <v>1.002442058496041</v>
+      </c>
+      <c r="I28">
+        <v>1.002119184655568</v>
+      </c>
+      <c r="J28">
+        <v>0.9935654045107463</v>
+      </c>
+      <c r="K28">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="L28">
+        <v>0.9935654045107463</v>
+      </c>
+      <c r="M28">
+        <v>0.9990398107376472</v>
+      </c>
+      <c r="N28">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="O28">
+        <v>1.002119184655568</v>
+      </c>
+      <c r="P28">
+        <v>0.997842294583157</v>
+      </c>
+      <c r="Q28">
+        <v>1.000383613714401</v>
+      </c>
+      <c r="R28">
+        <v>0.9996889000673943</v>
+      </c>
+      <c r="S28">
+        <v>0.9981108773131829</v>
+      </c>
+      <c r="T28">
+        <v>0.9996889000673943</v>
+      </c>
+      <c r="U28">
+        <v>0.9994286857438544</v>
+      </c>
+      <c r="V28">
+        <v>1.000219370802257</v>
+      </c>
+      <c r="W28">
+        <v>0.9995532766661335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.997057611162947</v>
+      </c>
+      <c r="D29">
+        <v>1.008045078203305</v>
+      </c>
+      <c r="E29">
+        <v>0.9922450915811143</v>
+      </c>
+      <c r="F29">
+        <v>0.9922450915811143</v>
+      </c>
+      <c r="G29">
+        <v>1.002657788018966</v>
+      </c>
+      <c r="H29">
+        <v>0.9953443105434455</v>
+      </c>
+      <c r="I29">
+        <v>0.9965775642320657</v>
+      </c>
+      <c r="J29">
+        <v>1.012455323028856</v>
+      </c>
+      <c r="K29">
+        <v>0.9922450915811143</v>
+      </c>
+      <c r="L29">
+        <v>1.012455323028856</v>
+      </c>
+      <c r="M29">
+        <v>1.002293549107383</v>
+      </c>
+      <c r="N29">
+        <v>0.9922450915811143</v>
+      </c>
+      <c r="O29">
+        <v>0.9965775642320657</v>
+      </c>
+      <c r="P29">
+        <v>1.004516443630461</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996176761255156</v>
+      </c>
+      <c r="R29">
+        <v>1.000425992947345</v>
+      </c>
+      <c r="S29">
+        <v>1.003896891759963</v>
+      </c>
+      <c r="T29">
+        <v>1.000425992947346</v>
+      </c>
+      <c r="U29">
+        <v>1.000983941715251</v>
+      </c>
+      <c r="V29">
+        <v>0.9992361716884233</v>
+      </c>
+      <c r="W29">
+        <v>1.00083453948476</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003700799652179</v>
+        <v>1.003545428199455</v>
       </c>
       <c r="D4">
-        <v>0.9889639428541864</v>
+        <v>0.9911716112925784</v>
       </c>
       <c r="E4">
-        <v>1.009540070628207</v>
+        <v>1.009545954223797</v>
       </c>
       <c r="F4">
-        <v>1.009540070628207</v>
+        <v>1.009545954223797</v>
       </c>
       <c r="G4">
-        <v>0.9963560730167285</v>
+        <v>0.9970815574647748</v>
       </c>
       <c r="H4">
-        <v>1.006526411030567</v>
+        <v>1.004977047704038</v>
       </c>
       <c r="I4">
-        <v>1.005426590182938</v>
+        <v>1.003065166219853</v>
       </c>
       <c r="J4">
-        <v>0.982731387638487</v>
+        <v>0.9865043754997704</v>
       </c>
       <c r="K4">
-        <v>1.009540070628207</v>
+        <v>1.009545954223797</v>
       </c>
       <c r="L4">
-        <v>0.982731387638487</v>
+        <v>0.9865043754997704</v>
       </c>
       <c r="M4">
-        <v>0.9972563174939294</v>
+        <v>0.9971032814125117</v>
       </c>
       <c r="N4">
-        <v>1.009540070628207</v>
+        <v>1.009545954223797</v>
       </c>
       <c r="O4">
-        <v>1.005426590182938</v>
+        <v>1.003065166219853</v>
       </c>
       <c r="P4">
-        <v>0.9940789889107124</v>
+        <v>0.9947847708598115</v>
       </c>
       <c r="Q4">
-        <v>1.000891331599833</v>
+        <v>1.000073361842314</v>
       </c>
       <c r="R4">
-        <v>0.999232682816544</v>
+        <v>0.9997051653144732</v>
       </c>
       <c r="S4">
-        <v>0.994838016946051</v>
+        <v>0.9955503663947992</v>
       </c>
       <c r="T4">
-        <v>0.9992326828165439</v>
+        <v>0.9997051653144732</v>
       </c>
       <c r="U4">
-        <v>0.99851353036659</v>
+        <v>0.9990492633520486</v>
       </c>
       <c r="V4">
-        <v>1.000718838418913</v>
+        <v>1.001148601526398</v>
       </c>
       <c r="W4">
-        <v>0.9988126990621529</v>
+        <v>0.9991243027520971</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004681248025937</v>
+        <v>1.010593309143887</v>
       </c>
       <c r="D5">
-        <v>0.9884016634293925</v>
+        <v>0.9770657826682845</v>
       </c>
       <c r="E5">
-        <v>1.012617704149855</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="F5">
-        <v>1.012617704149855</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="G5">
-        <v>0.9961657443371772</v>
+        <v>0.9924103663733949</v>
       </c>
       <c r="H5">
-        <v>1.006528855446687</v>
+        <v>1.012352798726128</v>
       </c>
       <c r="I5">
-        <v>1.003975780266571</v>
+        <v>1.004945895251489</v>
       </c>
       <c r="J5">
-        <v>0.9822828184726213</v>
+        <v>0.9656945014898176</v>
       </c>
       <c r="K5">
-        <v>1.012617704149855</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="L5">
-        <v>0.9822828184726213</v>
+        <v>0.9656945014898176</v>
       </c>
       <c r="M5">
-        <v>0.9961663133213293</v>
+        <v>0.990815383663935</v>
       </c>
       <c r="N5">
-        <v>1.012617704149855</v>
+        <v>1.029324515132514</v>
       </c>
       <c r="O5">
-        <v>1.003975780266571</v>
+        <v>1.004945895251489</v>
       </c>
       <c r="P5">
-        <v>0.9931292993695959</v>
+        <v>0.9853201983706534</v>
       </c>
       <c r="Q5">
-        <v>1.000070762301874</v>
+        <v>0.9986781308124419</v>
       </c>
       <c r="R5">
-        <v>0.999625434296349</v>
+        <v>0.9999883039579404</v>
       </c>
       <c r="S5">
-        <v>0.994141447692123</v>
+        <v>0.9876835877049005</v>
       </c>
       <c r="T5">
-        <v>0.999625434296349</v>
+        <v>0.9999883039579402</v>
       </c>
       <c r="U5">
-        <v>0.998760511806556</v>
+        <v>0.9980938195618039</v>
       </c>
       <c r="V5">
-        <v>1.001531950275216</v>
+        <v>1.004339958675946</v>
       </c>
       <c r="W5">
-        <v>0.9988525159311963</v>
+        <v>0.9979003190561813</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015548604729466</v>
+        <v>1.003700799652179</v>
       </c>
       <c r="D6">
-        <v>0.9621104143684436</v>
+        <v>0.9889639428541864</v>
       </c>
       <c r="E6">
-        <v>1.042056978171732</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="F6">
-        <v>1.042056978171732</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="G6">
-        <v>0.9874726977810643</v>
+        <v>0.9963560730167285</v>
       </c>
       <c r="H6">
-        <v>1.021221908755052</v>
+        <v>1.006526411030567</v>
       </c>
       <c r="I6">
-        <v>1.012430061017773</v>
+        <v>1.005426590182938</v>
       </c>
       <c r="J6">
-        <v>0.9422606374684644</v>
+        <v>0.982731387638487</v>
       </c>
       <c r="K6">
-        <v>1.042056978171732</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="L6">
-        <v>0.9422606374684644</v>
+        <v>0.982731387638487</v>
       </c>
       <c r="M6">
-        <v>0.9871690600516752</v>
+        <v>0.9972563174939294</v>
       </c>
       <c r="N6">
-        <v>1.042056978171732</v>
+        <v>1.009540070628207</v>
       </c>
       <c r="O6">
-        <v>1.012430061017773</v>
+        <v>1.005426590182938</v>
       </c>
       <c r="P6">
-        <v>0.9773453492431188</v>
+        <v>0.9940789889107124</v>
       </c>
       <c r="Q6">
-        <v>0.9999513793994186</v>
+        <v>1.000891331599833</v>
       </c>
       <c r="R6">
-        <v>0.9989158922193232</v>
+        <v>0.999232682816544</v>
       </c>
       <c r="S6">
-        <v>0.9807211320891006</v>
+        <v>0.994838016946051</v>
       </c>
       <c r="T6">
-        <v>0.9989158922193232</v>
+        <v>0.9992326828165439</v>
       </c>
       <c r="U6">
-        <v>0.9960550936097585</v>
+        <v>0.99851353036659</v>
       </c>
       <c r="V6">
-        <v>1.005255470522153</v>
+        <v>1.000718838418913</v>
       </c>
       <c r="W6">
-        <v>0.9962837952929589</v>
+        <v>0.9988126990621529</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000478406986654</v>
+        <v>1.004681248025937</v>
       </c>
       <c r="D7">
-        <v>0.9987387724227361</v>
+        <v>0.9884016634293925</v>
       </c>
       <c r="E7">
-        <v>1.001271793816594</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="F7">
-        <v>1.001271793816594</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="G7">
-        <v>0.9995832360465199</v>
+        <v>0.9961657443371772</v>
       </c>
       <c r="H7">
-        <v>1.000722732717602</v>
+        <v>1.006528855446687</v>
       </c>
       <c r="I7">
-        <v>1.000499172436589</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="J7">
-        <v>0.998056707179834</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="K7">
-        <v>1.001271793816594</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="L7">
-        <v>0.998056707179834</v>
+        <v>0.9822828184726213</v>
       </c>
       <c r="M7">
-        <v>0.9996198846209775</v>
+        <v>0.9961663133213293</v>
       </c>
       <c r="N7">
-        <v>1.001271793816594</v>
+        <v>1.012617704149855</v>
       </c>
       <c r="O7">
-        <v>1.000499172436589</v>
+        <v>1.003975780266571</v>
       </c>
       <c r="P7">
-        <v>0.9992779398082114</v>
+        <v>0.9931292993695959</v>
       </c>
       <c r="Q7">
-        <v>1.000041204241554</v>
+        <v>1.000070762301874</v>
       </c>
       <c r="R7">
-        <v>0.9999425578110056</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="S7">
-        <v>0.999379705220981</v>
+        <v>0.994141447692123</v>
       </c>
       <c r="T7">
-        <v>0.9999425578110056</v>
+        <v>0.999625434296349</v>
       </c>
       <c r="U7">
-        <v>0.9998527273698842</v>
+        <v>0.998760511806556</v>
       </c>
       <c r="V7">
-        <v>1.000136540659226</v>
+        <v>1.001531950275216</v>
       </c>
       <c r="W7">
-        <v>0.9998713382784382</v>
+        <v>0.9988525159311963</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000050328743957</v>
+        <v>1.015548604729466</v>
       </c>
       <c r="D8">
-        <v>0.9999148960249042</v>
+        <v>0.9621104143684436</v>
       </c>
       <c r="E8">
-        <v>1.000144877184505</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="F8">
-        <v>1.000144877184505</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="G8">
-        <v>0.9999717720399854</v>
+        <v>0.9874726977810643</v>
       </c>
       <c r="H8">
-        <v>1.000041243808312</v>
+        <v>1.021221908755052</v>
       </c>
       <c r="I8">
-        <v>0.9999943177185844</v>
+        <v>1.012430061017773</v>
       </c>
       <c r="J8">
-        <v>0.999878699515234</v>
+        <v>0.9422606374684644</v>
       </c>
       <c r="K8">
-        <v>1.000144877184505</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="L8">
-        <v>0.999878699515234</v>
+        <v>0.9422606374684644</v>
       </c>
       <c r="M8">
-        <v>0.9999526949152433</v>
+        <v>0.9871690600516752</v>
       </c>
       <c r="N8">
-        <v>1.000144877184505</v>
+        <v>1.042056978171732</v>
       </c>
       <c r="O8">
-        <v>0.9999943177185844</v>
+        <v>1.012430061017773</v>
       </c>
       <c r="P8">
-        <v>0.9999365086169092</v>
+        <v>0.9773453492431188</v>
       </c>
       <c r="Q8">
-        <v>0.9999830448792849</v>
+        <v>0.9999513793994186</v>
       </c>
       <c r="R8">
-        <v>1.000005964806108</v>
+        <v>0.9989158922193232</v>
       </c>
       <c r="S8">
-        <v>0.9999482630912681</v>
+        <v>0.9807211320891006</v>
       </c>
       <c r="T8">
-        <v>1.000005964806108</v>
+        <v>0.9989158922193232</v>
       </c>
       <c r="U8">
-        <v>0.9999974166145773</v>
+        <v>0.9960550936097585</v>
       </c>
       <c r="V8">
-        <v>1.000026908728563</v>
+        <v>1.005255470522153</v>
       </c>
       <c r="W8">
-        <v>0.9999936037438408</v>
+        <v>0.9962837952929589</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000784177596761</v>
+        <v>1.000478406986654</v>
       </c>
       <c r="D9">
-        <v>0.9978592579276465</v>
+        <v>0.9987387724227361</v>
       </c>
       <c r="E9">
-        <v>1.002067550152149</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="F9">
-        <v>1.002067550152149</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="G9">
-        <v>0.9992927703174763</v>
+        <v>0.9995832360465199</v>
       </c>
       <c r="H9">
-        <v>1.001238336267949</v>
+        <v>1.000722732717602</v>
       </c>
       <c r="I9">
-        <v>1.000908004782062</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="J9">
-        <v>0.9966863920260514</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="K9">
-        <v>1.002067550152149</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="L9">
-        <v>0.9966863920260514</v>
+        <v>0.998056707179834</v>
       </c>
       <c r="M9">
-        <v>0.9993882239207125</v>
+        <v>0.9996198846209775</v>
       </c>
       <c r="N9">
-        <v>1.002067550152149</v>
+        <v>1.001271793816594</v>
       </c>
       <c r="O9">
-        <v>1.000908004782062</v>
+        <v>1.000499172436589</v>
       </c>
       <c r="P9">
-        <v>0.9987971984040569</v>
+        <v>0.9992779398082114</v>
       </c>
       <c r="Q9">
-        <v>1.000100387549769</v>
+        <v>1.000041204241554</v>
       </c>
       <c r="R9">
-        <v>0.9998873156534209</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="S9">
-        <v>0.9989623890418633</v>
+        <v>0.999379705220981</v>
       </c>
       <c r="T9">
-        <v>0.9998873156534209</v>
+        <v>0.9999425578110056</v>
       </c>
       <c r="U9">
-        <v>0.9997386793194347</v>
+        <v>0.9998527273698842</v>
       </c>
       <c r="V9">
-        <v>1.000204453485978</v>
+        <v>1.000136540659226</v>
       </c>
       <c r="W9">
-        <v>0.9997780891238509</v>
+        <v>0.9998713382784382</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015791663384053</v>
+        <v>1.000050328743957</v>
       </c>
       <c r="D10">
-        <v>0.9615576535536218</v>
+        <v>0.9999148960249042</v>
       </c>
       <c r="E10">
-        <v>1.042723634115406</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="F10">
-        <v>1.042723634115406</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="G10">
-        <v>0.9872898444927015</v>
+        <v>0.9999717720399854</v>
       </c>
       <c r="H10">
-        <v>1.021524747230693</v>
+        <v>1.000041243808312</v>
       </c>
       <c r="I10">
-        <v>1.012576010163799</v>
+        <v>0.9999943177185844</v>
       </c>
       <c r="J10">
-        <v>0.9414271294986308</v>
+        <v>0.999878699515234</v>
       </c>
       <c r="K10">
-        <v>1.042723634115406</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="L10">
-        <v>0.9414271294986308</v>
+        <v>0.999878699515234</v>
       </c>
       <c r="M10">
-        <v>0.9869624053002912</v>
+        <v>0.9999526949152433</v>
       </c>
       <c r="N10">
-        <v>1.042723634115406</v>
+        <v>1.000144877184505</v>
       </c>
       <c r="O10">
-        <v>1.012576010163799</v>
+        <v>0.9999943177185844</v>
       </c>
       <c r="P10">
-        <v>0.9770015698312147</v>
+        <v>0.9999365086169092</v>
       </c>
       <c r="Q10">
-        <v>0.99993292732825</v>
+        <v>0.9999830448792849</v>
       </c>
       <c r="R10">
-        <v>0.9989089245926118</v>
+        <v>1.000005964806108</v>
       </c>
       <c r="S10">
-        <v>0.980430994718377</v>
+        <v>0.9999482630912681</v>
       </c>
       <c r="T10">
-        <v>0.9989089245926118</v>
+        <v>1.000005964806108</v>
       </c>
       <c r="U10">
-        <v>0.9960041545676342</v>
+        <v>0.9999974166145773</v>
       </c>
       <c r="V10">
-        <v>1.005348050477189</v>
+        <v>1.000026908728563</v>
       </c>
       <c r="W10">
-        <v>0.9962316359673995</v>
+        <v>0.9999936037438408</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.997319489699486</v>
+        <v>1.000784177596761</v>
       </c>
       <c r="D11">
-        <v>1.005961781715608</v>
+        <v>0.9978592579276465</v>
       </c>
       <c r="E11">
-        <v>0.9926167091352831</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="F11">
-        <v>0.9926167091352831</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="G11">
-        <v>1.001972504800996</v>
+        <v>0.9992927703174763</v>
       </c>
       <c r="H11">
-        <v>0.9967583464677426</v>
+        <v>1.001238336267949</v>
       </c>
       <c r="I11">
-        <v>0.9985545766814193</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="J11">
-        <v>1.00895763556307</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="K11">
-        <v>0.9926167091352831</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="L11">
-        <v>1.00895763556307</v>
+        <v>0.9966863920260514</v>
       </c>
       <c r="M11">
-        <v>1.002299677343585</v>
+        <v>0.9993882239207125</v>
       </c>
       <c r="N11">
-        <v>0.9926167091352831</v>
+        <v>1.002067550152149</v>
       </c>
       <c r="O11">
-        <v>0.9985545766814193</v>
+        <v>1.000908004782062</v>
       </c>
       <c r="P11">
-        <v>1.003756106122244</v>
+        <v>0.9987971984040569</v>
       </c>
       <c r="Q11">
-        <v>1.000263540741207</v>
+        <v>1.000100387549769</v>
       </c>
       <c r="R11">
-        <v>1.000042973793257</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="S11">
-        <v>1.003161572348495</v>
+        <v>0.9989623890418633</v>
       </c>
       <c r="T11">
-        <v>1.000042973793257</v>
+        <v>0.9998873156534209</v>
       </c>
       <c r="U11">
-        <v>1.000525356545192</v>
+        <v>0.9997386793194347</v>
       </c>
       <c r="V11">
-        <v>0.9989436270632102</v>
+        <v>1.000204453485978</v>
       </c>
       <c r="W11">
-        <v>1.000555090175899</v>
+        <v>0.9997780891238509</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004620626947368</v>
+        <v>1.015791663384053</v>
       </c>
       <c r="D12">
-        <v>0.9888264379473665</v>
+        <v>0.9615576535536218</v>
       </c>
       <c r="E12">
-        <v>1.012518285094739</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="F12">
-        <v>1.012518285094739</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="G12">
-        <v>0.9963055149789503</v>
+        <v>0.9872898444927015</v>
       </c>
       <c r="H12">
-        <v>1.006243551957896</v>
+        <v>1.021524747230693</v>
       </c>
       <c r="I12">
-        <v>1.003588440410526</v>
+        <v>1.012576010163799</v>
       </c>
       <c r="J12">
-        <v>0.9829920425473661</v>
+        <v>0.9414271294986308</v>
       </c>
       <c r="K12">
-        <v>1.012518285094739</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="L12">
-        <v>0.9829920425473661</v>
+        <v>0.9414271294986308</v>
       </c>
       <c r="M12">
-        <v>0.9961737370526323</v>
+        <v>0.9869624053002912</v>
       </c>
       <c r="N12">
-        <v>1.012518285094739</v>
+        <v>1.042723634115406</v>
       </c>
       <c r="O12">
-        <v>1.003588440410526</v>
+        <v>1.012576010163799</v>
       </c>
       <c r="P12">
-        <v>0.9932902414789457</v>
+        <v>0.9770015698312147</v>
       </c>
       <c r="Q12">
-        <v>0.9999469776947378</v>
+        <v>0.99993292732825</v>
       </c>
       <c r="R12">
-        <v>0.9996995893508768</v>
+        <v>0.9989089245926118</v>
       </c>
       <c r="S12">
-        <v>0.9942953326456139</v>
+        <v>0.980430994718377</v>
       </c>
       <c r="T12">
-        <v>0.9996995893508768</v>
+        <v>0.9989089245926118</v>
       </c>
       <c r="U12">
-        <v>0.9988510707578951</v>
+        <v>0.9960041545676342</v>
       </c>
       <c r="V12">
-        <v>1.001584513625264</v>
+        <v>1.005348050477189</v>
       </c>
       <c r="W12">
-        <v>0.9989085796171053</v>
+        <v>0.9962316359673995</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9970039168786379</v>
+        <v>0.997319489699486</v>
       </c>
       <c r="D13">
-        <v>1.007648664198811</v>
+        <v>1.005961781715608</v>
       </c>
       <c r="E13">
-        <v>0.9919769918013629</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="F13">
-        <v>0.9919769918013629</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="G13">
-        <v>1.002528011131022</v>
+        <v>1.001972504800996</v>
       </c>
       <c r="H13">
-        <v>0.9956565260815274</v>
+        <v>0.9967583464677426</v>
       </c>
       <c r="I13">
-        <v>0.9971795787318821</v>
+        <v>0.9985545766814193</v>
       </c>
       <c r="J13">
-        <v>1.011733381303023</v>
+        <v>1.00895763556307</v>
       </c>
       <c r="K13">
-        <v>0.9919769918013629</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="L13">
-        <v>1.011733381303023</v>
+        <v>1.00895763556307</v>
       </c>
       <c r="M13">
-        <v>1.002418950107197</v>
+        <v>1.002299677343585</v>
       </c>
       <c r="N13">
-        <v>0.9919769918013629</v>
+        <v>0.9926167091352831</v>
       </c>
       <c r="O13">
-        <v>0.9971795787318821</v>
+        <v>0.9985545766814193</v>
       </c>
       <c r="P13">
-        <v>1.004456480017452</v>
+        <v>1.003756106122244</v>
       </c>
       <c r="Q13">
-        <v>0.9998537949314519</v>
+        <v>1.000263540741207</v>
       </c>
       <c r="R13">
-        <v>1.000296650612089</v>
+        <v>1.000042973793257</v>
       </c>
       <c r="S13">
-        <v>1.003813657055309</v>
+        <v>1.003161572348495</v>
       </c>
       <c r="T13">
-        <v>1.000296650612089</v>
+        <v>1.000042973793257</v>
       </c>
       <c r="U13">
-        <v>1.000854490741822</v>
+        <v>1.000525356545192</v>
       </c>
       <c r="V13">
-        <v>0.9990789909537303</v>
+        <v>0.9989436270632102</v>
       </c>
       <c r="W13">
-        <v>1.000768252529183</v>
+        <v>1.000555090175899</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0273139</v>
+        <v>1.004620626947368</v>
       </c>
       <c r="D14">
-        <v>0.9336067300000004</v>
+        <v>0.9888264379473665</v>
       </c>
       <c r="E14">
-        <v>1.0739194</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="F14">
-        <v>1.0739194</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="G14">
-        <v>0.9780482199999997</v>
+        <v>0.9963055149789503</v>
       </c>
       <c r="H14">
-        <v>1.037158300000001</v>
+        <v>1.006243551957896</v>
       </c>
       <c r="I14">
-        <v>1.021631900000001</v>
+        <v>1.003588440410526</v>
       </c>
       <c r="J14">
-        <v>0.8988615299999991</v>
+        <v>0.9829920425473661</v>
       </c>
       <c r="K14">
-        <v>1.0739194</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="L14">
-        <v>0.8988615299999991</v>
+        <v>0.9829920425473661</v>
       </c>
       <c r="M14">
-        <v>0.9774345499999995</v>
+        <v>0.9961737370526323</v>
       </c>
       <c r="N14">
-        <v>1.0739194</v>
+        <v>1.012518285094739</v>
       </c>
       <c r="O14">
-        <v>1.021631900000001</v>
+        <v>1.003588440410526</v>
       </c>
       <c r="P14">
-        <v>0.9602467150000001</v>
+        <v>0.9932902414789457</v>
       </c>
       <c r="Q14">
-        <v>0.9998400600000004</v>
+        <v>0.9999469776947378</v>
       </c>
       <c r="R14">
-        <v>0.99813761</v>
+        <v>0.9996995893508768</v>
       </c>
       <c r="S14">
-        <v>0.9661805499999999</v>
+        <v>0.9942953326456139</v>
       </c>
       <c r="T14">
-        <v>0.99813761</v>
+        <v>0.9996995893508768</v>
       </c>
       <c r="U14">
-        <v>0.9931152624999999</v>
+        <v>0.9988510707578951</v>
       </c>
       <c r="V14">
-        <v>1.00927609</v>
+        <v>1.001584513625264</v>
       </c>
       <c r="W14">
-        <v>0.9934968162500002</v>
+        <v>0.9989085796171053</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0739241</v>
+        <v>0.9970039168786379</v>
       </c>
       <c r="D15">
-        <v>0.8238079400000001</v>
+        <v>1.007648664198811</v>
       </c>
       <c r="E15">
-        <v>1.2008753</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="F15">
-        <v>1.2008753</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="G15">
-        <v>0.94173666</v>
+        <v>1.002528011131022</v>
       </c>
       <c r="H15">
-        <v>1.0980093</v>
+        <v>0.9956565260815274</v>
       </c>
       <c r="I15">
-        <v>1.0542662</v>
+        <v>0.9971795787318821</v>
       </c>
       <c r="J15">
-        <v>0.73238625</v>
+        <v>1.011733381303023</v>
       </c>
       <c r="K15">
-        <v>1.2008753</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="L15">
-        <v>0.73238625</v>
+        <v>1.011733381303023</v>
       </c>
       <c r="M15">
-        <v>0.93838944</v>
+        <v>1.002418950107197</v>
       </c>
       <c r="N15">
-        <v>1.2008753</v>
+        <v>0.9919769918013629</v>
       </c>
       <c r="O15">
-        <v>1.0542662</v>
+        <v>0.9971795787318821</v>
       </c>
       <c r="P15">
-        <v>0.893326225</v>
+        <v>1.004456480017452</v>
       </c>
       <c r="Q15">
-        <v>0.99800143</v>
+        <v>0.9998537949314519</v>
       </c>
       <c r="R15">
-        <v>0.9958425833333333</v>
+        <v>1.000296650612089</v>
       </c>
       <c r="S15">
-        <v>0.9094630366666667</v>
+        <v>1.003813657055309</v>
       </c>
       <c r="T15">
-        <v>0.9958425833333333</v>
+        <v>1.000296650612089</v>
       </c>
       <c r="U15">
-        <v>0.9823161025</v>
+        <v>1.000854490741822</v>
       </c>
       <c r="V15">
-        <v>1.026027942</v>
+        <v>0.9990789909537303</v>
       </c>
       <c r="W15">
-        <v>0.98292439875</v>
+        <v>1.000768252529183</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0216333</v>
+        <v>1.0273139</v>
       </c>
       <c r="D16">
-        <v>0.9290452899999999</v>
+        <v>0.9336067300000004</v>
       </c>
       <c r="E16">
-        <v>1.0542662</v>
+        <v>1.0739194</v>
       </c>
       <c r="F16">
-        <v>1.0542662</v>
+        <v>1.0739194</v>
       </c>
       <c r="G16">
-        <v>0.9765846500000001</v>
+        <v>0.9780482199999997</v>
       </c>
       <c r="H16">
-        <v>1.0428611</v>
+        <v>1.037158300000001</v>
       </c>
       <c r="I16">
-        <v>1.0396018</v>
+        <v>1.021631900000001</v>
       </c>
       <c r="J16">
-        <v>0.88779747</v>
+        <v>0.8988615299999991</v>
       </c>
       <c r="K16">
-        <v>1.0542662</v>
+        <v>1.0739194</v>
       </c>
       <c r="L16">
-        <v>0.88779747</v>
+        <v>0.8988615299999991</v>
       </c>
       <c r="M16">
-        <v>0.98495226</v>
+        <v>0.9774345499999995</v>
       </c>
       <c r="N16">
-        <v>1.0542662</v>
+        <v>1.0739194</v>
       </c>
       <c r="O16">
-        <v>1.0396018</v>
+        <v>1.021631900000001</v>
       </c>
       <c r="P16">
-        <v>0.963699635</v>
+        <v>0.9602467150000001</v>
       </c>
       <c r="Q16">
-        <v>1.008093225</v>
+        <v>0.9998400600000004</v>
       </c>
       <c r="R16">
-        <v>0.9938884900000001</v>
+        <v>0.99813761</v>
       </c>
       <c r="S16">
-        <v>0.96799464</v>
+        <v>0.9661805499999999</v>
       </c>
       <c r="T16">
-        <v>0.9938884900000001</v>
+        <v>0.99813761</v>
       </c>
       <c r="U16">
-        <v>0.9895625300000001</v>
+        <v>0.9931152624999999</v>
       </c>
       <c r="V16">
-        <v>1.002503264</v>
+        <v>1.00927609</v>
       </c>
       <c r="W16">
-        <v>0.99209275875</v>
+        <v>0.9934968162500002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0273165</v>
+        <v>1.0739241</v>
       </c>
       <c r="D17">
-        <v>0.93360033</v>
+        <v>0.8238079400000001</v>
       </c>
       <c r="E17">
-        <v>1.0739265</v>
+        <v>1.2008753</v>
       </c>
       <c r="F17">
-        <v>1.0739265</v>
+        <v>1.2008753</v>
       </c>
       <c r="G17">
-        <v>0.9780460999999999</v>
+        <v>0.94173666</v>
       </c>
       <c r="H17">
-        <v>1.0371619</v>
+        <v>1.0980093</v>
       </c>
       <c r="I17">
-        <v>1.021634</v>
+        <v>1.0542662</v>
       </c>
       <c r="J17">
-        <v>0.89885176</v>
+        <v>0.73238625</v>
       </c>
       <c r="K17">
-        <v>1.0739265</v>
+        <v>1.2008753</v>
       </c>
       <c r="L17">
-        <v>0.89885176</v>
+        <v>0.73238625</v>
       </c>
       <c r="M17">
-        <v>0.97743241</v>
+        <v>0.93838944</v>
       </c>
       <c r="N17">
-        <v>1.0739265</v>
+        <v>1.2008753</v>
       </c>
       <c r="O17">
-        <v>1.021634</v>
+        <v>1.0542662</v>
       </c>
       <c r="P17">
-        <v>0.96024288</v>
+        <v>0.893326225</v>
       </c>
       <c r="Q17">
-        <v>0.99984005</v>
+        <v>0.99800143</v>
       </c>
       <c r="R17">
-        <v>0.9981374199999999</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="S17">
-        <v>0.9661772866666666</v>
+        <v>0.9094630366666667</v>
       </c>
       <c r="T17">
-        <v>0.9981374199999999</v>
+        <v>0.9958425833333333</v>
       </c>
       <c r="U17">
-        <v>0.9931145899999999</v>
+        <v>0.9823161025</v>
       </c>
       <c r="V17">
-        <v>1.009276972</v>
+        <v>1.026027942</v>
       </c>
       <c r="W17">
-        <v>0.9934961875</v>
+        <v>0.98292439875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010189374520548</v>
+        <v>1.0216333</v>
       </c>
       <c r="D18">
-        <v>0.9722875923287669</v>
+        <v>0.9290452899999999</v>
       </c>
       <c r="E18">
-        <v>1.026889369041095</v>
+        <v>1.0542662</v>
       </c>
       <c r="F18">
-        <v>1.026889369041095</v>
+        <v>1.0542662</v>
       </c>
       <c r="G18">
-        <v>0.9908445227397257</v>
+        <v>0.9765846500000001</v>
       </c>
       <c r="H18">
-        <v>1.016014707671233</v>
+        <v>1.0428611</v>
       </c>
       <c r="I18">
-        <v>1.011671394520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="J18">
-        <v>0.9571253228767121</v>
+        <v>0.88779747</v>
       </c>
       <c r="K18">
-        <v>1.026889369041095</v>
+        <v>1.0542662</v>
       </c>
       <c r="L18">
-        <v>0.9571253228767121</v>
+        <v>0.88779747</v>
       </c>
       <c r="M18">
-        <v>0.9920348065753423</v>
+        <v>0.98495226</v>
       </c>
       <c r="N18">
-        <v>1.026889369041095</v>
+        <v>1.0542662</v>
       </c>
       <c r="O18">
-        <v>1.011671394520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="P18">
-        <v>0.98439835869863</v>
+        <v>0.963699635</v>
       </c>
       <c r="Q18">
-        <v>1.001257958630137</v>
+        <v>1.008093225</v>
       </c>
       <c r="R18">
-        <v>0.9985620288127851</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="S18">
-        <v>0.9865470800456619</v>
+        <v>0.96799464</v>
       </c>
       <c r="T18">
-        <v>0.9985620288127852</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="U18">
-        <v>0.9966326522945204</v>
+        <v>0.9895625300000001</v>
       </c>
       <c r="V18">
-        <v>1.002683995643835</v>
+        <v>1.002503264</v>
       </c>
       <c r="W18">
-        <v>0.9971321362842465</v>
+        <v>0.99209275875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.024474426315789</v>
+        <v>1.0273165</v>
       </c>
       <c r="D19">
-        <v>0.9313239894736841</v>
+        <v>0.93360033</v>
       </c>
       <c r="E19">
-        <v>1.064095052631579</v>
+        <v>1.0739265</v>
       </c>
       <c r="F19">
-        <v>1.064095052631579</v>
+        <v>1.0739265</v>
       </c>
       <c r="G19">
-        <v>0.9773157663157894</v>
+        <v>0.9780460999999999</v>
       </c>
       <c r="H19">
-        <v>1.040010831578947</v>
+        <v>1.0371619</v>
       </c>
       <c r="I19">
-        <v>1.030617521052632</v>
+        <v>1.021634</v>
       </c>
       <c r="J19">
-        <v>0.8933264142105264</v>
+        <v>0.89885176</v>
       </c>
       <c r="K19">
-        <v>1.064095052631579</v>
+        <v>1.0739265</v>
       </c>
       <c r="L19">
-        <v>0.8933264142105264</v>
+        <v>0.89885176</v>
       </c>
       <c r="M19">
-        <v>0.9811927278947368</v>
+        <v>0.97743241</v>
       </c>
       <c r="N19">
-        <v>1.064095052631579</v>
+        <v>1.0739265</v>
       </c>
       <c r="O19">
-        <v>1.030617521052632</v>
+        <v>1.021634</v>
       </c>
       <c r="P19">
-        <v>0.961971967631579</v>
+        <v>0.96024288</v>
       </c>
       <c r="Q19">
-        <v>1.003966643684211</v>
+        <v>0.99984005</v>
       </c>
       <c r="R19">
-        <v>0.9960129959649123</v>
+        <v>0.9981374199999999</v>
       </c>
       <c r="S19">
-        <v>0.9670865671929825</v>
+        <v>0.9661772866666666</v>
       </c>
       <c r="T19">
-        <v>0.9960129959649123</v>
+        <v>0.9981374199999999</v>
       </c>
       <c r="U19">
-        <v>0.9913386885526316</v>
+        <v>0.9931145899999999</v>
       </c>
       <c r="V19">
-        <v>1.005889961368421</v>
+        <v>1.009276972</v>
       </c>
       <c r="W19">
-        <v>0.9927945911842104</v>
+        <v>0.9934961875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.01316148</v>
+        <v>1.010189374520548</v>
       </c>
       <c r="D20">
-        <v>0.970663619473684</v>
+        <v>0.9722875923287669</v>
       </c>
       <c r="E20">
-        <v>1.036237553684211</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="F20">
-        <v>1.036237553684211</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="G20">
-        <v>0.9902939894736842</v>
+        <v>0.9908445227397257</v>
       </c>
       <c r="H20">
-        <v>1.015963257894737</v>
+        <v>1.016014707671233</v>
       </c>
       <c r="I20">
-        <v>1.007175011052632</v>
+        <v>1.011671394520548</v>
       </c>
       <c r="J20">
-        <v>0.9559061805263156</v>
+        <v>0.9571253228767121</v>
       </c>
       <c r="K20">
-        <v>1.036237553684211</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="L20">
-        <v>0.9559061805263156</v>
+        <v>0.9571253228767121</v>
       </c>
       <c r="M20">
-        <v>0.9887182231578948</v>
+        <v>0.9920348065753423</v>
       </c>
       <c r="N20">
-        <v>1.036237553684211</v>
+        <v>1.026889369041095</v>
       </c>
       <c r="O20">
-        <v>1.007175011052632</v>
+        <v>1.011671394520548</v>
       </c>
       <c r="P20">
-        <v>0.9815405957894736</v>
+        <v>0.98439835869863</v>
       </c>
       <c r="Q20">
-        <v>0.9987345002631579</v>
+        <v>1.001257958630137</v>
       </c>
       <c r="R20">
-        <v>0.9997729150877194</v>
+        <v>0.9985620288127851</v>
       </c>
       <c r="S20">
-        <v>0.9844583936842105</v>
+        <v>0.9865470800456619</v>
       </c>
       <c r="T20">
-        <v>0.9997729150877194</v>
+        <v>0.9985620288127852</v>
       </c>
       <c r="U20">
-        <v>0.9974031836842105</v>
+        <v>0.9966326522945204</v>
       </c>
       <c r="V20">
-        <v>1.00517005768421</v>
+        <v>1.002683995643835</v>
       </c>
       <c r="W20">
-        <v>0.9972649144078947</v>
+        <v>0.9971321362842465</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.018061149425779</v>
+        <v>1.024474426315789</v>
       </c>
       <c r="D21">
-        <v>0.9454244520259752</v>
+        <v>0.9313239894736841</v>
       </c>
       <c r="E21">
-        <v>1.046392014274267</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="F21">
-        <v>1.046392014274267</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="G21">
-        <v>0.9819814542321902</v>
+        <v>0.9773157663157894</v>
       </c>
       <c r="H21">
-        <v>1.032374499199281</v>
+        <v>1.040010831578947</v>
       </c>
       <c r="I21">
-        <v>1.027359190789132</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="J21">
-        <v>0.9144724854047235</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="K21">
-        <v>1.046392014274267</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="L21">
-        <v>0.9144724854047235</v>
+        <v>0.8933264142105264</v>
       </c>
       <c r="M21">
-        <v>0.986719975199305</v>
+        <v>0.9811927278947368</v>
       </c>
       <c r="N21">
-        <v>1.046392014274267</v>
+        <v>1.064095052631579</v>
       </c>
       <c r="O21">
-        <v>1.027359190789132</v>
+        <v>1.030617521052632</v>
       </c>
       <c r="P21">
-        <v>0.9709158380969279</v>
+        <v>0.961971967631579</v>
       </c>
       <c r="Q21">
-        <v>1.004670322510661</v>
+        <v>1.003966643684211</v>
       </c>
       <c r="R21">
-        <v>0.9960745634893744</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="S21">
-        <v>0.9746043768086819</v>
+        <v>0.9670865671929825</v>
       </c>
       <c r="T21">
-        <v>0.9960745634893744</v>
+        <v>0.9960129959649123</v>
       </c>
       <c r="U21">
-        <v>0.9925512861750784</v>
+        <v>0.9913386885526316</v>
       </c>
       <c r="V21">
-        <v>1.003319431794916</v>
+        <v>1.005889961368421</v>
       </c>
       <c r="W21">
-        <v>0.9940981525688316</v>
+        <v>0.9927945911842104</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.006360180666128</v>
+        <v>1.01316148</v>
       </c>
       <c r="D22">
-        <v>0.9866026450346961</v>
+        <v>0.970663619473684</v>
       </c>
       <c r="E22">
-        <v>1.017693063773262</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="F22">
-        <v>1.017693063773262</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="G22">
-        <v>0.9955653923526081</v>
+        <v>0.9902939894736842</v>
       </c>
       <c r="H22">
-        <v>1.007144389806458</v>
+        <v>1.015963257894737</v>
       </c>
       <c r="I22">
-        <v>1.002514156054048</v>
+        <v>1.007175011052632</v>
       </c>
       <c r="J22">
-        <v>0.9800535967273403</v>
+        <v>0.9559061805263156</v>
       </c>
       <c r="K22">
-        <v>1.017693063773262</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="L22">
-        <v>0.9800535967273403</v>
+        <v>0.9559061805263156</v>
       </c>
       <c r="M22">
-        <v>0.994428356899527</v>
+        <v>0.9887182231578948</v>
       </c>
       <c r="N22">
-        <v>1.017693063773262</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="O22">
-        <v>1.002514156054048</v>
+        <v>1.007175011052632</v>
       </c>
       <c r="P22">
-        <v>0.991283876390694</v>
+        <v>0.9815405957894736</v>
       </c>
       <c r="Q22">
-        <v>0.9990397742033279</v>
+        <v>0.9987345002631579</v>
       </c>
       <c r="R22">
-        <v>1.00008693885155</v>
+        <v>0.9997729150877194</v>
       </c>
       <c r="S22">
-        <v>0.9927110483779987</v>
+        <v>0.9844583936842105</v>
       </c>
       <c r="T22">
-        <v>1.00008693885155</v>
+        <v>0.9997729150877194</v>
       </c>
       <c r="U22">
-        <v>0.9989565522268147</v>
+        <v>0.9974031836842105</v>
       </c>
       <c r="V22">
-        <v>1.002703854536104</v>
+        <v>1.00517005768421</v>
       </c>
       <c r="W22">
-        <v>0.9987952226642585</v>
+        <v>0.9972649144078947</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9933227632922365</v>
+        <v>1.018061149425779</v>
       </c>
       <c r="D23">
-        <v>1.017136046100289</v>
+        <v>0.9454244520259752</v>
       </c>
       <c r="E23">
-        <v>0.982140404179953</v>
+        <v>1.046392014274267</v>
       </c>
       <c r="F23">
-        <v>0.982140404179953</v>
+        <v>1.046392014274267</v>
       </c>
       <c r="G23">
-        <v>1.005663537866151</v>
+        <v>0.9819814542321902</v>
       </c>
       <c r="H23">
-        <v>0.9902542288156035</v>
+        <v>1.032374499199281</v>
       </c>
       <c r="I23">
-        <v>0.9936044087255695</v>
+        <v>1.027359190789132</v>
       </c>
       <c r="J23">
-        <v>1.026306587205432</v>
+        <v>0.9144724854047235</v>
       </c>
       <c r="K23">
-        <v>0.982140404179953</v>
+        <v>1.046392014274267</v>
       </c>
       <c r="L23">
-        <v>1.026306587205432</v>
+        <v>0.9144724854047235</v>
       </c>
       <c r="M23">
-        <v>1.005377194681916</v>
+        <v>0.986719975199305</v>
       </c>
       <c r="N23">
-        <v>0.982140404179953</v>
+        <v>1.046392014274267</v>
       </c>
       <c r="O23">
-        <v>0.9936044087255695</v>
+        <v>1.027359190789132</v>
       </c>
       <c r="P23">
-        <v>1.009955497965501</v>
+        <v>0.9709158380969279</v>
       </c>
       <c r="Q23">
-        <v>0.9996339732958601</v>
+        <v>1.004670322510661</v>
       </c>
       <c r="R23">
-        <v>1.000683800036985</v>
+        <v>0.9960745634893744</v>
       </c>
       <c r="S23">
-        <v>1.008524844599051</v>
+        <v>0.9746043768086819</v>
       </c>
       <c r="T23">
-        <v>1.000683800036985</v>
+        <v>0.9960745634893744</v>
       </c>
       <c r="U23">
-        <v>1.001928734494276</v>
+        <v>0.9925512861750784</v>
       </c>
       <c r="V23">
-        <v>0.9979710684314117</v>
+        <v>1.003319431794916</v>
       </c>
       <c r="W23">
-        <v>1.001725646358394</v>
+        <v>0.9940981525688316</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9983172392220799</v>
+        <v>1.006360180666128</v>
       </c>
       <c r="D24">
-        <v>1.004482494922416</v>
+        <v>0.9866026450346961</v>
       </c>
       <c r="E24">
-        <v>0.9955373281899967</v>
+        <v>1.017693063773262</v>
       </c>
       <c r="F24">
-        <v>0.9955373281899967</v>
+        <v>1.017693063773262</v>
       </c>
       <c r="G24">
-        <v>1.001481102856113</v>
+        <v>0.9955653923526081</v>
       </c>
       <c r="H24">
-        <v>0.997424044878341</v>
+        <v>1.007144389806458</v>
       </c>
       <c r="I24">
-        <v>0.9981876606761695</v>
+        <v>1.002514156054048</v>
       </c>
       <c r="J24">
-        <v>1.006916149344086</v>
+        <v>0.9800535967273403</v>
       </c>
       <c r="K24">
-        <v>0.9955373281899967</v>
+        <v>1.017693063773262</v>
       </c>
       <c r="L24">
-        <v>1.006916149344086</v>
+        <v>0.9800535967273403</v>
       </c>
       <c r="M24">
-        <v>1.001329914800154</v>
+        <v>0.994428356899527</v>
       </c>
       <c r="N24">
-        <v>0.9955373281899967</v>
+        <v>1.017693063773262</v>
       </c>
       <c r="O24">
-        <v>0.9981876606761695</v>
+        <v>1.002514156054048</v>
       </c>
       <c r="P24">
-        <v>1.002551905010128</v>
+        <v>0.991283876390694</v>
       </c>
       <c r="Q24">
-        <v>0.999834381766141</v>
+        <v>0.9990397742033279</v>
       </c>
       <c r="R24">
-        <v>1.000213712736751</v>
+        <v>1.00008693885155</v>
       </c>
       <c r="S24">
-        <v>1.002194970958789</v>
+        <v>0.9927110483779987</v>
       </c>
       <c r="T24">
-        <v>1.000213712736751</v>
+        <v>1.00008693885155</v>
       </c>
       <c r="U24">
-        <v>1.000530560266591</v>
+        <v>0.9989565522268147</v>
       </c>
       <c r="V24">
-        <v>0.9995319138512724</v>
+        <v>1.002703854536104</v>
       </c>
       <c r="W24">
-        <v>1.000459491861169</v>
+        <v>0.9987952226642585</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9804316076135058</v>
+        <v>0.9933227632922365</v>
       </c>
       <c r="D25">
-        <v>1.054669892349617</v>
+        <v>1.017136046100289</v>
       </c>
       <c r="E25">
-        <v>0.9486973550584926</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="F25">
-        <v>0.9486973550584926</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="G25">
-        <v>1.018058393554247</v>
+        <v>1.005663537866151</v>
       </c>
       <c r="H25">
-        <v>0.9681847662444154</v>
+        <v>0.9902542288156035</v>
       </c>
       <c r="I25">
-        <v>0.9758130255833966</v>
+        <v>0.9936044087255695</v>
       </c>
       <c r="J25">
-        <v>1.084871525776344</v>
+        <v>1.026306587205432</v>
       </c>
       <c r="K25">
-        <v>0.9486973550584926</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="L25">
-        <v>1.084871525776344</v>
+        <v>1.026306587205432</v>
       </c>
       <c r="M25">
-        <v>1.015074101187873</v>
+        <v>1.005377194681916</v>
       </c>
       <c r="N25">
-        <v>0.9486973550584926</v>
+        <v>0.982140404179953</v>
       </c>
       <c r="O25">
-        <v>0.9758130255833966</v>
+        <v>0.9936044087255695</v>
       </c>
       <c r="P25">
-        <v>1.03034227567987</v>
+        <v>1.009955497965501</v>
       </c>
       <c r="Q25">
-        <v>0.9969357095688217</v>
+        <v>0.9996339732958601</v>
       </c>
       <c r="R25">
-        <v>1.003127302139411</v>
+        <v>1.000683800036985</v>
       </c>
       <c r="S25">
-        <v>1.026247648304662</v>
+        <v>1.008524844599051</v>
       </c>
       <c r="T25">
-        <v>1.003127302139411</v>
+        <v>1.000683800036985</v>
       </c>
       <c r="U25">
-        <v>1.00686007499312</v>
+        <v>1.001928734494276</v>
       </c>
       <c r="V25">
-        <v>0.9952275310061947</v>
+        <v>0.9979710684314117</v>
       </c>
       <c r="W25">
-        <v>1.005725083420987</v>
+        <v>1.001725646358394</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9940313069715273</v>
+        <v>0.9983172392220799</v>
       </c>
       <c r="D26">
-        <v>1.013997518950607</v>
+        <v>1.004482494922416</v>
       </c>
       <c r="E26">
-        <v>0.9837279689633418</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="F26">
-        <v>0.9837279689633418</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="G26">
-        <v>1.004629281459032</v>
+        <v>1.001481102856113</v>
       </c>
       <c r="H26">
-        <v>0.9922536071489271</v>
+        <v>0.997424044878341</v>
       </c>
       <c r="I26">
-        <v>0.9958978220887749</v>
+        <v>0.9981876606761695</v>
       </c>
       <c r="J26">
-        <v>1.021208330048577</v>
+        <v>1.006916149344086</v>
       </c>
       <c r="K26">
-        <v>0.9837279689633418</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="L26">
-        <v>1.021208330048577</v>
+        <v>1.006916149344086</v>
       </c>
       <c r="M26">
-        <v>1.005009602999427</v>
+        <v>1.001329914800154</v>
       </c>
       <c r="N26">
-        <v>0.9837279689633418</v>
+        <v>0.9955373281899967</v>
       </c>
       <c r="O26">
-        <v>0.9958978220887749</v>
+        <v>0.9981876606761695</v>
       </c>
       <c r="P26">
-        <v>1.008553076068676</v>
+        <v>1.002551905010128</v>
       </c>
       <c r="Q26">
-        <v>1.000263551773903</v>
+        <v>0.999834381766141</v>
       </c>
       <c r="R26">
-        <v>1.000278040366898</v>
+        <v>1.000213712736751</v>
       </c>
       <c r="S26">
-        <v>1.007245144532128</v>
+        <v>1.002194970958789</v>
       </c>
       <c r="T26">
-        <v>1.000278040366898</v>
+        <v>1.000213712736751</v>
       </c>
       <c r="U26">
-        <v>1.001365850639931</v>
+        <v>1.000530560266591</v>
       </c>
       <c r="V26">
-        <v>0.9978382743046132</v>
+        <v>0.9995319138512724</v>
       </c>
       <c r="W26">
-        <v>1.001344429828777</v>
+        <v>1.000459491861169</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001515440166417</v>
+        <v>0.9804316076135058</v>
       </c>
       <c r="D27">
-        <v>0.9959527470851911</v>
+        <v>1.054669892349617</v>
       </c>
       <c r="E27">
-        <v>1.004016498636256</v>
+        <v>0.9486973550584926</v>
       </c>
       <c r="F27">
-        <v>1.004016498636256</v>
+        <v>0.9486973550584926</v>
       </c>
       <c r="G27">
-        <v>0.9986627353084033</v>
+        <v>1.018058393554247</v>
       </c>
       <c r="H27">
-        <v>1.002327466848992</v>
+        <v>0.9681847662444154</v>
       </c>
       <c r="I27">
-        <v>1.001644935364867</v>
+        <v>0.9758130255833966</v>
       </c>
       <c r="J27">
-        <v>0.9937532639029754</v>
+        <v>1.084871525776344</v>
       </c>
       <c r="K27">
-        <v>1.004016498636256</v>
+        <v>0.9486973550584926</v>
       </c>
       <c r="L27">
-        <v>0.9937532639029754</v>
+        <v>1.084871525776344</v>
       </c>
       <c r="M27">
-        <v>0.9988039196015001</v>
+        <v>1.015074101187873</v>
       </c>
       <c r="N27">
-        <v>1.004016498636256</v>
+        <v>0.9486973550584926</v>
       </c>
       <c r="O27">
-        <v>1.001644935364867</v>
+        <v>0.9758130255833966</v>
       </c>
       <c r="P27">
-        <v>0.9976990996339213</v>
+        <v>1.03034227567987</v>
       </c>
       <c r="Q27">
-        <v>1.000153835336635</v>
+        <v>0.9969357095688217</v>
       </c>
       <c r="R27">
-        <v>0.9998048993013663</v>
+        <v>1.003127302139411</v>
       </c>
       <c r="S27">
-        <v>0.9980203115254153</v>
+        <v>1.026247648304662</v>
       </c>
       <c r="T27">
-        <v>0.9998048993013663</v>
+        <v>1.003127302139411</v>
       </c>
       <c r="U27">
-        <v>0.9995193583031255</v>
+        <v>1.00686007499312</v>
       </c>
       <c r="V27">
-        <v>1.000418786369752</v>
+        <v>0.9952275310061947</v>
       </c>
       <c r="W27">
-        <v>0.9995846258643253</v>
+        <v>1.005725083420987</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.00132501712683</v>
+        <v>0.9940313069715273</v>
       </c>
       <c r="D28">
-        <v>0.9959045839931319</v>
+        <v>1.013997518950607</v>
       </c>
       <c r="E28">
-        <v>1.003382111035869</v>
+        <v>0.9837279689633418</v>
       </c>
       <c r="F28">
-        <v>1.003382111035869</v>
+        <v>0.9837279689633418</v>
       </c>
       <c r="G28">
-        <v>0.9986480427732345</v>
+        <v>1.004629281459032</v>
       </c>
       <c r="H28">
-        <v>1.002442058496041</v>
+        <v>0.9922536071489271</v>
       </c>
       <c r="I28">
-        <v>1.002119184655568</v>
+        <v>0.9958978220887749</v>
       </c>
       <c r="J28">
-        <v>0.9935654045107463</v>
+        <v>1.021208330048577</v>
       </c>
       <c r="K28">
-        <v>1.003382111035869</v>
+        <v>0.9837279689633418</v>
       </c>
       <c r="L28">
-        <v>0.9935654045107463</v>
+        <v>1.021208330048577</v>
       </c>
       <c r="M28">
-        <v>0.9990398107376472</v>
+        <v>1.005009602999427</v>
       </c>
       <c r="N28">
-        <v>1.003382111035869</v>
+        <v>0.9837279689633418</v>
       </c>
       <c r="O28">
-        <v>1.002119184655568</v>
+        <v>0.9958978220887749</v>
       </c>
       <c r="P28">
-        <v>0.997842294583157</v>
+        <v>1.008553076068676</v>
       </c>
       <c r="Q28">
-        <v>1.000383613714401</v>
+        <v>1.000263551773903</v>
       </c>
       <c r="R28">
-        <v>0.9996889000673943</v>
+        <v>1.000278040366898</v>
       </c>
       <c r="S28">
-        <v>0.9981108773131829</v>
+        <v>1.007245144532128</v>
       </c>
       <c r="T28">
-        <v>0.9996889000673943</v>
+        <v>1.000278040366898</v>
       </c>
       <c r="U28">
-        <v>0.9994286857438544</v>
+        <v>1.001365850639931</v>
       </c>
       <c r="V28">
-        <v>1.000219370802257</v>
+        <v>0.9978382743046132</v>
       </c>
       <c r="W28">
-        <v>0.9995532766661335</v>
+        <v>1.001344429828777</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001515440166417</v>
+      </c>
+      <c r="D29">
+        <v>0.9959527470851911</v>
+      </c>
+      <c r="E29">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="F29">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="G29">
+        <v>0.9986627353084033</v>
+      </c>
+      <c r="H29">
+        <v>1.002327466848992</v>
+      </c>
+      <c r="I29">
+        <v>1.001644935364867</v>
+      </c>
+      <c r="J29">
+        <v>0.9937532639029754</v>
+      </c>
+      <c r="K29">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="L29">
+        <v>0.9937532639029754</v>
+      </c>
+      <c r="M29">
+        <v>0.9988039196015001</v>
+      </c>
+      <c r="N29">
+        <v>1.004016498636256</v>
+      </c>
+      <c r="O29">
+        <v>1.001644935364867</v>
+      </c>
+      <c r="P29">
+        <v>0.9976990996339213</v>
+      </c>
+      <c r="Q29">
+        <v>1.000153835336635</v>
+      </c>
+      <c r="R29">
+        <v>0.9998048993013663</v>
+      </c>
+      <c r="S29">
+        <v>0.9980203115254153</v>
+      </c>
+      <c r="T29">
+        <v>0.9998048993013663</v>
+      </c>
+      <c r="U29">
+        <v>0.9995193583031255</v>
+      </c>
+      <c r="V29">
+        <v>1.000418786369752</v>
+      </c>
+      <c r="W29">
+        <v>0.9995846258643253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00132501712683</v>
+      </c>
+      <c r="D30">
+        <v>0.9959045839931319</v>
+      </c>
+      <c r="E30">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="F30">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="G30">
+        <v>0.9986480427732345</v>
+      </c>
+      <c r="H30">
+        <v>1.002442058496041</v>
+      </c>
+      <c r="I30">
+        <v>1.002119184655568</v>
+      </c>
+      <c r="J30">
+        <v>0.9935654045107463</v>
+      </c>
+      <c r="K30">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="L30">
+        <v>0.9935654045107463</v>
+      </c>
+      <c r="M30">
+        <v>0.9990398107376472</v>
+      </c>
+      <c r="N30">
+        <v>1.003382111035869</v>
+      </c>
+      <c r="O30">
+        <v>1.002119184655568</v>
+      </c>
+      <c r="P30">
+        <v>0.997842294583157</v>
+      </c>
+      <c r="Q30">
+        <v>1.000383613714401</v>
+      </c>
+      <c r="R30">
+        <v>0.9996889000673943</v>
+      </c>
+      <c r="S30">
+        <v>0.9981108773131829</v>
+      </c>
+      <c r="T30">
+        <v>0.9996889000673943</v>
+      </c>
+      <c r="U30">
+        <v>0.9994286857438544</v>
+      </c>
+      <c r="V30">
+        <v>1.000219370802257</v>
+      </c>
+      <c r="W30">
+        <v>0.9995532766661335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.997057611162947</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.008045078203305</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9922450915811143</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9922450915811143</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.002657788018966</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9953443105434455</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9965775642320657</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.012455323028856</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9922450915811143</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.012455323028856</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002293549107383</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9922450915811143</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9965775642320657</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004516443630461</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9996176761255156</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000425992947345</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003896891759963</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000425992947346</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000983941715251</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9992361716884233</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.00083453948476</v>
       </c>
     </row>
